--- a/pinasign.xlsx
+++ b/pinasign.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\MicroController\STM32F4\STM32F4-MotherBoard_4.0.0\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\MicroController\STM32F4\STM32F4-MotherBoard_5.0.0\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="547" uniqueCount="412">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="618" uniqueCount="414">
   <si>
     <t>VPP</t>
     <phoneticPr fontId="2"/>
@@ -1367,10 +1367,6 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>MicroUSBi</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>ADC0</t>
     <phoneticPr fontId="2"/>
   </si>
@@ -1772,22 +1768,6 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>OTG_FS_VBUS</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>OTG_FS_ID</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>OTG_FS_DM</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>OTG_FS_DP</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>ADC12_IN4</t>
     <phoneticPr fontId="2"/>
   </si>
@@ -1957,6 +1937,34 @@
   </si>
   <si>
     <t>ENC2_Z</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>　ver_5.0</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>RS-232(Controller)</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>RS-232(PC)</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>DIO0_4</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>RotarySW0</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ENC1_Z</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ENC0_Z</t>
     <phoneticPr fontId="2"/>
   </si>
 </sst>
@@ -2407,7 +2415,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="93">
+  <cellXfs count="95">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -2686,12 +2694,56 @@
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="標準" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="13">
+  <dxfs count="14">
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Adobe Fangsong Std R"/>
+        <family val="1"/>
+        <charset val="128"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="double">
+          <color auto="1"/>
+        </left>
+        <right style="double">
+          <color auto="1"/>
+        </right>
+        <top style="medium">
+          <color auto="1"/>
+        </top>
+        <bottom style="medium">
+          <color auto="1"/>
+        </bottom>
+        <vertical/>
+        <horizontal style="medium">
+          <color auto="1"/>
+        </horizontal>
+      </border>
+    </dxf>
     <dxf>
       <font>
         <b val="0"/>
@@ -3025,18 +3077,19 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="テーブル1" displayName="テーブル1" ref="A1:I85" totalsRowShown="0" headerRowDxfId="12" dataDxfId="10" headerRowBorderDxfId="11" tableBorderDxfId="9">
-  <autoFilter ref="A1:I85"/>
-  <tableColumns count="9">
-    <tableColumn id="1" name="ピン名" dataDxfId="8"/>
-    <tableColumn id="2" name="機能" dataDxfId="7"/>
-    <tableColumn id="3" name="使用する機能" dataDxfId="6"/>
-    <tableColumn id="6" name="Discovery" dataDxfId="5"/>
-    <tableColumn id="8" name="ver_1.0.2 white" dataDxfId="4"/>
-    <tableColumn id="7" name="ver_3.0" dataDxfId="3"/>
-    <tableColumn id="4" name="　ver_4.0-test" dataDxfId="2"/>
-    <tableColumn id="10" name="　ver_4.0" dataDxfId="1"/>
-    <tableColumn id="5" name="注意" dataDxfId="0"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="テーブル1" displayName="テーブル1" ref="A1:J85" totalsRowShown="0" headerRowDxfId="13" dataDxfId="11" headerRowBorderDxfId="12" tableBorderDxfId="10">
+  <autoFilter ref="A1:J85"/>
+  <tableColumns count="10">
+    <tableColumn id="1" name="ピン名" dataDxfId="9"/>
+    <tableColumn id="2" name="機能" dataDxfId="8"/>
+    <tableColumn id="3" name="使用する機能" dataDxfId="7"/>
+    <tableColumn id="6" name="Discovery" dataDxfId="6"/>
+    <tableColumn id="8" name="ver_1.0.2 white" dataDxfId="5"/>
+    <tableColumn id="7" name="ver_3.0" dataDxfId="4"/>
+    <tableColumn id="4" name="　ver_4.0-test" dataDxfId="3"/>
+    <tableColumn id="10" name="　ver_4.0" dataDxfId="2"/>
+    <tableColumn id="11" name="　ver_5.0" dataDxfId="0"/>
+    <tableColumn id="5" name="注意" dataDxfId="1"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight8" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -3339,10 +3392,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:FK86"/>
+  <dimension ref="A1:FL86"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A26" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="D29" sqref="D29"/>
+    <sheetView tabSelected="1" topLeftCell="A13" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="I16" sqref="I16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="21" x14ac:dyDescent="0.4"/>
@@ -3354,15 +3407,16 @@
     <col min="5" max="5" width="18.25" style="14" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="15" style="14" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="18.5" style="14" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="15.125" style="14" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="25.25" style="42" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="12" style="42" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="12.25" style="40" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="9" style="40"/>
-    <col min="13" max="16384" width="9" style="14"/>
+    <col min="8" max="8" width="16.125" style="14" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="16.375" style="14" customWidth="1"/>
+    <col min="10" max="10" width="25.25" style="42" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="12" style="42" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="12.25" style="40" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="9" style="40"/>
+    <col min="14" max="16384" width="9" style="14"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:74" s="26" customFormat="1" ht="21.75" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:75" s="26" customFormat="1" ht="21.75" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A1" s="44" t="s">
         <v>215</v>
       </c>
@@ -3376,26 +3430,29 @@
         <v>224</v>
       </c>
       <c r="E1" s="29" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="F1" s="29" t="s">
         <v>244</v>
       </c>
       <c r="G1" s="91" t="s">
-        <v>397</v>
+        <v>392</v>
       </c>
       <c r="H1" s="91" t="s">
-        <v>398</v>
-      </c>
-      <c r="I1" s="80" t="s">
+        <v>393</v>
+      </c>
+      <c r="I1" s="93" t="s">
+        <v>407</v>
+      </c>
+      <c r="J1" s="80" t="s">
         <v>218</v>
       </c>
-      <c r="J1" s="42"/>
       <c r="K1" s="42"/>
-      <c r="L1" s="41"/>
+      <c r="L1" s="42"/>
       <c r="M1" s="41"/>
-    </row>
-    <row r="2" spans="1:74" s="32" customFormat="1" ht="21.75" thickTop="1" x14ac:dyDescent="0.4">
+      <c r="N1" s="41"/>
+    </row>
+    <row r="2" spans="1:75" s="32" customFormat="1" ht="21.75" thickTop="1" x14ac:dyDescent="0.4">
       <c r="A2" s="45" t="s">
         <v>242</v>
       </c>
@@ -3412,14 +3469,16 @@
         <v>243</v>
       </c>
       <c r="H2" s="90" t="s">
-        <v>399</v>
-      </c>
-      <c r="I2" s="81"/>
-      <c r="J2" s="42"/>
-      <c r="K2" s="92"/>
+        <v>394</v>
+      </c>
+      <c r="I2" s="90" t="s">
+        <v>243</v>
+      </c>
+      <c r="J2" s="81"/>
+      <c r="K2" s="42"/>
       <c r="L2" s="92"/>
-      <c r="M2" s="40"/>
-      <c r="N2" s="30"/>
+      <c r="M2" s="92"/>
+      <c r="N2" s="40"/>
       <c r="O2" s="30"/>
       <c r="P2" s="30"/>
       <c r="Q2" s="30"/>
@@ -3480,8 +3539,9 @@
       <c r="BT2" s="30"/>
       <c r="BU2" s="30"/>
       <c r="BV2" s="30"/>
-    </row>
-    <row r="3" spans="1:74" x14ac:dyDescent="0.4">
+      <c r="BW2" s="30"/>
+    </row>
+    <row r="3" spans="1:75" x14ac:dyDescent="0.4">
       <c r="A3" s="46" t="s">
         <v>214</v>
       </c>
@@ -3494,11 +3554,12 @@
       <c r="F3" s="72"/>
       <c r="G3" s="65"/>
       <c r="H3" s="65"/>
-      <c r="I3" s="82"/>
-      <c r="K3" s="42"/>
-      <c r="M3" s="40"/>
-    </row>
-    <row r="4" spans="1:74" ht="90" x14ac:dyDescent="0.4">
+      <c r="I3" s="65"/>
+      <c r="J3" s="82"/>
+      <c r="L3" s="42"/>
+      <c r="N3" s="40"/>
+    </row>
+    <row r="4" spans="1:75" ht="90" x14ac:dyDescent="0.4">
       <c r="A4" s="47" t="s">
         <v>132</v>
       </c>
@@ -3512,7 +3573,7 @@
         <v>247</v>
       </c>
       <c r="E4" s="5" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="F4" s="63" t="s">
         <v>3</v>
@@ -3521,15 +3582,18 @@
         <v>3</v>
       </c>
       <c r="H4" s="6" t="s">
-        <v>409</v>
-      </c>
-      <c r="I4" s="83" t="s">
+        <v>404</v>
+      </c>
+      <c r="I4" s="6" t="s">
+        <v>413</v>
+      </c>
+      <c r="J4" s="83" t="s">
         <v>4</v>
       </c>
-      <c r="K4" s="42"/>
-      <c r="M4" s="40"/>
-    </row>
-    <row r="5" spans="1:74" ht="78.75" x14ac:dyDescent="0.4">
+      <c r="L4" s="42"/>
+      <c r="N4" s="40"/>
+    </row>
+    <row r="5" spans="1:75" ht="78.75" x14ac:dyDescent="0.4">
       <c r="A5" s="47" t="s">
         <v>133</v>
       </c>
@@ -3537,11 +3601,11 @@
         <v>5</v>
       </c>
       <c r="C5" s="56" t="s">
-        <v>374</v>
+        <v>369</v>
       </c>
       <c r="D5" s="18"/>
       <c r="E5" s="5" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="F5" s="63" t="s">
         <v>6</v>
@@ -3550,13 +3614,16 @@
         <v>6</v>
       </c>
       <c r="H5" s="6" t="s">
-        <v>410</v>
-      </c>
-      <c r="I5" s="84"/>
-      <c r="K5" s="42"/>
-      <c r="M5" s="40"/>
-    </row>
-    <row r="6" spans="1:74" ht="67.5" x14ac:dyDescent="0.4">
+        <v>405</v>
+      </c>
+      <c r="I5" s="6" t="s">
+        <v>412</v>
+      </c>
+      <c r="J5" s="84"/>
+      <c r="L5" s="42"/>
+      <c r="N5" s="40"/>
+    </row>
+    <row r="6" spans="1:75" ht="67.5" x14ac:dyDescent="0.4">
       <c r="A6" s="47" t="s">
         <v>134</v>
       </c>
@@ -3568,22 +3635,25 @@
       </c>
       <c r="D6" s="18"/>
       <c r="E6" s="5" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="F6" s="63" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="G6" s="6" t="s">
         <v>9</v>
       </c>
       <c r="H6" s="6" t="s">
-        <v>400</v>
-      </c>
-      <c r="I6" s="84"/>
-      <c r="K6" s="42"/>
-      <c r="M6" s="40"/>
-    </row>
-    <row r="7" spans="1:74" ht="78.75" x14ac:dyDescent="0.4">
+        <v>395</v>
+      </c>
+      <c r="I6" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="J6" s="84"/>
+      <c r="L6" s="42"/>
+      <c r="N6" s="40"/>
+    </row>
+    <row r="7" spans="1:75" ht="78.75" x14ac:dyDescent="0.4">
       <c r="A7" s="47" t="s">
         <v>135</v>
       </c>
@@ -3595,7 +3665,7 @@
       </c>
       <c r="D7" s="18"/>
       <c r="E7" s="5" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="F7" s="63" t="s">
         <v>12</v>
@@ -3604,13 +3674,16 @@
         <v>12</v>
       </c>
       <c r="H7" s="6" t="s">
-        <v>401</v>
-      </c>
-      <c r="I7" s="84"/>
-      <c r="K7" s="42"/>
-      <c r="M7" s="40"/>
-    </row>
-    <row r="8" spans="1:74" s="32" customFormat="1" ht="90" x14ac:dyDescent="0.4">
+        <v>396</v>
+      </c>
+      <c r="I7" s="6" t="s">
+        <v>396</v>
+      </c>
+      <c r="J7" s="84"/>
+      <c r="L7" s="42"/>
+      <c r="N7" s="40"/>
+    </row>
+    <row r="8" spans="1:75" s="32" customFormat="1" ht="90" x14ac:dyDescent="0.4">
       <c r="A8" s="48" t="s">
         <v>136</v>
       </c>
@@ -3618,28 +3691,31 @@
         <v>13</v>
       </c>
       <c r="C8" s="57" t="s">
-        <v>370</v>
+        <v>365</v>
       </c>
       <c r="D8" s="20" t="s">
         <v>225</v>
       </c>
       <c r="E8" s="5" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="F8" s="73"/>
       <c r="G8" s="66" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="H8" s="66" t="s">
-        <v>345</v>
-      </c>
-      <c r="I8" s="85"/>
-      <c r="J8" s="42"/>
+        <v>344</v>
+      </c>
+      <c r="I8" s="66" t="s">
+        <v>344</v>
+      </c>
+      <c r="J8" s="85"/>
       <c r="K8" s="42"/>
-      <c r="L8" s="40"/>
+      <c r="L8" s="42"/>
       <c r="M8" s="40"/>
-    </row>
-    <row r="9" spans="1:74" ht="67.5" x14ac:dyDescent="0.4">
+      <c r="N8" s="40"/>
+    </row>
+    <row r="9" spans="1:75" ht="67.5" x14ac:dyDescent="0.4">
       <c r="A9" s="48" t="s">
         <v>137</v>
       </c>
@@ -3647,26 +3723,29 @@
         <v>14</v>
       </c>
       <c r="C9" s="57" t="s">
-        <v>371</v>
+        <v>366</v>
       </c>
       <c r="D9" s="20" t="s">
         <v>226</v>
       </c>
       <c r="E9" s="5" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="F9" s="72"/>
       <c r="G9" s="65" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="H9" s="65" t="s">
-        <v>346</v>
-      </c>
-      <c r="I9" s="85"/>
-      <c r="K9" s="42"/>
-      <c r="M9" s="40"/>
-    </row>
-    <row r="10" spans="1:74" ht="78.75" x14ac:dyDescent="0.4">
+        <v>345</v>
+      </c>
+      <c r="I9" s="65" t="s">
+        <v>345</v>
+      </c>
+      <c r="J9" s="85"/>
+      <c r="L9" s="42"/>
+      <c r="N9" s="40"/>
+    </row>
+    <row r="10" spans="1:75" ht="78.75" x14ac:dyDescent="0.4">
       <c r="A10" s="48" t="s">
         <v>138</v>
       </c>
@@ -3674,26 +3753,29 @@
         <v>15</v>
       </c>
       <c r="C10" s="57" t="s">
-        <v>372</v>
+        <v>367</v>
       </c>
       <c r="D10" s="20" t="s">
         <v>226</v>
       </c>
       <c r="E10" s="5" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="F10" s="72"/>
       <c r="G10" s="65" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="H10" s="65" t="s">
-        <v>347</v>
-      </c>
-      <c r="I10" s="85"/>
-      <c r="K10" s="42"/>
-      <c r="M10" s="40"/>
-    </row>
-    <row r="11" spans="1:74" ht="78.75" x14ac:dyDescent="0.4">
+        <v>346</v>
+      </c>
+      <c r="I10" s="65" t="s">
+        <v>346</v>
+      </c>
+      <c r="J10" s="85"/>
+      <c r="L10" s="42"/>
+      <c r="N10" s="40"/>
+    </row>
+    <row r="11" spans="1:75" ht="78.75" x14ac:dyDescent="0.4">
       <c r="A11" s="48" t="s">
         <v>139</v>
       </c>
@@ -3701,26 +3783,29 @@
         <v>16</v>
       </c>
       <c r="C11" s="57" t="s">
-        <v>373</v>
+        <v>368</v>
       </c>
       <c r="D11" s="20" t="s">
         <v>226</v>
       </c>
       <c r="E11" s="5" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="F11" s="62"/>
       <c r="G11" s="65" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="H11" s="65" t="s">
-        <v>348</v>
-      </c>
-      <c r="I11" s="85"/>
-      <c r="K11" s="42"/>
-      <c r="M11" s="40"/>
-    </row>
-    <row r="12" spans="1:74" ht="56.25" x14ac:dyDescent="0.4">
+        <v>347</v>
+      </c>
+      <c r="I11" s="65" t="s">
+        <v>347</v>
+      </c>
+      <c r="J11" s="85"/>
+      <c r="L11" s="42"/>
+      <c r="N11" s="40"/>
+    </row>
+    <row r="12" spans="1:75" ht="56.25" x14ac:dyDescent="0.4">
       <c r="A12" s="47" t="s">
         <v>140</v>
       </c>
@@ -3730,10 +3815,10 @@
       <c r="C12" s="56"/>
       <c r="D12" s="18"/>
       <c r="E12" s="5" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="F12" s="63" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="G12" s="6" t="s">
         <v>18</v>
@@ -3741,24 +3826,25 @@
       <c r="H12" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="I12" s="84" t="s">
+      <c r="I12" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="J12" s="84" t="s">
         <v>219</v>
       </c>
-      <c r="K12" s="42"/>
-      <c r="M12" s="40"/>
-    </row>
-    <row r="13" spans="1:74" ht="56.25" x14ac:dyDescent="0.4">
+      <c r="L12" s="42"/>
+      <c r="N12" s="40"/>
+    </row>
+    <row r="13" spans="1:75" ht="56.25" x14ac:dyDescent="0.4">
       <c r="A13" s="49" t="s">
         <v>141</v>
       </c>
       <c r="B13" s="35" t="s">
-        <v>365</v>
-      </c>
-      <c r="C13" s="58" t="s">
-        <v>366</v>
-      </c>
+        <v>364</v>
+      </c>
+      <c r="C13" s="58"/>
       <c r="D13" s="21" t="s">
-        <v>248</v>
+        <v>238</v>
       </c>
       <c r="E13" s="10"/>
       <c r="F13" s="74"/>
@@ -3768,20 +3854,21 @@
       <c r="H13" s="67" t="s">
         <v>222</v>
       </c>
-      <c r="I13" s="86"/>
-      <c r="K13" s="42"/>
-      <c r="M13" s="40"/>
-    </row>
-    <row r="14" spans="1:74" ht="45" x14ac:dyDescent="0.4">
+      <c r="I13" s="67" t="s">
+        <v>409</v>
+      </c>
+      <c r="J13" s="86"/>
+      <c r="L13" s="42"/>
+      <c r="N13" s="40"/>
+    </row>
+    <row r="14" spans="1:75" ht="45" x14ac:dyDescent="0.4">
       <c r="A14" s="49" t="s">
         <v>142</v>
       </c>
       <c r="B14" s="35" t="s">
         <v>19</v>
       </c>
-      <c r="C14" s="58" t="s">
-        <v>367</v>
-      </c>
+      <c r="C14" s="58"/>
       <c r="D14" s="21" t="s">
         <v>238</v>
       </c>
@@ -3793,20 +3880,21 @@
       <c r="H14" s="67" t="s">
         <v>222</v>
       </c>
-      <c r="I14" s="86"/>
-      <c r="K14" s="42"/>
-      <c r="M14" s="40"/>
-    </row>
-    <row r="15" spans="1:74" ht="45" x14ac:dyDescent="0.4">
+      <c r="I14" s="67" t="s">
+        <v>409</v>
+      </c>
+      <c r="J14" s="86"/>
+      <c r="L14" s="42"/>
+      <c r="N14" s="40"/>
+    </row>
+    <row r="15" spans="1:75" ht="45" x14ac:dyDescent="0.4">
       <c r="A15" s="49" t="s">
         <v>143</v>
       </c>
       <c r="B15" s="35" t="s">
         <v>20</v>
       </c>
-      <c r="C15" s="58" t="s">
-        <v>368</v>
-      </c>
+      <c r="C15" s="58"/>
       <c r="D15" s="21" t="s">
         <v>238</v>
       </c>
@@ -3818,20 +3906,19 @@
       <c r="H15" s="67" t="s">
         <v>222</v>
       </c>
-      <c r="I15" s="86"/>
-      <c r="K15" s="42"/>
-      <c r="M15" s="40"/>
-    </row>
-    <row r="16" spans="1:74" ht="45" x14ac:dyDescent="0.4">
+      <c r="I15" s="67"/>
+      <c r="J15" s="86"/>
+      <c r="L15" s="42"/>
+      <c r="N15" s="40"/>
+    </row>
+    <row r="16" spans="1:75" ht="45" x14ac:dyDescent="0.4">
       <c r="A16" s="49" t="s">
         <v>144</v>
       </c>
       <c r="B16" s="35" t="s">
         <v>21</v>
       </c>
-      <c r="C16" s="58" t="s">
-        <v>369</v>
-      </c>
+      <c r="C16" s="58"/>
       <c r="D16" s="21" t="s">
         <v>238</v>
       </c>
@@ -3843,11 +3930,12 @@
       <c r="H16" s="67" t="s">
         <v>222</v>
       </c>
-      <c r="I16" s="86"/>
-      <c r="K16" s="42"/>
-      <c r="M16" s="40"/>
-    </row>
-    <row r="17" spans="1:89" x14ac:dyDescent="0.4">
+      <c r="I16" s="67"/>
+      <c r="J16" s="86"/>
+      <c r="L16" s="42"/>
+      <c r="N16" s="40"/>
+    </row>
+    <row r="17" spans="1:90" x14ac:dyDescent="0.4">
       <c r="A17" s="49" t="s">
         <v>145</v>
       </c>
@@ -3866,11 +3954,14 @@
       <c r="H17" s="67" t="s">
         <v>220</v>
       </c>
-      <c r="I17" s="86"/>
-      <c r="K17" s="42"/>
-      <c r="M17" s="40"/>
-    </row>
-    <row r="18" spans="1:89" x14ac:dyDescent="0.4">
+      <c r="I17" s="67" t="s">
+        <v>220</v>
+      </c>
+      <c r="J17" s="86"/>
+      <c r="L17" s="42"/>
+      <c r="N17" s="40"/>
+    </row>
+    <row r="18" spans="1:90" x14ac:dyDescent="0.4">
       <c r="A18" s="49" t="s">
         <v>146</v>
       </c>
@@ -3889,11 +3980,14 @@
       <c r="H18" s="67" t="s">
         <v>221</v>
       </c>
-      <c r="I18" s="86"/>
-      <c r="K18" s="42"/>
-      <c r="M18" s="40"/>
-    </row>
-    <row r="19" spans="1:89" ht="56.25" x14ac:dyDescent="0.4">
+      <c r="I18" s="67" t="s">
+        <v>220</v>
+      </c>
+      <c r="J18" s="86"/>
+      <c r="L18" s="42"/>
+      <c r="N18" s="40"/>
+    </row>
+    <row r="19" spans="1:90" ht="56.25" x14ac:dyDescent="0.4">
       <c r="A19" s="47" t="s">
         <v>147</v>
       </c>
@@ -3903,7 +3997,7 @@
       <c r="C19" s="56"/>
       <c r="D19" s="18"/>
       <c r="E19" s="5" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="F19" s="63" t="s">
         <v>25</v>
@@ -3914,13 +4008,14 @@
       <c r="H19" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="I19" s="84" t="s">
+      <c r="I19" s="6"/>
+      <c r="J19" s="84" t="s">
         <v>26</v>
       </c>
-      <c r="K19" s="42"/>
-      <c r="M19" s="40"/>
-    </row>
-    <row r="20" spans="1:89" ht="67.5" x14ac:dyDescent="0.4">
+      <c r="L19" s="42"/>
+      <c r="N19" s="40"/>
+    </row>
+    <row r="20" spans="1:90" ht="67.5" x14ac:dyDescent="0.4">
       <c r="A20" s="47" t="s">
         <v>148</v>
       </c>
@@ -3932,10 +4027,10 @@
       </c>
       <c r="D20" s="18"/>
       <c r="E20" s="5" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="F20" s="63" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="G20" s="6" t="s">
         <v>29</v>
@@ -3943,11 +4038,14 @@
       <c r="H20" s="6" t="s">
         <v>29</v>
       </c>
-      <c r="I20" s="84"/>
-      <c r="K20" s="42"/>
-      <c r="M20" s="40"/>
-    </row>
-    <row r="21" spans="1:89" ht="78.75" x14ac:dyDescent="0.4">
+      <c r="I20" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="J20" s="84"/>
+      <c r="L20" s="42"/>
+      <c r="N20" s="40"/>
+    </row>
+    <row r="21" spans="1:90" ht="78.75" x14ac:dyDescent="0.4">
       <c r="A21" s="47" t="s">
         <v>149</v>
       </c>
@@ -3959,10 +4057,10 @@
       </c>
       <c r="D21" s="18"/>
       <c r="E21" s="5" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="F21" s="63" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="G21" s="6" t="s">
         <v>32</v>
@@ -3970,11 +4068,14 @@
       <c r="H21" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="I21" s="84"/>
-      <c r="K21" s="42"/>
-      <c r="M21" s="40"/>
-    </row>
-    <row r="22" spans="1:89" x14ac:dyDescent="0.4">
+      <c r="I21" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="J21" s="84"/>
+      <c r="L21" s="42"/>
+      <c r="N21" s="40"/>
+    </row>
+    <row r="22" spans="1:90" x14ac:dyDescent="0.4">
       <c r="A22" s="48" t="s">
         <v>150</v>
       </c>
@@ -3984,16 +4085,17 @@
       <c r="C22" s="57"/>
       <c r="D22" s="20"/>
       <c r="E22" s="5" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="F22" s="62"/>
       <c r="G22" s="8"/>
       <c r="H22" s="8"/>
-      <c r="I22" s="85"/>
-      <c r="K22" s="42"/>
-      <c r="M22" s="40"/>
-    </row>
-    <row r="23" spans="1:89" ht="67.5" x14ac:dyDescent="0.4">
+      <c r="I22" s="8"/>
+      <c r="J22" s="85"/>
+      <c r="L22" s="42"/>
+      <c r="N22" s="40"/>
+    </row>
+    <row r="23" spans="1:90" ht="67.5" x14ac:dyDescent="0.4">
       <c r="A23" s="50" t="s">
         <v>151</v>
       </c>
@@ -4005,7 +4107,7 @@
         <v>241</v>
       </c>
       <c r="E23" s="5" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="F23" s="75"/>
       <c r="G23" s="68" t="s">
@@ -4014,11 +4116,14 @@
       <c r="H23" s="68" t="s">
         <v>220</v>
       </c>
-      <c r="I23" s="87"/>
-      <c r="K23" s="42"/>
-      <c r="M23" s="40"/>
-    </row>
-    <row r="24" spans="1:89" ht="56.25" x14ac:dyDescent="0.4">
+      <c r="I23" s="68" t="s">
+        <v>220</v>
+      </c>
+      <c r="J23" s="87"/>
+      <c r="L23" s="42"/>
+      <c r="N23" s="40"/>
+    </row>
+    <row r="24" spans="1:90" ht="56.25" x14ac:dyDescent="0.4">
       <c r="A24" s="47" t="s">
         <v>152</v>
       </c>
@@ -4030,7 +4135,7 @@
       </c>
       <c r="D24" s="18"/>
       <c r="E24" s="5" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="F24" s="63" t="s">
         <v>36</v>
@@ -4041,13 +4146,16 @@
       <c r="H24" s="6" t="s">
         <v>36</v>
       </c>
-      <c r="I24" s="84" t="s">
+      <c r="I24" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="J24" s="84" t="s">
         <v>37</v>
       </c>
-      <c r="K24" s="42"/>
-      <c r="M24" s="40"/>
-    </row>
-    <row r="25" spans="1:89" ht="101.25" x14ac:dyDescent="0.4">
+      <c r="L24" s="42"/>
+      <c r="N24" s="40"/>
+    </row>
+    <row r="25" spans="1:90" ht="101.25" x14ac:dyDescent="0.4">
       <c r="A25" s="47" t="s">
         <v>153</v>
       </c>
@@ -4059,10 +4167,10 @@
       </c>
       <c r="D25" s="18"/>
       <c r="E25" s="5" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="F25" s="63" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="G25" s="6" t="s">
         <v>40</v>
@@ -4070,11 +4178,14 @@
       <c r="H25" s="6" t="s">
         <v>40</v>
       </c>
-      <c r="I25" s="84"/>
-      <c r="K25" s="42"/>
-      <c r="M25" s="40"/>
-    </row>
-    <row r="26" spans="1:89" s="32" customFormat="1" ht="67.5" x14ac:dyDescent="0.4">
+      <c r="I25" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="J25" s="84"/>
+      <c r="L25" s="42"/>
+      <c r="N25" s="40"/>
+    </row>
+    <row r="26" spans="1:90" s="32" customFormat="1" ht="67.5" x14ac:dyDescent="0.4">
       <c r="A26" s="48" t="s">
         <v>154</v>
       </c>
@@ -4086,19 +4197,21 @@
         <v>225</v>
       </c>
       <c r="E26" s="5" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="F26" s="62"/>
       <c r="G26" s="11"/>
       <c r="H26" s="11" t="s">
-        <v>408</v>
-      </c>
-      <c r="I26" s="85"/>
-      <c r="J26" s="42"/>
+        <v>403</v>
+      </c>
+      <c r="I26" s="11" t="s">
+        <v>70</v>
+      </c>
+      <c r="J26" s="85"/>
       <c r="K26" s="42"/>
-      <c r="L26" s="40"/>
+      <c r="L26" s="42"/>
       <c r="M26" s="40"/>
-      <c r="N26" s="30"/>
+      <c r="N26" s="40"/>
       <c r="O26" s="30"/>
       <c r="P26" s="30"/>
       <c r="Q26" s="30"/>
@@ -4106,8 +4219,9 @@
       <c r="S26" s="30"/>
       <c r="T26" s="30"/>
       <c r="U26" s="30"/>
-    </row>
-    <row r="27" spans="1:89" ht="56.25" x14ac:dyDescent="0.4">
+      <c r="V26" s="30"/>
+    </row>
+    <row r="27" spans="1:90" ht="56.25" x14ac:dyDescent="0.4">
       <c r="A27" s="47" t="s">
         <v>155</v>
       </c>
@@ -4117,7 +4231,7 @@
       <c r="C27" s="56"/>
       <c r="D27" s="18"/>
       <c r="E27" s="5" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="F27" s="63" t="s">
         <v>43</v>
@@ -4128,16 +4242,19 @@
       <c r="H27" s="6" t="s">
         <v>43</v>
       </c>
-      <c r="I27" s="84"/>
-      <c r="J27" s="42" t="s">
-        <v>377</v>
-      </c>
+      <c r="I27" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="J27" s="84"/>
       <c r="K27" s="42" t="s">
-        <v>378</v>
-      </c>
-      <c r="M27" s="40"/>
-    </row>
-    <row r="28" spans="1:89" ht="90" x14ac:dyDescent="0.4">
+        <v>372</v>
+      </c>
+      <c r="L27" s="42" t="s">
+        <v>373</v>
+      </c>
+      <c r="N27" s="40"/>
+    </row>
+    <row r="28" spans="1:90" ht="90" x14ac:dyDescent="0.4">
       <c r="A28" s="47" t="s">
         <v>156</v>
       </c>
@@ -4147,7 +4264,7 @@
       <c r="C28" s="56"/>
       <c r="D28" s="18"/>
       <c r="E28" s="5" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="F28" s="63" t="s">
         <v>45</v>
@@ -4156,18 +4273,21 @@
         <v>45</v>
       </c>
       <c r="H28" s="6" t="s">
-        <v>402</v>
-      </c>
-      <c r="I28" s="84"/>
-      <c r="J28" s="42" t="s">
-        <v>379</v>
-      </c>
-      <c r="K28" s="42">
+        <v>397</v>
+      </c>
+      <c r="I28" s="6" t="s">
+        <v>397</v>
+      </c>
+      <c r="J28" s="84"/>
+      <c r="K28" s="42" t="s">
+        <v>374</v>
+      </c>
+      <c r="L28" s="42">
         <v>42408220</v>
       </c>
-      <c r="M28" s="40"/>
-    </row>
-    <row r="29" spans="1:89" s="32" customFormat="1" ht="101.25" x14ac:dyDescent="0.4">
+      <c r="N28" s="40"/>
+    </row>
+    <row r="29" spans="1:90" s="32" customFormat="1" ht="101.25" x14ac:dyDescent="0.4">
       <c r="A29" s="48" t="s">
         <v>157</v>
       </c>
@@ -4181,21 +4301,23 @@
       <c r="E29" s="5"/>
       <c r="F29" s="62"/>
       <c r="G29" s="68" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="H29" s="68" t="s">
-        <v>403</v>
-      </c>
-      <c r="I29" s="85"/>
-      <c r="J29" s="42" t="s">
-        <v>380</v>
-      </c>
-      <c r="K29" s="42">
+        <v>398</v>
+      </c>
+      <c r="I29" s="68" t="s">
+        <v>398</v>
+      </c>
+      <c r="J29" s="85"/>
+      <c r="K29" s="42" t="s">
+        <v>375</v>
+      </c>
+      <c r="L29" s="42">
         <v>42408224</v>
       </c>
-      <c r="L29" s="40"/>
       <c r="M29" s="40"/>
-      <c r="N29" s="30"/>
+      <c r="N29" s="40"/>
       <c r="O29" s="30"/>
       <c r="P29" s="30"/>
       <c r="Q29" s="30"/>
@@ -4271,8 +4393,9 @@
       <c r="CI29" s="30"/>
       <c r="CJ29" s="30"/>
       <c r="CK29" s="30"/>
-    </row>
-    <row r="30" spans="1:89" s="32" customFormat="1" ht="90" x14ac:dyDescent="0.4">
+      <c r="CL29" s="30"/>
+    </row>
+    <row r="30" spans="1:90" s="32" customFormat="1" ht="90" x14ac:dyDescent="0.4">
       <c r="A30" s="51" t="s">
         <v>158</v>
       </c>
@@ -4282,21 +4405,23 @@
       <c r="C30" s="60"/>
       <c r="D30" s="23"/>
       <c r="E30" s="5" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="F30" s="62"/>
       <c r="G30" s="69" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="H30" s="69" t="s">
-        <v>350</v>
-      </c>
-      <c r="I30" s="88"/>
-      <c r="J30" s="42"/>
+        <v>349</v>
+      </c>
+      <c r="I30" s="69" t="s">
+        <v>349</v>
+      </c>
+      <c r="J30" s="88"/>
       <c r="K30" s="42"/>
-      <c r="L30" s="40"/>
+      <c r="L30" s="42"/>
       <c r="M30" s="40"/>
-      <c r="N30" s="30"/>
+      <c r="N30" s="40"/>
       <c r="O30" s="30"/>
       <c r="P30" s="30"/>
       <c r="Q30" s="30"/>
@@ -4372,8 +4497,9 @@
       <c r="CI30" s="30"/>
       <c r="CJ30" s="30"/>
       <c r="CK30" s="30"/>
-    </row>
-    <row r="31" spans="1:89" ht="78.75" x14ac:dyDescent="0.4">
+      <c r="CL30" s="30"/>
+    </row>
+    <row r="31" spans="1:90" ht="78.75" x14ac:dyDescent="0.4">
       <c r="A31" s="47" t="s">
         <v>159</v>
       </c>
@@ -4383,7 +4509,7 @@
       <c r="C31" s="56"/>
       <c r="D31" s="18"/>
       <c r="E31" s="5" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="F31" s="63" t="s">
         <v>49</v>
@@ -4394,15 +4520,17 @@
       <c r="H31" s="6" t="s">
         <v>49</v>
       </c>
-      <c r="I31" s="84"/>
-      <c r="J31" s="42" t="s">
-        <v>381</v>
-      </c>
+      <c r="I31" s="6" t="s">
+        <v>49</v>
+      </c>
+      <c r="J31" s="84"/>
       <c r="K31" s="42" t="s">
-        <v>382</v>
-      </c>
-      <c r="M31" s="40"/>
-      <c r="N31" s="30"/>
+        <v>376</v>
+      </c>
+      <c r="L31" s="42" t="s">
+        <v>377</v>
+      </c>
+      <c r="N31" s="40"/>
       <c r="O31" s="30"/>
       <c r="P31" s="30"/>
       <c r="Q31" s="30"/>
@@ -4478,8 +4606,9 @@
       <c r="CI31" s="30"/>
       <c r="CJ31" s="30"/>
       <c r="CK31" s="30"/>
-    </row>
-    <row r="32" spans="1:89" ht="112.5" x14ac:dyDescent="0.4">
+      <c r="CL31" s="30"/>
+    </row>
+    <row r="32" spans="1:90" ht="112.5" x14ac:dyDescent="0.4">
       <c r="A32" s="47" t="s">
         <v>160</v>
       </c>
@@ -4489,7 +4618,7 @@
       <c r="C32" s="56"/>
       <c r="D32" s="18"/>
       <c r="E32" s="5" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="F32" s="63" t="s">
         <v>51</v>
@@ -4500,15 +4629,17 @@
       <c r="H32" s="6" t="s">
         <v>51</v>
       </c>
-      <c r="I32" s="84"/>
-      <c r="J32" s="42" t="s">
-        <v>383</v>
-      </c>
-      <c r="K32" s="42">
+      <c r="I32" s="6" t="s">
+        <v>51</v>
+      </c>
+      <c r="J32" s="84"/>
+      <c r="K32" s="42" t="s">
+        <v>378</v>
+      </c>
+      <c r="L32" s="42">
         <v>42408230</v>
       </c>
-      <c r="M32" s="40"/>
-      <c r="N32" s="30"/>
+      <c r="N32" s="40"/>
       <c r="O32" s="30"/>
       <c r="P32" s="30"/>
       <c r="Q32" s="30"/>
@@ -4584,8 +4715,9 @@
       <c r="CI32" s="30"/>
       <c r="CJ32" s="30"/>
       <c r="CK32" s="30"/>
-    </row>
-    <row r="33" spans="1:89" ht="101.25" x14ac:dyDescent="0.4">
+      <c r="CL32" s="30"/>
+    </row>
+    <row r="33" spans="1:90" ht="101.25" x14ac:dyDescent="0.4">
       <c r="A33" s="47" t="s">
         <v>161</v>
       </c>
@@ -4595,7 +4727,7 @@
       <c r="C33" s="56"/>
       <c r="D33" s="18"/>
       <c r="E33" s="5" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="F33" s="63" t="s">
         <v>53</v>
@@ -4606,15 +4738,17 @@
       <c r="H33" s="6" t="s">
         <v>53</v>
       </c>
-      <c r="I33" s="84"/>
-      <c r="J33" s="42" t="s">
-        <v>384</v>
-      </c>
-      <c r="K33" s="42">
+      <c r="I33" s="6" t="s">
+        <v>410</v>
+      </c>
+      <c r="J33" s="84"/>
+      <c r="K33" s="42" t="s">
+        <v>379</v>
+      </c>
+      <c r="L33" s="42">
         <v>42408234</v>
       </c>
-      <c r="M33" s="40"/>
-      <c r="N33" s="30"/>
+      <c r="N33" s="40"/>
       <c r="O33" s="30"/>
       <c r="P33" s="30"/>
       <c r="Q33" s="30"/>
@@ -4690,8 +4824,9 @@
       <c r="CI33" s="30"/>
       <c r="CJ33" s="30"/>
       <c r="CK33" s="30"/>
-    </row>
-    <row r="34" spans="1:89" ht="78.75" x14ac:dyDescent="0.4">
+      <c r="CL33" s="30"/>
+    </row>
+    <row r="34" spans="1:90" ht="78.75" x14ac:dyDescent="0.4">
       <c r="A34" s="47" t="s">
         <v>162</v>
       </c>
@@ -4703,7 +4838,7 @@
         <v>229</v>
       </c>
       <c r="E34" s="5" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="F34" s="63" t="s">
         <v>54</v>
@@ -4714,15 +4849,17 @@
       <c r="H34" s="6" t="s">
         <v>54</v>
       </c>
-      <c r="I34" s="84"/>
-      <c r="J34" s="42" t="s">
-        <v>385</v>
-      </c>
-      <c r="K34" s="42">
+      <c r="I34" s="6" t="s">
+        <v>54</v>
+      </c>
+      <c r="J34" s="84"/>
+      <c r="K34" s="42" t="s">
+        <v>380</v>
+      </c>
+      <c r="L34" s="42">
         <v>42408238</v>
       </c>
-      <c r="M34" s="40"/>
-      <c r="N34" s="30"/>
+      <c r="N34" s="40"/>
       <c r="O34" s="30"/>
       <c r="P34" s="30"/>
       <c r="Q34" s="30"/>
@@ -4798,8 +4935,9 @@
       <c r="CI34" s="30"/>
       <c r="CJ34" s="30"/>
       <c r="CK34" s="30"/>
-    </row>
-    <row r="35" spans="1:89" ht="67.5" x14ac:dyDescent="0.4">
+      <c r="CL34" s="30"/>
+    </row>
+    <row r="35" spans="1:90" ht="67.5" x14ac:dyDescent="0.4">
       <c r="A35" s="48" t="s">
         <v>163</v>
       </c>
@@ -4809,7 +4947,7 @@
       <c r="C35" s="57"/>
       <c r="D35" s="20"/>
       <c r="E35" s="5" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="F35" s="63" t="s">
         <v>56</v>
@@ -4820,15 +4958,17 @@
       <c r="H35" s="6" t="s">
         <v>56</v>
       </c>
-      <c r="I35" s="84"/>
-      <c r="J35" s="42" t="s">
-        <v>386</v>
-      </c>
+      <c r="I35" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="J35" s="84"/>
       <c r="K35" s="42" t="s">
-        <v>387</v>
-      </c>
-      <c r="M35" s="40"/>
-      <c r="N35" s="30"/>
+        <v>381</v>
+      </c>
+      <c r="L35" s="42" t="s">
+        <v>382</v>
+      </c>
+      <c r="N35" s="40"/>
       <c r="O35" s="30"/>
       <c r="P35" s="30"/>
       <c r="Q35" s="30"/>
@@ -4904,8 +5044,9 @@
       <c r="CI35" s="30"/>
       <c r="CJ35" s="30"/>
       <c r="CK35" s="30"/>
-    </row>
-    <row r="36" spans="1:89" ht="22.5" x14ac:dyDescent="0.4">
+      <c r="CL35" s="30"/>
+    </row>
+    <row r="36" spans="1:90" ht="22.5" x14ac:dyDescent="0.4">
       <c r="A36" s="48" t="s">
         <v>164</v>
       </c>
@@ -4917,19 +5058,21 @@
         <v>230</v>
       </c>
       <c r="E36" s="5" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="F36" s="76"/>
       <c r="G36" s="11" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="H36" s="11" t="s">
-        <v>404</v>
-      </c>
-      <c r="I36" s="85"/>
-      <c r="K36" s="42"/>
-      <c r="M36" s="40"/>
-      <c r="N36" s="30"/>
+        <v>399</v>
+      </c>
+      <c r="I36" s="11" t="s">
+        <v>45</v>
+      </c>
+      <c r="J36" s="85"/>
+      <c r="L36" s="42"/>
+      <c r="N36" s="40"/>
       <c r="O36" s="30"/>
       <c r="P36" s="30"/>
       <c r="Q36" s="30"/>
@@ -5005,8 +5148,9 @@
       <c r="CI36" s="30"/>
       <c r="CJ36" s="30"/>
       <c r="CK36" s="30"/>
-    </row>
-    <row r="37" spans="1:89" ht="22.5" x14ac:dyDescent="0.4">
+      <c r="CL36" s="30"/>
+    </row>
+    <row r="37" spans="1:90" ht="22.5" x14ac:dyDescent="0.4">
       <c r="A37" s="48" t="s">
         <v>165</v>
       </c>
@@ -5018,10 +5162,10 @@
       </c>
       <c r="D37" s="20"/>
       <c r="E37" s="5" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="F37" s="63" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="G37" s="6" t="s">
         <v>60</v>
@@ -5029,10 +5173,12 @@
       <c r="H37" s="6" t="s">
         <v>60</v>
       </c>
-      <c r="I37" s="84"/>
-      <c r="K37" s="42"/>
-      <c r="M37" s="40"/>
-      <c r="N37" s="30"/>
+      <c r="I37" s="6" t="s">
+        <v>60</v>
+      </c>
+      <c r="J37" s="84"/>
+      <c r="L37" s="42"/>
+      <c r="N37" s="40"/>
       <c r="O37" s="30"/>
       <c r="P37" s="30"/>
       <c r="Q37" s="30"/>
@@ -5108,8 +5254,9 @@
       <c r="CI37" s="30"/>
       <c r="CJ37" s="30"/>
       <c r="CK37" s="30"/>
-    </row>
-    <row r="38" spans="1:89" ht="56.25" x14ac:dyDescent="0.4">
+      <c r="CL37" s="30"/>
+    </row>
+    <row r="38" spans="1:90" ht="56.25" x14ac:dyDescent="0.4">
       <c r="A38" s="48" t="s">
         <v>166</v>
       </c>
@@ -5121,22 +5268,25 @@
       </c>
       <c r="D38" s="20"/>
       <c r="E38" s="5" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="F38" s="63" t="s">
         <v>62</v>
       </c>
       <c r="G38" s="6" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="H38" s="6" t="s">
-        <v>357</v>
-      </c>
-      <c r="I38" s="84"/>
-      <c r="K38" s="42"/>
-      <c r="M38" s="40"/>
-    </row>
-    <row r="39" spans="1:89" ht="56.25" x14ac:dyDescent="0.4">
+        <v>356</v>
+      </c>
+      <c r="I38" s="6" t="s">
+        <v>62</v>
+      </c>
+      <c r="J38" s="84"/>
+      <c r="L38" s="42"/>
+      <c r="N38" s="40"/>
+    </row>
+    <row r="39" spans="1:90" ht="56.25" x14ac:dyDescent="0.4">
       <c r="A39" s="48" t="s">
         <v>167</v>
       </c>
@@ -5148,25 +5298,28 @@
         <v>225</v>
       </c>
       <c r="E39" s="5" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="F39" s="62"/>
       <c r="G39" s="11" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="H39" s="11" t="s">
-        <v>358</v>
-      </c>
-      <c r="I39" s="85"/>
-      <c r="J39" s="43" t="s">
-        <v>391</v>
-      </c>
-      <c r="K39" s="42" t="s">
-        <v>392</v>
-      </c>
-      <c r="M39" s="40"/>
-    </row>
-    <row r="40" spans="1:89" ht="33.75" x14ac:dyDescent="0.4">
+        <v>357</v>
+      </c>
+      <c r="I39" s="11" t="s">
+        <v>257</v>
+      </c>
+      <c r="J39" s="85"/>
+      <c r="K39" s="43" t="s">
+        <v>386</v>
+      </c>
+      <c r="L39" s="42" t="s">
+        <v>387</v>
+      </c>
+      <c r="N39" s="40"/>
+    </row>
+    <row r="40" spans="1:90" ht="33.75" x14ac:dyDescent="0.4">
       <c r="A40" s="47" t="s">
         <v>168</v>
       </c>
@@ -5178,7 +5331,7 @@
       </c>
       <c r="D40" s="18"/>
       <c r="E40" s="5" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="F40" s="63" t="s">
         <v>66</v>
@@ -5189,11 +5342,14 @@
       <c r="H40" s="6" t="s">
         <v>66</v>
       </c>
-      <c r="I40" s="84"/>
-      <c r="K40" s="42"/>
-      <c r="M40" s="40"/>
-    </row>
-    <row r="41" spans="1:89" ht="33.75" x14ac:dyDescent="0.4">
+      <c r="I40" s="6" t="s">
+        <v>66</v>
+      </c>
+      <c r="J40" s="84"/>
+      <c r="L40" s="42"/>
+      <c r="N40" s="40"/>
+    </row>
+    <row r="41" spans="1:90" ht="33.75" x14ac:dyDescent="0.4">
       <c r="A41" s="47" t="s">
         <v>169</v>
       </c>
@@ -5205,10 +5361,10 @@
       </c>
       <c r="D41" s="18"/>
       <c r="E41" s="5" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="F41" s="63" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="G41" s="6" t="s">
         <v>68</v>
@@ -5216,11 +5372,14 @@
       <c r="H41" s="6" t="s">
         <v>68</v>
       </c>
-      <c r="I41" s="84"/>
-      <c r="K41" s="42"/>
-      <c r="M41" s="40"/>
-    </row>
-    <row r="42" spans="1:89" ht="67.5" x14ac:dyDescent="0.4">
+      <c r="I41" s="6" t="s">
+        <v>68</v>
+      </c>
+      <c r="J41" s="84"/>
+      <c r="L41" s="42"/>
+      <c r="N41" s="40"/>
+    </row>
+    <row r="42" spans="1:90" ht="67.5" x14ac:dyDescent="0.4">
       <c r="A42" s="47" t="s">
         <v>170</v>
       </c>
@@ -5228,11 +5387,11 @@
         <v>69</v>
       </c>
       <c r="C42" s="56" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="D42" s="18"/>
       <c r="E42" s="5" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="F42" s="63" t="s">
         <v>70</v>
@@ -5241,13 +5400,16 @@
         <v>91</v>
       </c>
       <c r="H42" s="69" t="s">
-        <v>405</v>
-      </c>
-      <c r="I42" s="84"/>
-      <c r="K42" s="42"/>
-      <c r="M42" s="40"/>
-    </row>
-    <row r="43" spans="1:89" s="32" customFormat="1" ht="67.5" x14ac:dyDescent="0.4">
+        <v>400</v>
+      </c>
+      <c r="I42" s="69" t="s">
+        <v>408</v>
+      </c>
+      <c r="J42" s="84"/>
+      <c r="L42" s="42"/>
+      <c r="N42" s="40"/>
+    </row>
+    <row r="43" spans="1:90" s="32" customFormat="1" ht="67.5" x14ac:dyDescent="0.4">
       <c r="A43" s="51" t="s">
         <v>171</v>
       </c>
@@ -5255,26 +5417,29 @@
         <v>71</v>
       </c>
       <c r="C43" s="56" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="D43" s="23"/>
       <c r="E43" s="5" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="F43" s="62"/>
       <c r="G43" s="11" t="s">
         <v>94</v>
       </c>
       <c r="H43" s="11" t="s">
-        <v>406</v>
-      </c>
-      <c r="I43" s="88"/>
-      <c r="J43" s="42"/>
+        <v>401</v>
+      </c>
+      <c r="I43" s="11" t="s">
+        <v>408</v>
+      </c>
+      <c r="J43" s="88"/>
       <c r="K43" s="42"/>
-      <c r="L43" s="40"/>
+      <c r="L43" s="42"/>
       <c r="M43" s="40"/>
-    </row>
-    <row r="44" spans="1:89" ht="56.25" x14ac:dyDescent="0.4">
+      <c r="N43" s="40"/>
+    </row>
+    <row r="44" spans="1:90" ht="56.25" x14ac:dyDescent="0.4">
       <c r="A44" s="47" t="s">
         <v>172</v>
       </c>
@@ -5284,7 +5449,7 @@
       <c r="C44" s="56"/>
       <c r="D44" s="18"/>
       <c r="E44" s="5" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="F44" s="63" t="s">
         <v>73</v>
@@ -5293,18 +5458,21 @@
         <v>73</v>
       </c>
       <c r="H44" s="6" t="s">
-        <v>407</v>
-      </c>
-      <c r="I44" s="84"/>
-      <c r="J44" s="42" t="s">
-        <v>375</v>
-      </c>
-      <c r="K44" s="42">
+        <v>402</v>
+      </c>
+      <c r="I44" s="6" t="s">
+        <v>73</v>
+      </c>
+      <c r="J44" s="84"/>
+      <c r="K44" s="42" t="s">
+        <v>370</v>
+      </c>
+      <c r="L44" s="42">
         <v>42410220</v>
       </c>
-      <c r="M44" s="40"/>
-    </row>
-    <row r="45" spans="1:89" ht="78.75" x14ac:dyDescent="0.4">
+      <c r="N44" s="40"/>
+    </row>
+    <row r="45" spans="1:90" ht="78.75" x14ac:dyDescent="0.4">
       <c r="A45" s="47" t="s">
         <v>173</v>
       </c>
@@ -5314,7 +5482,7 @@
       <c r="C45" s="56"/>
       <c r="D45" s="18"/>
       <c r="E45" s="5" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="F45" s="63" t="s">
         <v>75</v>
@@ -5325,16 +5493,19 @@
       <c r="H45" s="6" t="s">
         <v>75</v>
       </c>
-      <c r="I45" s="84"/>
-      <c r="J45" s="42" t="s">
-        <v>376</v>
-      </c>
-      <c r="K45" s="42">
+      <c r="I45" s="6" t="s">
+        <v>75</v>
+      </c>
+      <c r="J45" s="84"/>
+      <c r="K45" s="42" t="s">
+        <v>371</v>
+      </c>
+      <c r="L45" s="42">
         <v>42410224</v>
       </c>
-      <c r="M45" s="40"/>
-    </row>
-    <row r="46" spans="1:89" s="32" customFormat="1" ht="67.5" x14ac:dyDescent="0.4">
+      <c r="N45" s="40"/>
+    </row>
+    <row r="46" spans="1:90" s="32" customFormat="1" ht="67.5" x14ac:dyDescent="0.4">
       <c r="A46" s="48" t="s">
         <v>174</v>
       </c>
@@ -5346,22 +5517,25 @@
         <v>228</v>
       </c>
       <c r="E46" s="5" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="F46" s="62"/>
       <c r="G46" s="70" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="H46" s="70" t="s">
-        <v>352</v>
-      </c>
-      <c r="I46" s="85"/>
-      <c r="J46" s="42"/>
+        <v>351</v>
+      </c>
+      <c r="I46" s="70" t="s">
+        <v>411</v>
+      </c>
+      <c r="J46" s="85"/>
       <c r="K46" s="42"/>
-      <c r="L46" s="40"/>
+      <c r="L46" s="42"/>
       <c r="M46" s="40"/>
-    </row>
-    <row r="47" spans="1:89" ht="67.5" x14ac:dyDescent="0.4">
+      <c r="N46" s="40"/>
+    </row>
+    <row r="47" spans="1:90" ht="67.5" x14ac:dyDescent="0.4">
       <c r="A47" s="48" t="s">
         <v>175</v>
       </c>
@@ -5371,10 +5545,10 @@
       <c r="C47" s="56"/>
       <c r="D47" s="20"/>
       <c r="E47" s="5" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="F47" s="63" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="G47" s="6" t="s">
         <v>78</v>
@@ -5382,16 +5556,19 @@
       <c r="H47" s="6" t="s">
         <v>78</v>
       </c>
-      <c r="I47" s="84"/>
-      <c r="J47" s="42" t="s">
-        <v>388</v>
-      </c>
+      <c r="I47" s="6" t="s">
+        <v>78</v>
+      </c>
+      <c r="J47" s="84"/>
       <c r="K47" s="42" t="s">
-        <v>389</v>
-      </c>
-      <c r="M47" s="40"/>
-    </row>
-    <row r="48" spans="1:89" s="32" customFormat="1" ht="67.5" x14ac:dyDescent="0.4">
+        <v>383</v>
+      </c>
+      <c r="L47" s="42" t="s">
+        <v>384</v>
+      </c>
+      <c r="N47" s="40"/>
+    </row>
+    <row r="48" spans="1:90" s="32" customFormat="1" ht="67.5" x14ac:dyDescent="0.4">
       <c r="A48" s="48" t="s">
         <v>176</v>
       </c>
@@ -5403,22 +5580,25 @@
         <v>225</v>
       </c>
       <c r="E48" s="5" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="F48" s="62"/>
       <c r="G48" s="70" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="H48" s="70" t="s">
-        <v>353</v>
-      </c>
-      <c r="I48" s="85"/>
-      <c r="J48" s="42"/>
+        <v>352</v>
+      </c>
+      <c r="I48" s="70" t="s">
+        <v>268</v>
+      </c>
+      <c r="J48" s="85"/>
       <c r="K48" s="42"/>
-      <c r="L48" s="40"/>
+      <c r="L48" s="42"/>
       <c r="M48" s="40"/>
-    </row>
-    <row r="49" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="N48" s="40"/>
+    </row>
+    <row r="49" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A49" s="48" t="s">
         <v>177</v>
       </c>
@@ -5428,18 +5608,19 @@
       <c r="C49" s="57"/>
       <c r="D49" s="24"/>
       <c r="E49" s="5" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="F49" s="77"/>
       <c r="G49" s="12"/>
       <c r="H49" s="12"/>
-      <c r="I49" s="85" t="s">
+      <c r="I49" s="12"/>
+      <c r="J49" s="85" t="s">
         <v>80</v>
       </c>
-      <c r="K49" s="42"/>
-      <c r="M49" s="40"/>
-    </row>
-    <row r="50" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="L49" s="42"/>
+      <c r="N49" s="40"/>
+    </row>
+    <row r="50" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A50" s="48" t="s">
         <v>178</v>
       </c>
@@ -5449,18 +5630,19 @@
       <c r="C50" s="57"/>
       <c r="D50" s="19"/>
       <c r="E50" s="5" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="F50" s="76"/>
       <c r="G50" s="12"/>
       <c r="H50" s="12"/>
-      <c r="I50" s="85" t="s">
+      <c r="I50" s="12"/>
+      <c r="J50" s="85" t="s">
         <v>80</v>
       </c>
-      <c r="K50" s="42"/>
-      <c r="M50" s="40"/>
-    </row>
-    <row r="51" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="L50" s="42"/>
+      <c r="N50" s="40"/>
+    </row>
+    <row r="51" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A51" s="48" t="s">
         <v>179</v>
       </c>
@@ -5470,18 +5652,19 @@
       <c r="C51" s="57"/>
       <c r="D51" s="25"/>
       <c r="E51" s="5" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="F51" s="77"/>
       <c r="G51" s="12"/>
       <c r="H51" s="12"/>
-      <c r="I51" s="85" t="s">
+      <c r="I51" s="12"/>
+      <c r="J51" s="85" t="s">
         <v>80</v>
       </c>
-      <c r="K51" s="42"/>
-      <c r="M51" s="40"/>
-    </row>
-    <row r="52" spans="1:13" ht="22.5" x14ac:dyDescent="0.4">
+      <c r="L51" s="42"/>
+      <c r="N51" s="40"/>
+    </row>
+    <row r="52" spans="1:14" ht="22.5" x14ac:dyDescent="0.4">
       <c r="A52" s="47" t="s">
         <v>180</v>
       </c>
@@ -5489,26 +5672,29 @@
         <v>82</v>
       </c>
       <c r="C52" s="5" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="D52" s="18"/>
       <c r="E52" s="5" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="F52" s="63" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="G52" s="56" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="H52" s="56" t="s">
-        <v>313</v>
-      </c>
-      <c r="I52" s="85"/>
-      <c r="K52" s="42"/>
-      <c r="M52" s="40"/>
-    </row>
-    <row r="53" spans="1:13" ht="22.5" x14ac:dyDescent="0.4">
+        <v>312</v>
+      </c>
+      <c r="I52" s="56" t="s">
+        <v>312</v>
+      </c>
+      <c r="J52" s="85"/>
+      <c r="L52" s="42"/>
+      <c r="N52" s="40"/>
+    </row>
+    <row r="53" spans="1:14" ht="22.5" x14ac:dyDescent="0.4">
       <c r="A53" s="47" t="s">
         <v>181</v>
       </c>
@@ -5516,26 +5702,29 @@
         <v>84</v>
       </c>
       <c r="C53" s="5" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="D53" s="18"/>
       <c r="E53" s="5" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="F53" s="63" t="s">
         <v>85</v>
       </c>
       <c r="G53" s="56" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="H53" s="56" t="s">
-        <v>314</v>
-      </c>
-      <c r="I53" s="84"/>
-      <c r="K53" s="42"/>
-      <c r="M53" s="40"/>
-    </row>
-    <row r="54" spans="1:13" ht="45" x14ac:dyDescent="0.4">
+        <v>313</v>
+      </c>
+      <c r="I53" s="56" t="s">
+        <v>313</v>
+      </c>
+      <c r="J53" s="84"/>
+      <c r="L53" s="42"/>
+      <c r="N53" s="40"/>
+    </row>
+    <row r="54" spans="1:14" ht="45" x14ac:dyDescent="0.4">
       <c r="A54" s="47" t="s">
         <v>182</v>
       </c>
@@ -5545,7 +5734,7 @@
       <c r="C54" s="56"/>
       <c r="D54" s="18"/>
       <c r="E54" s="5" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="F54" s="63" t="s">
         <v>87</v>
@@ -5556,16 +5745,19 @@
       <c r="H54" s="6" t="s">
         <v>87</v>
       </c>
-      <c r="I54" s="84"/>
-      <c r="J54" s="42">
+      <c r="I54" s="6" t="s">
+        <v>87</v>
+      </c>
+      <c r="J54" s="84"/>
+      <c r="K54" s="42">
         <v>42418288</v>
       </c>
-      <c r="K54" s="42">
+      <c r="L54" s="42">
         <v>42418208</v>
       </c>
-      <c r="M54" s="40"/>
-    </row>
-    <row r="55" spans="1:13" ht="22.5" x14ac:dyDescent="0.4">
+      <c r="N54" s="40"/>
+    </row>
+    <row r="55" spans="1:14" ht="22.5" x14ac:dyDescent="0.4">
       <c r="A55" s="47" t="s">
         <v>183</v>
       </c>
@@ -5575,22 +5767,25 @@
       <c r="C55" s="56"/>
       <c r="D55" s="18"/>
       <c r="E55" s="5" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="F55" s="63" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="G55" s="69" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="H55" s="69" t="s">
-        <v>359</v>
-      </c>
-      <c r="I55" s="84"/>
-      <c r="K55" s="42"/>
-      <c r="M55" s="40"/>
-    </row>
-    <row r="56" spans="1:13" s="32" customFormat="1" ht="22.5" x14ac:dyDescent="0.4">
+        <v>358</v>
+      </c>
+      <c r="I55" s="69" t="s">
+        <v>358</v>
+      </c>
+      <c r="J55" s="84"/>
+      <c r="L55" s="42"/>
+      <c r="N55" s="40"/>
+    </row>
+    <row r="56" spans="1:14" s="32" customFormat="1" ht="22.5" x14ac:dyDescent="0.4">
       <c r="A56" s="48" t="s">
         <v>184</v>
       </c>
@@ -5602,22 +5797,25 @@
         <v>228</v>
       </c>
       <c r="E56" s="5" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="F56" s="76"/>
       <c r="G56" s="11" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="H56" s="11" t="s">
-        <v>349</v>
-      </c>
-      <c r="I56" s="85"/>
-      <c r="J56" s="42"/>
+        <v>348</v>
+      </c>
+      <c r="I56" s="11" t="s">
+        <v>348</v>
+      </c>
+      <c r="J56" s="85"/>
       <c r="K56" s="42"/>
-      <c r="L56" s="40"/>
+      <c r="L56" s="42"/>
       <c r="M56" s="40"/>
-    </row>
-    <row r="57" spans="1:13" ht="45" x14ac:dyDescent="0.4">
+      <c r="N56" s="40"/>
+    </row>
+    <row r="57" spans="1:14" ht="45" x14ac:dyDescent="0.4">
       <c r="A57" s="47" t="s">
         <v>185</v>
       </c>
@@ -5627,24 +5825,27 @@
       <c r="C57" s="56"/>
       <c r="D57" s="18"/>
       <c r="E57" s="5" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="F57" s="63" t="s">
         <v>91</v>
       </c>
       <c r="G57" s="69" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="H57" s="69" t="s">
-        <v>356</v>
-      </c>
-      <c r="I57" s="84" t="s">
+        <v>355</v>
+      </c>
+      <c r="I57" s="69" t="s">
+        <v>355</v>
+      </c>
+      <c r="J57" s="84" t="s">
         <v>92</v>
       </c>
-      <c r="K57" s="42"/>
-      <c r="M57" s="40"/>
-    </row>
-    <row r="58" spans="1:13" ht="22.5" x14ac:dyDescent="0.4">
+      <c r="L57" s="42"/>
+      <c r="N57" s="40"/>
+    </row>
+    <row r="58" spans="1:14" ht="22.5" x14ac:dyDescent="0.4">
       <c r="A58" s="47" t="s">
         <v>186</v>
       </c>
@@ -5654,27 +5855,30 @@
       <c r="C58" s="56"/>
       <c r="D58" s="18"/>
       <c r="E58" s="5" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="F58" s="63" t="s">
+        <v>258</v>
+      </c>
+      <c r="G58" s="56" t="s">
+        <v>354</v>
+      </c>
+      <c r="H58" s="56" t="s">
+        <v>354</v>
+      </c>
+      <c r="I58" s="56" t="s">
         <v>259</v>
       </c>
-      <c r="G58" s="56" t="s">
-        <v>355</v>
-      </c>
-      <c r="H58" s="56" t="s">
-        <v>355</v>
-      </c>
-      <c r="I58" s="84"/>
-      <c r="J58" s="42">
+      <c r="J58" s="84"/>
+      <c r="K58" s="42">
         <v>42418298</v>
       </c>
-      <c r="K58" s="42">
+      <c r="L58" s="42">
         <v>42420298</v>
       </c>
-      <c r="M58" s="40"/>
-    </row>
-    <row r="59" spans="1:13" ht="33.75" x14ac:dyDescent="0.4">
+      <c r="N58" s="40"/>
+    </row>
+    <row r="59" spans="1:14" ht="33.75" x14ac:dyDescent="0.4">
       <c r="A59" s="47" t="s">
         <v>187</v>
       </c>
@@ -5684,22 +5888,25 @@
       <c r="C59" s="56"/>
       <c r="D59" s="18"/>
       <c r="E59" s="5" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="F59" s="63" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="G59" s="69" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="H59" s="69" t="s">
-        <v>354</v>
-      </c>
-      <c r="I59" s="84"/>
-      <c r="K59" s="42"/>
-      <c r="M59" s="40"/>
-    </row>
-    <row r="60" spans="1:13" ht="22.5" x14ac:dyDescent="0.4">
+        <v>353</v>
+      </c>
+      <c r="I59" s="69" t="s">
+        <v>353</v>
+      </c>
+      <c r="J59" s="84"/>
+      <c r="L59" s="42"/>
+      <c r="N59" s="40"/>
+    </row>
+    <row r="60" spans="1:14" ht="22.5" x14ac:dyDescent="0.4">
       <c r="A60" s="47" t="s">
         <v>188</v>
       </c>
@@ -5707,26 +5914,29 @@
         <v>96</v>
       </c>
       <c r="C60" s="5" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="D60" s="18"/>
       <c r="E60" s="5" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="F60" s="63" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="G60" s="56" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="H60" s="56" t="s">
-        <v>321</v>
-      </c>
-      <c r="I60" s="84"/>
-      <c r="K60" s="42"/>
-      <c r="M60" s="40"/>
-    </row>
-    <row r="61" spans="1:13" ht="22.5" x14ac:dyDescent="0.4">
+        <v>320</v>
+      </c>
+      <c r="I60" s="56" t="s">
+        <v>320</v>
+      </c>
+      <c r="J60" s="84"/>
+      <c r="L60" s="42"/>
+      <c r="N60" s="40"/>
+    </row>
+    <row r="61" spans="1:14" ht="22.5" x14ac:dyDescent="0.4">
       <c r="A61" s="47" t="s">
         <v>189</v>
       </c>
@@ -5734,26 +5944,29 @@
         <v>97</v>
       </c>
       <c r="C61" s="5" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="D61" s="18"/>
       <c r="E61" s="5" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="F61" s="63" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="G61" s="56" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="H61" s="56" t="s">
-        <v>322</v>
-      </c>
-      <c r="I61" s="84"/>
-      <c r="K61" s="42"/>
-      <c r="M61" s="40"/>
-    </row>
-    <row r="62" spans="1:13" ht="22.5" x14ac:dyDescent="0.4">
+        <v>321</v>
+      </c>
+      <c r="I61" s="56" t="s">
+        <v>321</v>
+      </c>
+      <c r="J61" s="84"/>
+      <c r="L61" s="42"/>
+      <c r="N61" s="40"/>
+    </row>
+    <row r="62" spans="1:14" ht="22.5" x14ac:dyDescent="0.4">
       <c r="A62" s="47" t="s">
         <v>190</v>
       </c>
@@ -5761,26 +5974,29 @@
         <v>98</v>
       </c>
       <c r="C62" s="5" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="D62" s="18"/>
       <c r="E62" s="5" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="F62" s="63" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="G62" s="56" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="H62" s="56" t="s">
-        <v>323</v>
-      </c>
-      <c r="I62" s="84"/>
-      <c r="K62" s="42"/>
-      <c r="M62" s="40"/>
-    </row>
-    <row r="63" spans="1:13" ht="22.5" x14ac:dyDescent="0.4">
+        <v>322</v>
+      </c>
+      <c r="I62" s="56" t="s">
+        <v>322</v>
+      </c>
+      <c r="J62" s="84"/>
+      <c r="L62" s="42"/>
+      <c r="N62" s="40"/>
+    </row>
+    <row r="63" spans="1:14" ht="22.5" x14ac:dyDescent="0.4">
       <c r="A63" s="47" t="s">
         <v>191</v>
       </c>
@@ -5790,22 +6006,25 @@
       <c r="C63" s="56"/>
       <c r="D63" s="18"/>
       <c r="E63" s="5" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="F63" s="63" t="s">
         <v>100</v>
       </c>
       <c r="G63" s="56" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="H63" s="56" t="s">
-        <v>324</v>
-      </c>
-      <c r="I63" s="84"/>
-      <c r="K63" s="42"/>
-      <c r="M63" s="40"/>
-    </row>
-    <row r="64" spans="1:13" ht="33.75" x14ac:dyDescent="0.4">
+        <v>323</v>
+      </c>
+      <c r="I63" s="56" t="s">
+        <v>323</v>
+      </c>
+      <c r="J63" s="84"/>
+      <c r="L63" s="42"/>
+      <c r="N63" s="40"/>
+    </row>
+    <row r="64" spans="1:14" ht="33.75" x14ac:dyDescent="0.4">
       <c r="A64" s="47" t="s">
         <v>192</v>
       </c>
@@ -5813,11 +6032,11 @@
         <v>101</v>
       </c>
       <c r="C64" s="56" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="D64" s="18"/>
       <c r="E64" s="5" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="F64" s="63" t="s">
         <v>102</v>
@@ -5828,11 +6047,14 @@
       <c r="H64" s="6" t="s">
         <v>102</v>
       </c>
-      <c r="I64" s="84"/>
-      <c r="K64" s="42"/>
-      <c r="M64" s="40"/>
-    </row>
-    <row r="65" spans="1:167" ht="22.5" x14ac:dyDescent="0.4">
+      <c r="I64" s="6" t="s">
+        <v>102</v>
+      </c>
+      <c r="J64" s="84"/>
+      <c r="L64" s="42"/>
+      <c r="N64" s="40"/>
+    </row>
+    <row r="65" spans="1:168" ht="22.5" x14ac:dyDescent="0.4">
       <c r="A65" s="47" t="s">
         <v>193</v>
       </c>
@@ -5840,14 +6062,14 @@
         <v>103</v>
       </c>
       <c r="C65" s="56" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="D65" s="18"/>
       <c r="E65" s="5" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="F65" s="63" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="G65" s="6" t="s">
         <v>104</v>
@@ -5855,11 +6077,14 @@
       <c r="H65" s="6" t="s">
         <v>104</v>
       </c>
-      <c r="I65" s="84"/>
-      <c r="K65" s="42"/>
-      <c r="M65" s="40"/>
-    </row>
-    <row r="66" spans="1:167" ht="22.5" x14ac:dyDescent="0.4">
+      <c r="I65" s="6" t="s">
+        <v>104</v>
+      </c>
+      <c r="J65" s="84"/>
+      <c r="L65" s="42"/>
+      <c r="N65" s="40"/>
+    </row>
+    <row r="66" spans="1:168" ht="22.5" x14ac:dyDescent="0.4">
       <c r="A66" s="47" t="s">
         <v>194</v>
       </c>
@@ -5867,26 +6092,29 @@
         <v>105</v>
       </c>
       <c r="C66" s="5" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="D66" s="18"/>
       <c r="E66" s="5" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="F66" s="63" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="G66" s="6" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="H66" s="6" t="s">
-        <v>343</v>
-      </c>
-      <c r="I66" s="85"/>
-      <c r="K66" s="42"/>
-      <c r="M66" s="40"/>
-    </row>
-    <row r="67" spans="1:167" ht="22.5" x14ac:dyDescent="0.4">
+        <v>342</v>
+      </c>
+      <c r="I66" s="6" t="s">
+        <v>342</v>
+      </c>
+      <c r="J66" s="85"/>
+      <c r="L66" s="42"/>
+      <c r="N66" s="40"/>
+    </row>
+    <row r="67" spans="1:168" ht="22.5" x14ac:dyDescent="0.4">
       <c r="A67" s="47" t="s">
         <v>195</v>
       </c>
@@ -5894,25 +6122,27 @@
         <v>106</v>
       </c>
       <c r="C67" s="5" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="D67" s="18"/>
       <c r="E67" s="5" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="F67" s="63" t="s">
         <v>107</v>
       </c>
       <c r="G67" s="6" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="H67" s="6" t="s">
-        <v>344</v>
-      </c>
-      <c r="I67" s="85"/>
-      <c r="K67" s="42"/>
-      <c r="M67" s="40"/>
-      <c r="N67" s="30"/>
+        <v>343</v>
+      </c>
+      <c r="I67" s="6" t="s">
+        <v>343</v>
+      </c>
+      <c r="J67" s="85"/>
+      <c r="L67" s="42"/>
+      <c r="N67" s="40"/>
       <c r="O67" s="30"/>
       <c r="P67" s="30"/>
       <c r="Q67" s="30"/>
@@ -6066,8 +6296,9 @@
       <c r="FI67" s="30"/>
       <c r="FJ67" s="30"/>
       <c r="FK67" s="30"/>
-    </row>
-    <row r="68" spans="1:167" s="31" customFormat="1" ht="33.75" x14ac:dyDescent="0.4">
+      <c r="FL67" s="30"/>
+    </row>
+    <row r="68" spans="1:168" s="31" customFormat="1" ht="33.75" x14ac:dyDescent="0.4">
       <c r="A68" s="48" t="s">
         <v>196</v>
       </c>
@@ -6086,12 +6317,14 @@
       <c r="H68" s="11" t="s">
         <v>127</v>
       </c>
-      <c r="I68" s="85"/>
-      <c r="J68" s="42"/>
+      <c r="I68" s="11" t="s">
+        <v>127</v>
+      </c>
+      <c r="J68" s="85"/>
       <c r="K68" s="42"/>
-      <c r="L68" s="40"/>
+      <c r="L68" s="42"/>
       <c r="M68" s="40"/>
-      <c r="N68" s="30"/>
+      <c r="N68" s="40"/>
       <c r="O68" s="30"/>
       <c r="P68" s="30"/>
       <c r="Q68" s="30"/>
@@ -6245,8 +6478,9 @@
       <c r="FI68" s="30"/>
       <c r="FJ68" s="30"/>
       <c r="FK68" s="30"/>
-    </row>
-    <row r="69" spans="1:167" s="31" customFormat="1" ht="22.5" x14ac:dyDescent="0.4">
+      <c r="FL68" s="30"/>
+    </row>
+    <row r="69" spans="1:168" s="31" customFormat="1" ht="22.5" x14ac:dyDescent="0.4">
       <c r="A69" s="48" t="s">
         <v>197</v>
       </c>
@@ -6265,12 +6499,14 @@
       <c r="H69" s="11" t="s">
         <v>129</v>
       </c>
-      <c r="I69" s="85"/>
-      <c r="J69" s="42"/>
+      <c r="I69" s="11" t="s">
+        <v>129</v>
+      </c>
+      <c r="J69" s="85"/>
       <c r="K69" s="42"/>
-      <c r="L69" s="40"/>
+      <c r="L69" s="42"/>
       <c r="M69" s="40"/>
-      <c r="N69" s="30"/>
+      <c r="N69" s="40"/>
       <c r="O69" s="30"/>
       <c r="P69" s="30"/>
       <c r="Q69" s="30"/>
@@ -6424,8 +6660,9 @@
       <c r="FI69" s="30"/>
       <c r="FJ69" s="30"/>
       <c r="FK69" s="30"/>
-    </row>
-    <row r="70" spans="1:167" ht="33.75" x14ac:dyDescent="0.4">
+      <c r="FL69" s="30"/>
+    </row>
+    <row r="70" spans="1:168" ht="33.75" x14ac:dyDescent="0.4">
       <c r="A70" s="48" t="s">
         <v>198</v>
       </c>
@@ -6435,7 +6672,7 @@
       <c r="C70" s="56"/>
       <c r="D70" s="20"/>
       <c r="E70" s="5" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="F70" s="63" t="s">
         <v>109</v>
@@ -6446,15 +6683,17 @@
       <c r="H70" s="6" t="s">
         <v>83</v>
       </c>
-      <c r="I70" s="85"/>
-      <c r="J70" s="42">
+      <c r="I70" s="6" t="s">
+        <v>83</v>
+      </c>
+      <c r="J70" s="85"/>
+      <c r="K70" s="42">
         <v>42420288</v>
       </c>
-      <c r="K70" s="42">
+      <c r="L70" s="42">
         <v>42420208</v>
       </c>
-      <c r="M70" s="40"/>
-      <c r="N70" s="30"/>
+      <c r="N70" s="40"/>
       <c r="O70" s="30"/>
       <c r="P70" s="30"/>
       <c r="Q70" s="30"/>
@@ -6608,8 +6847,9 @@
       <c r="FI70" s="30"/>
       <c r="FJ70" s="30"/>
       <c r="FK70" s="30"/>
-    </row>
-    <row r="71" spans="1:167" s="31" customFormat="1" ht="22.5" x14ac:dyDescent="0.4">
+      <c r="FL70" s="30"/>
+    </row>
+    <row r="71" spans="1:168" s="31" customFormat="1" ht="22.5" x14ac:dyDescent="0.4">
       <c r="A71" s="48" t="s">
         <v>199</v>
       </c>
@@ -6621,7 +6861,7 @@
         <v>226</v>
       </c>
       <c r="E71" s="5" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="F71" s="73"/>
       <c r="G71" s="6" t="s">
@@ -6630,16 +6870,18 @@
       <c r="H71" s="6" t="s">
         <v>85</v>
       </c>
-      <c r="I71" s="85"/>
-      <c r="J71" s="42" t="s">
-        <v>393</v>
-      </c>
+      <c r="I71" s="6" t="s">
+        <v>85</v>
+      </c>
+      <c r="J71" s="85"/>
       <c r="K71" s="42" t="s">
-        <v>390</v>
-      </c>
-      <c r="L71" s="40"/>
+        <v>388</v>
+      </c>
+      <c r="L71" s="42" t="s">
+        <v>385</v>
+      </c>
       <c r="M71" s="40"/>
-      <c r="N71" s="30"/>
+      <c r="N71" s="40"/>
       <c r="O71" s="30"/>
       <c r="P71" s="30"/>
       <c r="Q71" s="30"/>
@@ -6793,8 +7035,9 @@
       <c r="FI71" s="30"/>
       <c r="FJ71" s="30"/>
       <c r="FK71" s="30"/>
-    </row>
-    <row r="72" spans="1:167" ht="33.75" x14ac:dyDescent="0.4">
+      <c r="FL71" s="30"/>
+    </row>
+    <row r="72" spans="1:168" ht="33.75" x14ac:dyDescent="0.4">
       <c r="A72" s="47" t="s">
         <v>200</v>
       </c>
@@ -6804,7 +7047,7 @@
       <c r="C72" s="56"/>
       <c r="D72" s="18"/>
       <c r="E72" s="5" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="F72" s="63" t="s">
         <v>111</v>
@@ -6813,28 +7056,31 @@
         <v>120</v>
       </c>
       <c r="H72" s="6" t="s">
-        <v>411</v>
-      </c>
-      <c r="I72" s="85"/>
-      <c r="K72" s="42"/>
-      <c r="M72" s="40"/>
-    </row>
-    <row r="73" spans="1:167" ht="45" x14ac:dyDescent="0.4">
+        <v>406</v>
+      </c>
+      <c r="I72" s="6" t="s">
+        <v>406</v>
+      </c>
+      <c r="J72" s="85"/>
+      <c r="L72" s="42"/>
+      <c r="N72" s="40"/>
+    </row>
+    <row r="73" spans="1:168" ht="45" x14ac:dyDescent="0.4">
       <c r="A73" s="47" t="s">
         <v>201</v>
       </c>
       <c r="B73" s="33" t="s">
-        <v>394</v>
+        <v>389</v>
       </c>
       <c r="C73" s="56" t="s">
-        <v>395</v>
+        <v>390</v>
       </c>
       <c r="D73" s="18"/>
       <c r="E73" s="5" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="F73" s="63" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="G73" s="6" t="s">
         <v>118</v>
@@ -6842,11 +7088,14 @@
       <c r="H73" s="6" t="s">
         <v>118</v>
       </c>
-      <c r="I73" s="85"/>
-      <c r="K73" s="42"/>
-      <c r="M73" s="40"/>
-    </row>
-    <row r="74" spans="1:167" ht="45" x14ac:dyDescent="0.4">
+      <c r="I73" s="6" t="s">
+        <v>118</v>
+      </c>
+      <c r="J73" s="85"/>
+      <c r="L73" s="42"/>
+      <c r="N73" s="40"/>
+    </row>
+    <row r="74" spans="1:168" ht="45" x14ac:dyDescent="0.4">
       <c r="A74" s="47" t="s">
         <v>202</v>
       </c>
@@ -6854,11 +7103,11 @@
         <v>112</v>
       </c>
       <c r="C74" s="56" t="s">
-        <v>396</v>
+        <v>391</v>
       </c>
       <c r="D74" s="18"/>
       <c r="E74" s="5" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="F74" s="63" t="s">
         <v>113</v>
@@ -6869,11 +7118,14 @@
       <c r="H74" s="6" t="s">
         <v>122</v>
       </c>
-      <c r="I74" s="84"/>
-      <c r="K74" s="42"/>
-      <c r="M74" s="40"/>
-    </row>
-    <row r="75" spans="1:167" ht="22.5" x14ac:dyDescent="0.4">
+      <c r="I74" s="6" t="s">
+        <v>122</v>
+      </c>
+      <c r="J74" s="84"/>
+      <c r="L74" s="42"/>
+      <c r="N74" s="40"/>
+    </row>
+    <row r="75" spans="1:168" ht="22.5" x14ac:dyDescent="0.4">
       <c r="A75" s="47" t="s">
         <v>203</v>
       </c>
@@ -6881,26 +7133,29 @@
         <v>114</v>
       </c>
       <c r="C75" s="5" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="D75" s="18"/>
       <c r="E75" s="5" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="F75" s="63" t="s">
         <v>115</v>
       </c>
       <c r="G75" s="56" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="H75" s="56" t="s">
-        <v>334</v>
-      </c>
-      <c r="I75" s="84"/>
-      <c r="K75" s="42"/>
-      <c r="M75" s="40"/>
-    </row>
-    <row r="76" spans="1:167" ht="22.5" x14ac:dyDescent="0.4">
+        <v>333</v>
+      </c>
+      <c r="I75" s="56" t="s">
+        <v>333</v>
+      </c>
+      <c r="J75" s="84"/>
+      <c r="L75" s="42"/>
+      <c r="N75" s="40"/>
+    </row>
+    <row r="76" spans="1:168" ht="22.5" x14ac:dyDescent="0.4">
       <c r="A76" s="47" t="s">
         <v>204</v>
       </c>
@@ -6908,26 +7163,29 @@
         <v>116</v>
       </c>
       <c r="C76" s="5" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="D76" s="18"/>
       <c r="E76" s="5" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="F76" s="63" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="G76" s="56" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="H76" s="56" t="s">
-        <v>335</v>
-      </c>
-      <c r="I76" s="84"/>
-      <c r="K76" s="42"/>
-      <c r="M76" s="40"/>
-    </row>
-    <row r="77" spans="1:167" ht="22.5" x14ac:dyDescent="0.4">
+        <v>334</v>
+      </c>
+      <c r="I76" s="56" t="s">
+        <v>334</v>
+      </c>
+      <c r="J76" s="84"/>
+      <c r="L76" s="42"/>
+      <c r="N76" s="40"/>
+    </row>
+    <row r="77" spans="1:168" ht="22.5" x14ac:dyDescent="0.4">
       <c r="A77" s="47" t="s">
         <v>205</v>
       </c>
@@ -6935,26 +7193,29 @@
         <v>117</v>
       </c>
       <c r="C77" s="5" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="D77" s="18"/>
       <c r="E77" s="5" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="F77" s="63" t="s">
         <v>118</v>
       </c>
       <c r="G77" s="56" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="H77" s="56" t="s">
-        <v>336</v>
-      </c>
-      <c r="I77" s="84"/>
-      <c r="K77" s="42"/>
-      <c r="M77" s="40"/>
-    </row>
-    <row r="78" spans="1:167" ht="22.5" x14ac:dyDescent="0.4">
+        <v>335</v>
+      </c>
+      <c r="I77" s="56" t="s">
+        <v>335</v>
+      </c>
+      <c r="J77" s="84"/>
+      <c r="L77" s="42"/>
+      <c r="N77" s="40"/>
+    </row>
+    <row r="78" spans="1:168" ht="22.5" x14ac:dyDescent="0.4">
       <c r="A78" s="47" t="s">
         <v>206</v>
       </c>
@@ -6962,26 +7223,29 @@
         <v>119</v>
       </c>
       <c r="C78" s="5" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="D78" s="18"/>
       <c r="E78" s="5" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="F78" s="63" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="G78" s="56" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="H78" s="56" t="s">
-        <v>337</v>
-      </c>
-      <c r="I78" s="84"/>
-      <c r="K78" s="42"/>
-      <c r="M78" s="40"/>
-    </row>
-    <row r="79" spans="1:167" ht="22.5" x14ac:dyDescent="0.4">
+        <v>336</v>
+      </c>
+      <c r="I78" s="56" t="s">
+        <v>336</v>
+      </c>
+      <c r="J78" s="84"/>
+      <c r="L78" s="42"/>
+      <c r="N78" s="40"/>
+    </row>
+    <row r="79" spans="1:168" ht="22.5" x14ac:dyDescent="0.4">
       <c r="A79" s="47" t="s">
         <v>207</v>
       </c>
@@ -6989,26 +7253,29 @@
         <v>121</v>
       </c>
       <c r="C79" s="5" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="D79" s="18"/>
       <c r="E79" s="5" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="F79" s="63" t="s">
         <v>122</v>
       </c>
       <c r="G79" s="56" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="H79" s="56" t="s">
-        <v>338</v>
-      </c>
-      <c r="I79" s="84"/>
-      <c r="K79" s="42"/>
-      <c r="M79" s="40"/>
-    </row>
-    <row r="80" spans="1:167" ht="22.5" x14ac:dyDescent="0.4">
+        <v>337</v>
+      </c>
+      <c r="I79" s="56" t="s">
+        <v>337</v>
+      </c>
+      <c r="J79" s="84"/>
+      <c r="L79" s="42"/>
+      <c r="N79" s="40"/>
+    </row>
+    <row r="80" spans="1:168" ht="22.5" x14ac:dyDescent="0.4">
       <c r="A80" s="47" t="s">
         <v>208</v>
       </c>
@@ -7016,26 +7283,29 @@
         <v>123</v>
       </c>
       <c r="C80" s="5" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="D80" s="18"/>
       <c r="E80" s="5" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="F80" s="63" t="s">
         <v>124</v>
       </c>
       <c r="G80" s="56" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="H80" s="56" t="s">
-        <v>339</v>
-      </c>
-      <c r="I80" s="84"/>
-      <c r="K80" s="42"/>
-      <c r="M80" s="40"/>
-    </row>
-    <row r="81" spans="1:13" ht="22.5" x14ac:dyDescent="0.4">
+        <v>338</v>
+      </c>
+      <c r="I80" s="56" t="s">
+        <v>338</v>
+      </c>
+      <c r="J80" s="84"/>
+      <c r="L80" s="42"/>
+      <c r="N80" s="40"/>
+    </row>
+    <row r="81" spans="1:14" ht="22.5" x14ac:dyDescent="0.4">
       <c r="A81" s="47" t="s">
         <v>209</v>
       </c>
@@ -7043,26 +7313,29 @@
         <v>125</v>
       </c>
       <c r="C81" s="5" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="D81" s="18"/>
       <c r="E81" s="5" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="F81" s="63" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="G81" s="56" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="H81" s="56" t="s">
-        <v>340</v>
-      </c>
-      <c r="I81" s="84"/>
-      <c r="K81" s="42"/>
-      <c r="M81" s="40"/>
-    </row>
-    <row r="82" spans="1:13" ht="22.5" x14ac:dyDescent="0.4">
+        <v>339</v>
+      </c>
+      <c r="I81" s="56" t="s">
+        <v>339</v>
+      </c>
+      <c r="J81" s="84"/>
+      <c r="L81" s="42"/>
+      <c r="N81" s="40"/>
+    </row>
+    <row r="82" spans="1:14" ht="22.5" x14ac:dyDescent="0.4">
       <c r="A82" s="47" t="s">
         <v>210</v>
       </c>
@@ -7070,26 +7343,29 @@
         <v>126</v>
       </c>
       <c r="C82" s="5" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="D82" s="18"/>
       <c r="E82" s="5" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="F82" s="63" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="G82" s="56" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="H82" s="56" t="s">
-        <v>341</v>
-      </c>
-      <c r="I82" s="84"/>
-      <c r="K82" s="42"/>
-      <c r="M82" s="40"/>
-    </row>
-    <row r="83" spans="1:13" ht="22.5" x14ac:dyDescent="0.4">
+        <v>340</v>
+      </c>
+      <c r="I82" s="56" t="s">
+        <v>340</v>
+      </c>
+      <c r="J82" s="84"/>
+      <c r="L82" s="42"/>
+      <c r="N82" s="40"/>
+    </row>
+    <row r="83" spans="1:14" ht="22.5" x14ac:dyDescent="0.4">
       <c r="A83" s="48" t="s">
         <v>211</v>
       </c>
@@ -7097,26 +7373,29 @@
         <v>128</v>
       </c>
       <c r="C83" s="5" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="D83" s="19"/>
       <c r="E83" s="5" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="F83" s="64" t="s">
         <v>129</v>
       </c>
       <c r="G83" s="56" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="H83" s="56" t="s">
-        <v>342</v>
-      </c>
-      <c r="I83" s="85"/>
-      <c r="K83" s="42"/>
-      <c r="M83" s="40"/>
-    </row>
-    <row r="84" spans="1:13" x14ac:dyDescent="0.4">
+        <v>341</v>
+      </c>
+      <c r="I83" s="56" t="s">
+        <v>341</v>
+      </c>
+      <c r="J83" s="85"/>
+      <c r="L83" s="42"/>
+      <c r="N83" s="40"/>
+    </row>
+    <row r="84" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A84" s="48" t="s">
         <v>212</v>
       </c>
@@ -7129,11 +7408,12 @@
       <c r="F84" s="78"/>
       <c r="G84" s="15"/>
       <c r="H84" s="15"/>
-      <c r="I84" s="85"/>
-      <c r="K84" s="42"/>
-      <c r="M84" s="40"/>
-    </row>
-    <row r="85" spans="1:13" ht="21.75" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="I84" s="15"/>
+      <c r="J84" s="85"/>
+      <c r="L84" s="42"/>
+      <c r="N84" s="40"/>
+    </row>
+    <row r="85" spans="1:14" ht="21.75" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A85" s="52" t="s">
         <v>213</v>
       </c>
@@ -7146,11 +7426,12 @@
       <c r="F85" s="79"/>
       <c r="G85" s="15"/>
       <c r="H85" s="15"/>
-      <c r="I85" s="89"/>
-      <c r="K85" s="42"/>
-      <c r="M85" s="40"/>
-    </row>
-    <row r="86" spans="1:13" ht="21.75" thickTop="1" x14ac:dyDescent="0.4">
+      <c r="I85" s="94"/>
+      <c r="J85" s="89"/>
+      <c r="L85" s="42"/>
+      <c r="N85" s="40"/>
+    </row>
+    <row r="86" spans="1:14" ht="21.75" thickTop="1" x14ac:dyDescent="0.4">
       <c r="C86" s="26"/>
       <c r="D86" s="26"/>
       <c r="E86" s="26"/>
@@ -7159,7 +7440,7 @@
     </row>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="K2:L2"/>
+    <mergeCell ref="L2:M2"/>
   </mergeCells>
   <phoneticPr fontId="2"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/pinasign.xlsx
+++ b/pinasign.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="651" uniqueCount="429">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="651" uniqueCount="432">
   <si>
     <t>VPP</t>
     <phoneticPr fontId="2"/>
@@ -1930,10 +1930,6 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>RS-232(PC)</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>RotarySW0</t>
     <phoneticPr fontId="2"/>
   </si>
@@ -2023,6 +2019,22 @@
   </si>
   <si>
     <t>b,</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>RS-232(PC)_TX</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>RS-232(PC)_RX</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>pushSW</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>LED</t>
     <phoneticPr fontId="2"/>
   </si>
 </sst>
@@ -2525,9 +2537,6 @@
     <xf numFmtId="0" fontId="7" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="11" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -2697,29 +2706,15 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="標準" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="14">
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="8"/>
-        <name val="Adobe Fangsong Std R"/>
-        <scheme val="none"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="0"/>
-        </patternFill>
-      </fill>
-    </dxf>
     <dxf>
       <font>
         <b val="0"/>
@@ -3061,13 +3056,6 @@
       </border>
     </dxf>
     <dxf>
-      <border>
-        <bottom style="medium">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
       <border outline="0">
         <left style="double">
           <color auto="1"/>
@@ -3077,6 +3065,30 @@
         </right>
         <bottom style="thick">
           <color auto="1"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="8"/>
+        <name val="Adobe Fangsong Std R"/>
+        <scheme val="none"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <border>
+        <bottom style="medium">
+          <color indexed="64"/>
         </bottom>
       </border>
     </dxf>
@@ -3113,19 +3125,19 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="テーブル1" displayName="テーブル1" ref="A1:J85" totalsRowShown="0" headerRowDxfId="13" dataDxfId="0" headerRowBorderDxfId="11" tableBorderDxfId="12">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="テーブル1" displayName="テーブル1" ref="A1:J85" totalsRowShown="0" headerRowDxfId="13" dataDxfId="11" headerRowBorderDxfId="12" tableBorderDxfId="10">
   <autoFilter ref="A1:J85"/>
   <tableColumns count="10">
-    <tableColumn id="1" name="ピン名" dataDxfId="10"/>
-    <tableColumn id="2" name="機能" dataDxfId="9"/>
-    <tableColumn id="3" name="使用する機能" dataDxfId="8"/>
-    <tableColumn id="6" name="Discovery" dataDxfId="7"/>
-    <tableColumn id="8" name="ver_1.0.2 white" dataDxfId="6"/>
-    <tableColumn id="7" name="ver_3.0" dataDxfId="5"/>
-    <tableColumn id="4" name="　ver_4.0-test" dataDxfId="4"/>
-    <tableColumn id="10" name="　ver_4.0" dataDxfId="3"/>
-    <tableColumn id="11" name="　ver_5.0" dataDxfId="2"/>
-    <tableColumn id="5" name="注意" dataDxfId="1"/>
+    <tableColumn id="1" name="ピン名" dataDxfId="9"/>
+    <tableColumn id="2" name="機能" dataDxfId="8"/>
+    <tableColumn id="3" name="使用する機能" dataDxfId="7"/>
+    <tableColumn id="6" name="Discovery" dataDxfId="6"/>
+    <tableColumn id="8" name="ver_1.0.2 white" dataDxfId="5"/>
+    <tableColumn id="7" name="ver_3.0" dataDxfId="4"/>
+    <tableColumn id="4" name="　ver_4.0-test" dataDxfId="3"/>
+    <tableColumn id="10" name="　ver_4.0" dataDxfId="2"/>
+    <tableColumn id="11" name="　ver_5.0" dataDxfId="1"/>
+    <tableColumn id="5" name="注意" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight8" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -3430,8 +3442,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:FL86"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="A20" sqref="A20:XFD20"/>
+    <sheetView tabSelected="1" topLeftCell="A73" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="I19" sqref="I19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="21" x14ac:dyDescent="0.4"/>
@@ -3489,31 +3501,31 @@
       <c r="N1" s="13"/>
     </row>
     <row r="2" spans="1:75" s="10" customFormat="1" ht="21.75" thickTop="1" x14ac:dyDescent="0.4">
-      <c r="A2" s="26" t="s">
+      <c r="A2" s="25" t="s">
         <v>242</v>
       </c>
-      <c r="B2" s="27" t="s">
+      <c r="B2" s="26" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="28" t="s">
+      <c r="C2" s="27" t="s">
         <v>1</v>
       </c>
-      <c r="D2" s="29"/>
-      <c r="E2" s="30"/>
-      <c r="F2" s="31"/>
-      <c r="G2" s="32" t="s">
+      <c r="D2" s="28"/>
+      <c r="E2" s="29"/>
+      <c r="F2" s="30"/>
+      <c r="G2" s="31" t="s">
         <v>243</v>
       </c>
-      <c r="H2" s="32" t="s">
+      <c r="H2" s="31" t="s">
         <v>389</v>
       </c>
-      <c r="I2" s="32" t="s">
+      <c r="I2" s="31" t="s">
         <v>243</v>
       </c>
-      <c r="J2" s="33"/>
+      <c r="J2" s="32"/>
       <c r="K2" s="14"/>
-      <c r="L2" s="25"/>
-      <c r="M2" s="25"/>
+      <c r="L2" s="83"/>
+      <c r="M2" s="83"/>
       <c r="N2" s="12"/>
       <c r="O2" s="8"/>
       <c r="P2" s="8"/>
@@ -3581,690 +3593,690 @@
       <c r="A3" s="17" t="s">
         <v>214</v>
       </c>
-      <c r="B3" s="34"/>
+      <c r="B3" s="33"/>
       <c r="C3" s="19"/>
       <c r="D3" s="3" t="s">
         <v>246</v>
       </c>
-      <c r="E3" s="35"/>
-      <c r="F3" s="36"/>
-      <c r="G3" s="37"/>
-      <c r="H3" s="37"/>
-      <c r="I3" s="37"/>
+      <c r="E3" s="34"/>
+      <c r="F3" s="35"/>
+      <c r="G3" s="36"/>
+      <c r="H3" s="36"/>
+      <c r="I3" s="36"/>
       <c r="J3" s="22"/>
       <c r="L3" s="14"/>
       <c r="N3" s="12"/>
     </row>
     <row r="4" spans="1:75" ht="90" x14ac:dyDescent="0.4">
-      <c r="A4" s="38" t="s">
+      <c r="A4" s="37" t="s">
         <v>132</v>
       </c>
-      <c r="B4" s="39" t="s">
+      <c r="B4" s="38" t="s">
         <v>245</v>
       </c>
-      <c r="C4" s="40" t="s">
+      <c r="C4" s="39" t="s">
         <v>2</v>
       </c>
-      <c r="D4" s="41" t="s">
+      <c r="D4" s="40" t="s">
         <v>247</v>
       </c>
-      <c r="E4" s="42" t="s">
+      <c r="E4" s="41" t="s">
         <v>271</v>
       </c>
-      <c r="F4" s="43" t="s">
+      <c r="F4" s="42" t="s">
         <v>3</v>
       </c>
-      <c r="G4" s="44" t="s">
+      <c r="G4" s="43" t="s">
         <v>3</v>
       </c>
-      <c r="H4" s="44" t="s">
+      <c r="H4" s="43" t="s">
         <v>399</v>
       </c>
-      <c r="I4" s="44" t="s">
-        <v>407</v>
-      </c>
-      <c r="J4" s="45" t="s">
+      <c r="I4" s="43" t="s">
+        <v>406</v>
+      </c>
+      <c r="J4" s="44" t="s">
         <v>4</v>
       </c>
       <c r="L4" s="14"/>
       <c r="N4" s="12"/>
     </row>
     <row r="5" spans="1:75" ht="78.75" x14ac:dyDescent="0.4">
-      <c r="A5" s="38" t="s">
+      <c r="A5" s="37" t="s">
         <v>133</v>
       </c>
-      <c r="B5" s="39" t="s">
+      <c r="B5" s="38" t="s">
         <v>5</v>
       </c>
-      <c r="C5" s="40" t="s">
+      <c r="C5" s="39" t="s">
         <v>368</v>
       </c>
-      <c r="D5" s="41"/>
-      <c r="E5" s="42" t="s">
+      <c r="D5" s="40"/>
+      <c r="E5" s="41" t="s">
         <v>272</v>
       </c>
-      <c r="F5" s="43" t="s">
+      <c r="F5" s="42" t="s">
         <v>6</v>
       </c>
-      <c r="G5" s="44" t="s">
+      <c r="G5" s="43" t="s">
         <v>6</v>
       </c>
-      <c r="H5" s="44" t="s">
+      <c r="H5" s="43" t="s">
         <v>400</v>
       </c>
-      <c r="I5" s="44" t="s">
-        <v>406</v>
-      </c>
-      <c r="J5" s="46"/>
+      <c r="I5" s="43" t="s">
+        <v>405</v>
+      </c>
+      <c r="J5" s="45"/>
       <c r="L5" s="14"/>
       <c r="N5" s="12"/>
     </row>
     <row r="6" spans="1:75" ht="67.5" x14ac:dyDescent="0.4">
-      <c r="A6" s="38" t="s">
+      <c r="A6" s="37" t="s">
         <v>134</v>
       </c>
-      <c r="B6" s="39" t="s">
+      <c r="B6" s="38" t="s">
         <v>7</v>
       </c>
-      <c r="C6" s="40" t="s">
+      <c r="C6" s="39" t="s">
         <v>8</v>
       </c>
-      <c r="D6" s="41"/>
-      <c r="E6" s="42" t="s">
+      <c r="D6" s="40"/>
+      <c r="E6" s="41" t="s">
         <v>273</v>
       </c>
-      <c r="F6" s="43" t="s">
+      <c r="F6" s="42" t="s">
         <v>248</v>
       </c>
-      <c r="G6" s="44" t="s">
+      <c r="G6" s="43" t="s">
         <v>9</v>
       </c>
-      <c r="H6" s="44" t="s">
+      <c r="H6" s="43" t="s">
         <v>390</v>
       </c>
-      <c r="I6" s="44" t="s">
+      <c r="I6" s="43" t="s">
         <v>9</v>
       </c>
-      <c r="J6" s="46"/>
+      <c r="J6" s="45"/>
       <c r="L6" s="14"/>
       <c r="N6" s="12"/>
     </row>
     <row r="7" spans="1:75" ht="78.75" x14ac:dyDescent="0.4">
-      <c r="A7" s="38" t="s">
+      <c r="A7" s="37" t="s">
         <v>135</v>
       </c>
-      <c r="B7" s="39" t="s">
+      <c r="B7" s="38" t="s">
         <v>10</v>
       </c>
-      <c r="C7" s="40" t="s">
+      <c r="C7" s="39" t="s">
         <v>11</v>
       </c>
-      <c r="D7" s="41"/>
-      <c r="E7" s="42" t="s">
+      <c r="D7" s="40"/>
+      <c r="E7" s="41" t="s">
         <v>274</v>
       </c>
-      <c r="F7" s="43" t="s">
+      <c r="F7" s="42" t="s">
         <v>12</v>
       </c>
-      <c r="G7" s="44" t="s">
+      <c r="G7" s="43" t="s">
         <v>12</v>
       </c>
-      <c r="H7" s="44" t="s">
+      <c r="H7" s="43" t="s">
         <v>391</v>
       </c>
-      <c r="I7" s="44" t="s">
+      <c r="I7" s="43" t="s">
         <v>391</v>
       </c>
-      <c r="J7" s="46"/>
+      <c r="J7" s="45"/>
       <c r="L7" s="14"/>
       <c r="N7" s="12"/>
     </row>
     <row r="8" spans="1:75" s="10" customFormat="1" ht="90" x14ac:dyDescent="0.4">
-      <c r="A8" s="38" t="s">
+      <c r="A8" s="37" t="s">
         <v>136</v>
       </c>
-      <c r="B8" s="39" t="s">
+      <c r="B8" s="38" t="s">
         <v>13</v>
       </c>
-      <c r="C8" s="40" t="s">
+      <c r="C8" s="39" t="s">
         <v>364</v>
       </c>
-      <c r="D8" s="41" t="s">
+      <c r="D8" s="40" t="s">
         <v>225</v>
       </c>
-      <c r="E8" s="42" t="s">
+      <c r="E8" s="41" t="s">
         <v>275</v>
       </c>
-      <c r="F8" s="47"/>
-      <c r="G8" s="48" t="s">
+      <c r="F8" s="46"/>
+      <c r="G8" s="47" t="s">
         <v>343</v>
       </c>
-      <c r="H8" s="48" t="s">
+      <c r="H8" s="47" t="s">
         <v>343</v>
       </c>
-      <c r="I8" s="48" t="s">
+      <c r="I8" s="47" t="s">
         <v>343</v>
       </c>
-      <c r="J8" s="46"/>
+      <c r="J8" s="45"/>
       <c r="K8" s="14"/>
       <c r="L8" s="14"/>
       <c r="M8" s="12"/>
       <c r="N8" s="12"/>
     </row>
     <row r="9" spans="1:75" ht="67.5" x14ac:dyDescent="0.4">
-      <c r="A9" s="38" t="s">
+      <c r="A9" s="37" t="s">
         <v>137</v>
       </c>
-      <c r="B9" s="39" t="s">
+      <c r="B9" s="38" t="s">
         <v>14</v>
       </c>
-      <c r="C9" s="40" t="s">
+      <c r="C9" s="39" t="s">
         <v>365</v>
       </c>
-      <c r="D9" s="41" t="s">
+      <c r="D9" s="40" t="s">
         <v>226</v>
       </c>
-      <c r="E9" s="42" t="s">
+      <c r="E9" s="41" t="s">
         <v>276</v>
       </c>
-      <c r="F9" s="36"/>
-      <c r="G9" s="37" t="s">
+      <c r="F9" s="35"/>
+      <c r="G9" s="36" t="s">
         <v>344</v>
       </c>
-      <c r="H9" s="37" t="s">
+      <c r="H9" s="36" t="s">
         <v>344</v>
       </c>
-      <c r="I9" s="37" t="s">
+      <c r="I9" s="36" t="s">
         <v>344</v>
       </c>
-      <c r="J9" s="46"/>
+      <c r="J9" s="45"/>
       <c r="L9" s="14"/>
       <c r="N9" s="12"/>
     </row>
     <row r="10" spans="1:75" ht="78.75" x14ac:dyDescent="0.4">
-      <c r="A10" s="38" t="s">
+      <c r="A10" s="37" t="s">
         <v>138</v>
       </c>
-      <c r="B10" s="39" t="s">
+      <c r="B10" s="38" t="s">
         <v>15</v>
       </c>
-      <c r="C10" s="40" t="s">
+      <c r="C10" s="39" t="s">
         <v>366</v>
       </c>
-      <c r="D10" s="41" t="s">
+      <c r="D10" s="40" t="s">
         <v>226</v>
       </c>
-      <c r="E10" s="42" t="s">
+      <c r="E10" s="41" t="s">
         <v>277</v>
       </c>
-      <c r="F10" s="36"/>
-      <c r="G10" s="37" t="s">
+      <c r="F10" s="35"/>
+      <c r="G10" s="36" t="s">
         <v>345</v>
       </c>
-      <c r="H10" s="37" t="s">
+      <c r="H10" s="36" t="s">
         <v>345</v>
       </c>
-      <c r="I10" s="37" t="s">
+      <c r="I10" s="36" t="s">
         <v>345</v>
       </c>
-      <c r="J10" s="46"/>
+      <c r="J10" s="45"/>
       <c r="L10" s="14"/>
       <c r="N10" s="12"/>
     </row>
     <row r="11" spans="1:75" ht="78.75" x14ac:dyDescent="0.4">
-      <c r="A11" s="38" t="s">
+      <c r="A11" s="37" t="s">
         <v>139</v>
       </c>
-      <c r="B11" s="39" t="s">
+      <c r="B11" s="38" t="s">
         <v>16</v>
       </c>
-      <c r="C11" s="40" t="s">
+      <c r="C11" s="39" t="s">
         <v>367</v>
       </c>
-      <c r="D11" s="41" t="s">
+      <c r="D11" s="40" t="s">
         <v>226</v>
       </c>
-      <c r="E11" s="42" t="s">
+      <c r="E11" s="41" t="s">
         <v>278</v>
       </c>
-      <c r="F11" s="36"/>
-      <c r="G11" s="37" t="s">
+      <c r="F11" s="35"/>
+      <c r="G11" s="36" t="s">
         <v>346</v>
       </c>
-      <c r="H11" s="37" t="s">
+      <c r="H11" s="36" t="s">
         <v>346</v>
       </c>
-      <c r="I11" s="37" t="s">
+      <c r="I11" s="36" t="s">
         <v>346</v>
       </c>
-      <c r="J11" s="46"/>
+      <c r="J11" s="45"/>
       <c r="L11" s="14"/>
       <c r="N11" s="12"/>
     </row>
     <row r="12" spans="1:75" ht="56.25" x14ac:dyDescent="0.4">
-      <c r="A12" s="38" t="s">
+      <c r="A12" s="37" t="s">
         <v>140</v>
       </c>
-      <c r="B12" s="39" t="s">
+      <c r="B12" s="38" t="s">
         <v>17</v>
       </c>
-      <c r="C12" s="40"/>
-      <c r="D12" s="41"/>
-      <c r="E12" s="42" t="s">
+      <c r="C12" s="39"/>
+      <c r="D12" s="40"/>
+      <c r="E12" s="41" t="s">
         <v>279</v>
       </c>
-      <c r="F12" s="43" t="s">
+      <c r="F12" s="42" t="s">
         <v>249</v>
       </c>
-      <c r="G12" s="44" t="s">
+      <c r="G12" s="43" t="s">
         <v>18</v>
       </c>
-      <c r="H12" s="44" t="s">
+      <c r="H12" s="43" t="s">
         <v>18</v>
       </c>
       <c r="I12" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="J12" s="46" t="s">
+      <c r="J12" s="45" t="s">
         <v>219</v>
       </c>
       <c r="K12" s="14" t="s">
-        <v>424</v>
-      </c>
-      <c r="L12" s="83">
+        <v>423</v>
+      </c>
+      <c r="L12" s="82">
         <v>42400220</v>
       </c>
       <c r="N12" s="12"/>
     </row>
     <row r="13" spans="1:75" ht="56.25" x14ac:dyDescent="0.4">
-      <c r="A13" s="49" t="s">
+      <c r="A13" s="48" t="s">
         <v>141</v>
       </c>
-      <c r="B13" s="50" t="s">
+      <c r="B13" s="49" t="s">
         <v>363</v>
       </c>
-      <c r="C13" s="51"/>
-      <c r="D13" s="52" t="s">
+      <c r="C13" s="50"/>
+      <c r="D13" s="51" t="s">
         <v>238</v>
       </c>
-      <c r="E13" s="53"/>
-      <c r="F13" s="54"/>
-      <c r="G13" s="55" t="s">
+      <c r="E13" s="52"/>
+      <c r="F13" s="53"/>
+      <c r="G13" s="54" t="s">
         <v>222</v>
       </c>
-      <c r="H13" s="55" t="s">
+      <c r="H13" s="54" t="s">
         <v>222</v>
       </c>
-      <c r="I13" s="55" t="s">
-        <v>404</v>
-      </c>
-      <c r="J13" s="56"/>
+      <c r="I13" s="54" t="s">
+        <v>428</v>
+      </c>
+      <c r="J13" s="55"/>
       <c r="L13" s="14"/>
       <c r="N13" s="12"/>
     </row>
     <row r="14" spans="1:75" ht="45" x14ac:dyDescent="0.4">
-      <c r="A14" s="49" t="s">
+      <c r="A14" s="48" t="s">
         <v>142</v>
       </c>
-      <c r="B14" s="50" t="s">
+      <c r="B14" s="49" t="s">
         <v>19</v>
       </c>
-      <c r="C14" s="51"/>
-      <c r="D14" s="52" t="s">
+      <c r="C14" s="50"/>
+      <c r="D14" s="51" t="s">
         <v>238</v>
       </c>
-      <c r="E14" s="53"/>
-      <c r="F14" s="54"/>
-      <c r="G14" s="55" t="s">
+      <c r="E14" s="52"/>
+      <c r="F14" s="53"/>
+      <c r="G14" s="54" t="s">
         <v>222</v>
       </c>
-      <c r="H14" s="55" t="s">
+      <c r="H14" s="54" t="s">
         <v>222</v>
       </c>
-      <c r="I14" s="55" t="s">
-        <v>404</v>
-      </c>
-      <c r="J14" s="56"/>
+      <c r="I14" s="54" t="s">
+        <v>429</v>
+      </c>
+      <c r="J14" s="55"/>
       <c r="L14" s="14"/>
       <c r="N14" s="12"/>
     </row>
     <row r="15" spans="1:75" ht="45" x14ac:dyDescent="0.4">
-      <c r="A15" s="49" t="s">
+      <c r="A15" s="48" t="s">
         <v>143</v>
       </c>
-      <c r="B15" s="50" t="s">
+      <c r="B15" s="49" t="s">
         <v>20</v>
       </c>
-      <c r="C15" s="51"/>
-      <c r="D15" s="52" t="s">
+      <c r="C15" s="50"/>
+      <c r="D15" s="51" t="s">
         <v>238</v>
       </c>
-      <c r="E15" s="53"/>
-      <c r="F15" s="54"/>
-      <c r="G15" s="55" t="s">
+      <c r="E15" s="52"/>
+      <c r="F15" s="53"/>
+      <c r="G15" s="54" t="s">
         <v>222</v>
       </c>
-      <c r="H15" s="55" t="s">
+      <c r="H15" s="54" t="s">
         <v>222</v>
       </c>
       <c r="I15" s="20" t="s">
-        <v>408</v>
-      </c>
-      <c r="J15" s="56"/>
+        <v>407</v>
+      </c>
+      <c r="J15" s="55"/>
       <c r="K15" s="14" t="s">
+        <v>424</v>
+      </c>
+      <c r="L15" s="14" t="s">
         <v>425</v>
       </c>
-      <c r="L15" s="14" t="s">
+      <c r="N15" s="12"/>
+    </row>
+    <row r="16" spans="1:75" ht="45" x14ac:dyDescent="0.4">
+      <c r="A16" s="48" t="s">
+        <v>144</v>
+      </c>
+      <c r="B16" s="49" t="s">
+        <v>21</v>
+      </c>
+      <c r="C16" s="50"/>
+      <c r="D16" s="51" t="s">
+        <v>238</v>
+      </c>
+      <c r="E16" s="52"/>
+      <c r="F16" s="53"/>
+      <c r="G16" s="54" t="s">
+        <v>222</v>
+      </c>
+      <c r="H16" s="54" t="s">
+        <v>222</v>
+      </c>
+      <c r="I16" s="20" t="s">
+        <v>422</v>
+      </c>
+      <c r="J16" s="55"/>
+      <c r="K16" s="14" t="s">
         <v>426</v>
       </c>
-      <c r="N15" s="12"/>
-    </row>
-    <row r="16" spans="1:75" ht="45" x14ac:dyDescent="0.4">
-      <c r="A16" s="49" t="s">
-        <v>144</v>
-      </c>
-      <c r="B16" s="50" t="s">
-        <v>21</v>
-      </c>
-      <c r="C16" s="51"/>
-      <c r="D16" s="52" t="s">
-        <v>238</v>
-      </c>
-      <c r="E16" s="53"/>
-      <c r="F16" s="54"/>
-      <c r="G16" s="55" t="s">
-        <v>222</v>
-      </c>
-      <c r="H16" s="55" t="s">
-        <v>222</v>
-      </c>
-      <c r="I16" s="20" t="s">
-        <v>423</v>
-      </c>
-      <c r="J16" s="56"/>
-      <c r="K16" s="14" t="s">
-        <v>427</v>
-      </c>
-      <c r="L16" s="83">
+      <c r="L16" s="82">
         <v>42400230</v>
       </c>
       <c r="N16" s="12"/>
     </row>
     <row r="17" spans="1:90" x14ac:dyDescent="0.4">
-      <c r="A17" s="49" t="s">
+      <c r="A17" s="48" t="s">
         <v>145</v>
       </c>
-      <c r="B17" s="57" t="s">
+      <c r="B17" s="56" t="s">
         <v>22</v>
       </c>
-      <c r="C17" s="51"/>
-      <c r="D17" s="52" t="s">
+      <c r="C17" s="50"/>
+      <c r="D17" s="51" t="s">
         <v>239</v>
       </c>
-      <c r="E17" s="53"/>
-      <c r="F17" s="54"/>
-      <c r="G17" s="55" t="s">
+      <c r="E17" s="52"/>
+      <c r="F17" s="53"/>
+      <c r="G17" s="54" t="s">
         <v>220</v>
       </c>
-      <c r="H17" s="55" t="s">
+      <c r="H17" s="54" t="s">
         <v>220</v>
       </c>
-      <c r="I17" s="55" t="s">
+      <c r="I17" s="54" t="s">
         <v>220</v>
       </c>
-      <c r="J17" s="56"/>
+      <c r="J17" s="55"/>
       <c r="L17" s="14"/>
       <c r="N17" s="12"/>
     </row>
     <row r="18" spans="1:90" x14ac:dyDescent="0.4">
-      <c r="A18" s="49" t="s">
+      <c r="A18" s="48" t="s">
         <v>146</v>
       </c>
-      <c r="B18" s="57" t="s">
+      <c r="B18" s="56" t="s">
         <v>23</v>
       </c>
-      <c r="C18" s="51"/>
-      <c r="D18" s="52" t="s">
+      <c r="C18" s="50"/>
+      <c r="D18" s="51" t="s">
         <v>239</v>
       </c>
-      <c r="E18" s="53"/>
-      <c r="F18" s="54"/>
-      <c r="G18" s="55" t="s">
+      <c r="E18" s="52"/>
+      <c r="F18" s="53"/>
+      <c r="G18" s="54" t="s">
         <v>221</v>
       </c>
-      <c r="H18" s="55" t="s">
+      <c r="H18" s="54" t="s">
         <v>221</v>
       </c>
-      <c r="I18" s="55" t="s">
+      <c r="I18" s="54" t="s">
         <v>220</v>
       </c>
-      <c r="J18" s="56"/>
+      <c r="J18" s="55"/>
       <c r="L18" s="14"/>
       <c r="N18" s="12"/>
     </row>
     <row r="19" spans="1:90" ht="56.25" x14ac:dyDescent="0.4">
-      <c r="A19" s="38" t="s">
+      <c r="A19" s="37" t="s">
         <v>147</v>
       </c>
-      <c r="B19" s="39" t="s">
+      <c r="B19" s="38" t="s">
         <v>24</v>
       </c>
-      <c r="C19" s="40"/>
-      <c r="D19" s="41"/>
-      <c r="E19" s="42" t="s">
-        <v>428</v>
-      </c>
-      <c r="F19" s="43" t="s">
+      <c r="C19" s="39"/>
+      <c r="D19" s="40"/>
+      <c r="E19" s="41" t="s">
+        <v>427</v>
+      </c>
+      <c r="F19" s="42" t="s">
         <v>25</v>
       </c>
-      <c r="G19" s="44" t="s">
+      <c r="G19" s="43" t="s">
         <v>25</v>
       </c>
-      <c r="H19" s="44" t="s">
+      <c r="H19" s="43" t="s">
         <v>25</v>
       </c>
       <c r="I19" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="J19" s="46" t="s">
+        <v>431</v>
+      </c>
+      <c r="J19" s="45" t="s">
         <v>26</v>
       </c>
       <c r="L19" s="14"/>
       <c r="N19" s="12"/>
     </row>
     <row r="20" spans="1:90" ht="67.5" x14ac:dyDescent="0.4">
-      <c r="A20" s="38" t="s">
+      <c r="A20" s="37" t="s">
         <v>148</v>
       </c>
-      <c r="B20" s="39" t="s">
+      <c r="B20" s="38" t="s">
         <v>27</v>
       </c>
-      <c r="C20" s="40" t="s">
+      <c r="C20" s="39" t="s">
         <v>28</v>
       </c>
-      <c r="D20" s="41"/>
-      <c r="E20" s="42" t="s">
+      <c r="D20" s="40"/>
+      <c r="E20" s="41" t="s">
         <v>280</v>
       </c>
-      <c r="F20" s="43" t="s">
+      <c r="F20" s="42" t="s">
         <v>250</v>
       </c>
-      <c r="G20" s="44" t="s">
+      <c r="G20" s="43" t="s">
         <v>29</v>
       </c>
-      <c r="H20" s="44" t="s">
+      <c r="H20" s="43" t="s">
         <v>29</v>
       </c>
-      <c r="I20" s="44" t="s">
+      <c r="I20" s="43" t="s">
         <v>29</v>
       </c>
-      <c r="J20" s="46"/>
+      <c r="J20" s="45"/>
       <c r="L20" s="14"/>
       <c r="N20" s="12"/>
     </row>
     <row r="21" spans="1:90" ht="78.75" x14ac:dyDescent="0.4">
-      <c r="A21" s="38" t="s">
+      <c r="A21" s="37" t="s">
         <v>149</v>
       </c>
-      <c r="B21" s="39" t="s">
+      <c r="B21" s="38" t="s">
         <v>30</v>
       </c>
-      <c r="C21" s="40" t="s">
+      <c r="C21" s="39" t="s">
         <v>31</v>
       </c>
-      <c r="D21" s="41"/>
-      <c r="E21" s="42" t="s">
+      <c r="D21" s="40"/>
+      <c r="E21" s="41" t="s">
         <v>281</v>
       </c>
-      <c r="F21" s="43" t="s">
+      <c r="F21" s="42" t="s">
         <v>251</v>
       </c>
-      <c r="G21" s="44" t="s">
+      <c r="G21" s="43" t="s">
         <v>32</v>
       </c>
-      <c r="H21" s="44" t="s">
+      <c r="H21" s="43" t="s">
         <v>32</v>
       </c>
-      <c r="I21" s="44" t="s">
+      <c r="I21" s="43" t="s">
         <v>32</v>
       </c>
-      <c r="J21" s="46"/>
+      <c r="J21" s="45"/>
       <c r="L21" s="14"/>
       <c r="N21" s="12"/>
     </row>
     <row r="22" spans="1:90" x14ac:dyDescent="0.4">
-      <c r="A22" s="38" t="s">
+      <c r="A22" s="37" t="s">
         <v>150</v>
       </c>
-      <c r="B22" s="58" t="s">
+      <c r="B22" s="57" t="s">
         <v>223</v>
       </c>
-      <c r="C22" s="40"/>
-      <c r="D22" s="41"/>
-      <c r="E22" s="42" t="s">
+      <c r="C22" s="39"/>
+      <c r="D22" s="40"/>
+      <c r="E22" s="41" t="s">
         <v>282</v>
       </c>
-      <c r="F22" s="36"/>
-      <c r="G22" s="37"/>
-      <c r="H22" s="37"/>
-      <c r="I22" s="37"/>
-      <c r="J22" s="46"/>
+      <c r="F22" s="35"/>
+      <c r="G22" s="36"/>
+      <c r="H22" s="36"/>
+      <c r="I22" s="36"/>
+      <c r="J22" s="45"/>
       <c r="L22" s="14"/>
       <c r="N22" s="12"/>
     </row>
     <row r="23" spans="1:90" ht="67.5" x14ac:dyDescent="0.4">
-      <c r="A23" s="59" t="s">
+      <c r="A23" s="58" t="s">
         <v>151</v>
       </c>
-      <c r="B23" s="60" t="s">
+      <c r="B23" s="59" t="s">
         <v>33</v>
       </c>
-      <c r="C23" s="61"/>
-      <c r="D23" s="62" t="s">
+      <c r="C23" s="60"/>
+      <c r="D23" s="61" t="s">
         <v>241</v>
       </c>
-      <c r="E23" s="42" t="s">
+      <c r="E23" s="41" t="s">
         <v>283</v>
       </c>
-      <c r="F23" s="63"/>
-      <c r="G23" s="64" t="s">
+      <c r="F23" s="62"/>
+      <c r="G23" s="63" t="s">
         <v>220</v>
       </c>
-      <c r="H23" s="64" t="s">
+      <c r="H23" s="63" t="s">
         <v>220</v>
       </c>
-      <c r="I23" s="64" t="s">
+      <c r="I23" s="63" t="s">
         <v>220</v>
       </c>
-      <c r="J23" s="65"/>
+      <c r="J23" s="64"/>
       <c r="L23" s="14"/>
       <c r="N23" s="12"/>
     </row>
     <row r="24" spans="1:90" ht="56.25" x14ac:dyDescent="0.4">
-      <c r="A24" s="38" t="s">
+      <c r="A24" s="37" t="s">
         <v>152</v>
       </c>
-      <c r="B24" s="39" t="s">
+      <c r="B24" s="38" t="s">
         <v>34</v>
       </c>
-      <c r="C24" s="40" t="s">
+      <c r="C24" s="39" t="s">
         <v>35</v>
       </c>
-      <c r="D24" s="41"/>
-      <c r="E24" s="42" t="s">
+      <c r="D24" s="40"/>
+      <c r="E24" s="41" t="s">
         <v>284</v>
       </c>
-      <c r="F24" s="43" t="s">
+      <c r="F24" s="42" t="s">
         <v>36</v>
       </c>
-      <c r="G24" s="44" t="s">
+      <c r="G24" s="43" t="s">
         <v>36</v>
       </c>
-      <c r="H24" s="44" t="s">
+      <c r="H24" s="43" t="s">
         <v>36</v>
       </c>
-      <c r="I24" s="44" t="s">
+      <c r="I24" s="43" t="s">
         <v>36</v>
       </c>
-      <c r="J24" s="46" t="s">
+      <c r="J24" s="45" t="s">
         <v>37</v>
       </c>
       <c r="L24" s="14"/>
       <c r="N24" s="12"/>
     </row>
     <row r="25" spans="1:90" ht="101.25" x14ac:dyDescent="0.4">
-      <c r="A25" s="38" t="s">
+      <c r="A25" s="37" t="s">
         <v>153</v>
       </c>
-      <c r="B25" s="39" t="s">
+      <c r="B25" s="38" t="s">
         <v>38</v>
       </c>
-      <c r="C25" s="40" t="s">
+      <c r="C25" s="39" t="s">
         <v>39</v>
       </c>
-      <c r="D25" s="41"/>
-      <c r="E25" s="42" t="s">
+      <c r="D25" s="40"/>
+      <c r="E25" s="41" t="s">
         <v>285</v>
       </c>
-      <c r="F25" s="43" t="s">
+      <c r="F25" s="42" t="s">
         <v>252</v>
       </c>
-      <c r="G25" s="44" t="s">
+      <c r="G25" s="43" t="s">
         <v>40</v>
       </c>
-      <c r="H25" s="44" t="s">
+      <c r="H25" s="43" t="s">
         <v>40</v>
       </c>
-      <c r="I25" s="44" t="s">
+      <c r="I25" s="43" t="s">
         <v>40</v>
       </c>
-      <c r="J25" s="46"/>
+      <c r="J25" s="45"/>
       <c r="L25" s="14"/>
       <c r="N25" s="12"/>
     </row>
     <row r="26" spans="1:90" s="10" customFormat="1" ht="67.5" x14ac:dyDescent="0.4">
-      <c r="A26" s="38" t="s">
+      <c r="A26" s="37" t="s">
         <v>154</v>
       </c>
-      <c r="B26" s="39" t="s">
+      <c r="B26" s="38" t="s">
         <v>41</v>
       </c>
-      <c r="C26" s="40"/>
-      <c r="D26" s="41" t="s">
+      <c r="C26" s="39"/>
+      <c r="D26" s="40" t="s">
         <v>225</v>
       </c>
-      <c r="E26" s="42" t="s">
+      <c r="E26" s="41" t="s">
         <v>286</v>
       </c>
-      <c r="F26" s="36"/>
-      <c r="G26" s="44"/>
-      <c r="H26" s="44" t="s">
+      <c r="F26" s="35"/>
+      <c r="G26" s="43"/>
+      <c r="H26" s="43" t="s">
         <v>398</v>
       </c>
-      <c r="I26" s="44" t="s">
+      <c r="I26" s="43" t="s">
         <v>70</v>
       </c>
-      <c r="J26" s="46"/>
+      <c r="J26" s="45"/>
       <c r="K26" s="14"/>
       <c r="L26" s="14"/>
       <c r="M26" s="12"/>
@@ -4279,30 +4291,30 @@
       <c r="V26" s="8"/>
     </row>
     <row r="27" spans="1:90" ht="56.25" x14ac:dyDescent="0.4">
-      <c r="A27" s="38" t="s">
+      <c r="A27" s="37" t="s">
         <v>155</v>
       </c>
-      <c r="B27" s="39" t="s">
+      <c r="B27" s="38" t="s">
         <v>42</v>
       </c>
-      <c r="C27" s="40"/>
-      <c r="D27" s="41"/>
-      <c r="E27" s="42" t="s">
+      <c r="C27" s="39"/>
+      <c r="D27" s="40"/>
+      <c r="E27" s="41" t="s">
         <v>287</v>
       </c>
-      <c r="F27" s="43" t="s">
+      <c r="F27" s="42" t="s">
         <v>43</v>
       </c>
-      <c r="G27" s="44" t="s">
+      <c r="G27" s="43" t="s">
         <v>43</v>
       </c>
-      <c r="H27" s="44" t="s">
+      <c r="H27" s="43" t="s">
         <v>43</v>
       </c>
-      <c r="I27" s="44" t="s">
+      <c r="I27" s="43" t="s">
         <v>43</v>
       </c>
-      <c r="J27" s="46"/>
+      <c r="J27" s="45"/>
       <c r="K27" s="14" t="s">
         <v>371</v>
       </c>
@@ -4312,30 +4324,30 @@
       <c r="N27" s="12"/>
     </row>
     <row r="28" spans="1:90" ht="90" x14ac:dyDescent="0.4">
-      <c r="A28" s="38" t="s">
+      <c r="A28" s="37" t="s">
         <v>156</v>
       </c>
-      <c r="B28" s="39" t="s">
+      <c r="B28" s="38" t="s">
         <v>44</v>
       </c>
-      <c r="C28" s="40"/>
-      <c r="D28" s="41"/>
-      <c r="E28" s="42" t="s">
+      <c r="C28" s="39"/>
+      <c r="D28" s="40"/>
+      <c r="E28" s="41" t="s">
         <v>288</v>
       </c>
-      <c r="F28" s="43" t="s">
+      <c r="F28" s="42" t="s">
         <v>45</v>
       </c>
-      <c r="G28" s="44" t="s">
+      <c r="G28" s="43" t="s">
         <v>45</v>
       </c>
-      <c r="H28" s="44" t="s">
+      <c r="H28" s="43" t="s">
         <v>392</v>
       </c>
-      <c r="I28" s="44" t="s">
+      <c r="I28" s="43" t="s">
         <v>392</v>
       </c>
-      <c r="J28" s="46"/>
+      <c r="J28" s="45"/>
       <c r="K28" s="14" t="s">
         <v>373</v>
       </c>
@@ -4345,28 +4357,28 @@
       <c r="N28" s="12"/>
     </row>
     <row r="29" spans="1:90" s="10" customFormat="1" ht="101.25" x14ac:dyDescent="0.4">
-      <c r="A29" s="38" t="s">
+      <c r="A29" s="37" t="s">
         <v>157</v>
       </c>
-      <c r="B29" s="39" t="s">
+      <c r="B29" s="38" t="s">
         <v>46</v>
       </c>
-      <c r="C29" s="40"/>
-      <c r="D29" s="41" t="s">
+      <c r="C29" s="39"/>
+      <c r="D29" s="40" t="s">
         <v>240</v>
       </c>
-      <c r="E29" s="42"/>
-      <c r="F29" s="36"/>
-      <c r="G29" s="64" t="s">
+      <c r="E29" s="41"/>
+      <c r="F29" s="35"/>
+      <c r="G29" s="63" t="s">
         <v>358</v>
       </c>
-      <c r="H29" s="64" t="s">
+      <c r="H29" s="63" t="s">
         <v>393</v>
       </c>
-      <c r="I29" s="64" t="s">
+      <c r="I29" s="63" t="s">
         <v>393</v>
       </c>
-      <c r="J29" s="46"/>
+      <c r="J29" s="45"/>
       <c r="K29" s="14" t="s">
         <v>374</v>
       </c>
@@ -4461,18 +4473,18 @@
       </c>
       <c r="C30" s="19"/>
       <c r="D30" s="3"/>
-      <c r="E30" s="42" t="s">
+      <c r="E30" s="41" t="s">
         <v>289</v>
       </c>
-      <c r="F30" s="36"/>
-      <c r="G30" s="44" t="s">
+      <c r="F30" s="35"/>
+      <c r="G30" s="43" t="s">
         <v>348</v>
       </c>
-      <c r="H30" s="44" t="s">
+      <c r="H30" s="43" t="s">
         <v>348</v>
       </c>
-      <c r="I30" s="44" t="s">
-        <v>348</v>
+      <c r="I30" s="43" t="s">
+        <v>430</v>
       </c>
       <c r="J30" s="22"/>
       <c r="K30" s="14"/>
@@ -4557,30 +4569,30 @@
       <c r="CL30" s="8"/>
     </row>
     <row r="31" spans="1:90" ht="78.75" x14ac:dyDescent="0.4">
-      <c r="A31" s="38" t="s">
+      <c r="A31" s="37" t="s">
         <v>159</v>
       </c>
-      <c r="B31" s="39" t="s">
+      <c r="B31" s="38" t="s">
         <v>48</v>
       </c>
-      <c r="C31" s="40"/>
-      <c r="D31" s="41"/>
-      <c r="E31" s="42" t="s">
+      <c r="C31" s="39"/>
+      <c r="D31" s="40"/>
+      <c r="E31" s="41" t="s">
         <v>290</v>
       </c>
-      <c r="F31" s="43" t="s">
+      <c r="F31" s="42" t="s">
         <v>49</v>
       </c>
-      <c r="G31" s="44" t="s">
+      <c r="G31" s="43" t="s">
         <v>49</v>
       </c>
-      <c r="H31" s="44" t="s">
+      <c r="H31" s="43" t="s">
         <v>49</v>
       </c>
-      <c r="I31" s="44" t="s">
+      <c r="I31" s="43" t="s">
         <v>49</v>
       </c>
-      <c r="J31" s="46"/>
+      <c r="J31" s="45"/>
       <c r="K31" s="14" t="s">
         <v>375</v>
       </c>
@@ -4666,30 +4678,30 @@
       <c r="CL31" s="8"/>
     </row>
     <row r="32" spans="1:90" ht="112.5" x14ac:dyDescent="0.4">
-      <c r="A32" s="38" t="s">
+      <c r="A32" s="37" t="s">
         <v>160</v>
       </c>
-      <c r="B32" s="39" t="s">
+      <c r="B32" s="38" t="s">
         <v>50</v>
       </c>
-      <c r="C32" s="40"/>
-      <c r="D32" s="41"/>
-      <c r="E32" s="42" t="s">
+      <c r="C32" s="39"/>
+      <c r="D32" s="40"/>
+      <c r="E32" s="41" t="s">
         <v>291</v>
       </c>
-      <c r="F32" s="43" t="s">
+      <c r="F32" s="42" t="s">
         <v>51</v>
       </c>
-      <c r="G32" s="44" t="s">
+      <c r="G32" s="43" t="s">
         <v>51</v>
       </c>
-      <c r="H32" s="44" t="s">
+      <c r="H32" s="43" t="s">
         <v>51</v>
       </c>
-      <c r="I32" s="44" t="s">
+      <c r="I32" s="43" t="s">
         <v>51</v>
       </c>
-      <c r="J32" s="46"/>
+      <c r="J32" s="45"/>
       <c r="K32" s="14" t="s">
         <v>377</v>
       </c>
@@ -4775,30 +4787,30 @@
       <c r="CL32" s="8"/>
     </row>
     <row r="33" spans="1:90" ht="101.25" x14ac:dyDescent="0.4">
-      <c r="A33" s="38" t="s">
+      <c r="A33" s="37" t="s">
         <v>161</v>
       </c>
-      <c r="B33" s="39" t="s">
+      <c r="B33" s="38" t="s">
         <v>52</v>
       </c>
-      <c r="C33" s="40"/>
-      <c r="D33" s="41"/>
-      <c r="E33" s="42" t="s">
+      <c r="C33" s="39"/>
+      <c r="D33" s="40"/>
+      <c r="E33" s="41" t="s">
         <v>292</v>
       </c>
-      <c r="F33" s="43" t="s">
+      <c r="F33" s="42" t="s">
         <v>53</v>
       </c>
-      <c r="G33" s="44" t="s">
+      <c r="G33" s="43" t="s">
         <v>53</v>
       </c>
-      <c r="H33" s="44" t="s">
+      <c r="H33" s="43" t="s">
         <v>53</v>
       </c>
       <c r="I33" s="1" t="s">
-        <v>409</v>
-      </c>
-      <c r="J33" s="46"/>
+        <v>408</v>
+      </c>
+      <c r="J33" s="45"/>
       <c r="L33" s="14"/>
       <c r="N33" s="12"/>
       <c r="O33" s="8"/>
@@ -4879,32 +4891,32 @@
       <c r="CL33" s="8"/>
     </row>
     <row r="34" spans="1:90" ht="78.75" x14ac:dyDescent="0.4">
-      <c r="A34" s="38" t="s">
+      <c r="A34" s="37" t="s">
         <v>162</v>
       </c>
-      <c r="B34" s="39" t="s">
+      <c r="B34" s="38" t="s">
         <v>231</v>
       </c>
-      <c r="C34" s="40"/>
-      <c r="D34" s="41" t="s">
+      <c r="C34" s="39"/>
+      <c r="D34" s="40" t="s">
         <v>229</v>
       </c>
-      <c r="E34" s="42" t="s">
+      <c r="E34" s="41" t="s">
         <v>293</v>
       </c>
-      <c r="F34" s="43" t="s">
+      <c r="F34" s="42" t="s">
         <v>54</v>
       </c>
-      <c r="G34" s="44" t="s">
+      <c r="G34" s="43" t="s">
         <v>54</v>
       </c>
-      <c r="H34" s="44" t="s">
+      <c r="H34" s="43" t="s">
         <v>54</v>
       </c>
       <c r="I34" s="1" t="s">
-        <v>409</v>
-      </c>
-      <c r="J34" s="46"/>
+        <v>408</v>
+      </c>
+      <c r="J34" s="45"/>
       <c r="L34" s="14"/>
       <c r="N34" s="12"/>
       <c r="O34" s="8"/>
@@ -4985,30 +4997,30 @@
       <c r="CL34" s="8"/>
     </row>
     <row r="35" spans="1:90" ht="67.5" x14ac:dyDescent="0.4">
-      <c r="A35" s="38" t="s">
+      <c r="A35" s="37" t="s">
         <v>163</v>
       </c>
-      <c r="B35" s="39" t="s">
+      <c r="B35" s="38" t="s">
         <v>55</v>
       </c>
-      <c r="C35" s="40"/>
-      <c r="D35" s="41"/>
-      <c r="E35" s="42" t="s">
+      <c r="C35" s="39"/>
+      <c r="D35" s="40"/>
+      <c r="E35" s="41" t="s">
         <v>294</v>
       </c>
-      <c r="F35" s="43" t="s">
+      <c r="F35" s="42" t="s">
         <v>56</v>
       </c>
-      <c r="G35" s="44" t="s">
+      <c r="G35" s="43" t="s">
         <v>56</v>
       </c>
-      <c r="H35" s="44" t="s">
+      <c r="H35" s="43" t="s">
         <v>56</v>
       </c>
       <c r="I35" s="1" t="s">
-        <v>409</v>
-      </c>
-      <c r="J35" s="46"/>
+        <v>408</v>
+      </c>
+      <c r="J35" s="45"/>
       <c r="L35" s="14"/>
       <c r="N35" s="12"/>
       <c r="O35" s="8"/>
@@ -5089,30 +5101,30 @@
       <c r="CL35" s="8"/>
     </row>
     <row r="36" spans="1:90" ht="22.5" x14ac:dyDescent="0.4">
-      <c r="A36" s="38" t="s">
+      <c r="A36" s="37" t="s">
         <v>164</v>
       </c>
-      <c r="B36" s="39" t="s">
+      <c r="B36" s="38" t="s">
         <v>57</v>
       </c>
-      <c r="C36" s="40"/>
-      <c r="D36" s="41" t="s">
+      <c r="C36" s="39"/>
+      <c r="D36" s="40" t="s">
         <v>230</v>
       </c>
-      <c r="E36" s="42" t="s">
+      <c r="E36" s="41" t="s">
         <v>295</v>
       </c>
-      <c r="F36" s="43"/>
-      <c r="G36" s="44" t="s">
+      <c r="F36" s="42"/>
+      <c r="G36" s="43" t="s">
         <v>349</v>
       </c>
-      <c r="H36" s="44" t="s">
+      <c r="H36" s="43" t="s">
         <v>394</v>
       </c>
-      <c r="I36" s="44" t="s">
+      <c r="I36" s="43" t="s">
         <v>45</v>
       </c>
-      <c r="J36" s="46"/>
+      <c r="J36" s="45"/>
       <c r="L36" s="14"/>
       <c r="N36" s="12"/>
       <c r="O36" s="8"/>
@@ -5193,32 +5205,32 @@
       <c r="CL36" s="8"/>
     </row>
     <row r="37" spans="1:90" ht="22.5" x14ac:dyDescent="0.4">
-      <c r="A37" s="38" t="s">
+      <c r="A37" s="37" t="s">
         <v>165</v>
       </c>
-      <c r="B37" s="39" t="s">
+      <c r="B37" s="38" t="s">
         <v>58</v>
       </c>
-      <c r="C37" s="40" t="s">
+      <c r="C37" s="39" t="s">
         <v>59</v>
       </c>
-      <c r="D37" s="41"/>
-      <c r="E37" s="42" t="s">
+      <c r="D37" s="40"/>
+      <c r="E37" s="41" t="s">
         <v>296</v>
       </c>
-      <c r="F37" s="43" t="s">
+      <c r="F37" s="42" t="s">
         <v>253</v>
       </c>
-      <c r="G37" s="44" t="s">
+      <c r="G37" s="43" t="s">
         <v>60</v>
       </c>
-      <c r="H37" s="44" t="s">
+      <c r="H37" s="43" t="s">
         <v>60</v>
       </c>
-      <c r="I37" s="44" t="s">
+      <c r="I37" s="43" t="s">
         <v>60</v>
       </c>
-      <c r="J37" s="46"/>
+      <c r="J37" s="45"/>
       <c r="L37" s="14"/>
       <c r="N37" s="12"/>
       <c r="O37" s="8"/>
@@ -5299,60 +5311,60 @@
       <c r="CL37" s="8"/>
     </row>
     <row r="38" spans="1:90" ht="56.25" x14ac:dyDescent="0.4">
-      <c r="A38" s="38" t="s">
+      <c r="A38" s="37" t="s">
         <v>166</v>
       </c>
-      <c r="B38" s="39" t="s">
+      <c r="B38" s="38" t="s">
         <v>232</v>
       </c>
-      <c r="C38" s="40" t="s">
+      <c r="C38" s="39" t="s">
         <v>61</v>
       </c>
-      <c r="D38" s="41"/>
-      <c r="E38" s="42" t="s">
+      <c r="D38" s="40"/>
+      <c r="E38" s="41" t="s">
         <v>297</v>
       </c>
-      <c r="F38" s="43" t="s">
+      <c r="F38" s="42" t="s">
         <v>62</v>
       </c>
-      <c r="G38" s="44" t="s">
+      <c r="G38" s="43" t="s">
         <v>355</v>
       </c>
-      <c r="H38" s="44" t="s">
+      <c r="H38" s="43" t="s">
         <v>355</v>
       </c>
-      <c r="I38" s="44" t="s">
+      <c r="I38" s="43" t="s">
         <v>62</v>
       </c>
-      <c r="J38" s="46"/>
+      <c r="J38" s="45"/>
       <c r="L38" s="14"/>
       <c r="N38" s="12"/>
     </row>
     <row r="39" spans="1:90" ht="56.25" x14ac:dyDescent="0.4">
-      <c r="A39" s="38" t="s">
+      <c r="A39" s="37" t="s">
         <v>167</v>
       </c>
-      <c r="B39" s="39" t="s">
+      <c r="B39" s="38" t="s">
         <v>63</v>
       </c>
-      <c r="C39" s="40"/>
-      <c r="D39" s="41" t="s">
+      <c r="C39" s="39"/>
+      <c r="D39" s="40" t="s">
         <v>225</v>
       </c>
-      <c r="E39" s="42" t="s">
+      <c r="E39" s="41" t="s">
         <v>298</v>
       </c>
-      <c r="F39" s="36"/>
-      <c r="G39" s="44" t="s">
+      <c r="F39" s="35"/>
+      <c r="G39" s="43" t="s">
         <v>356</v>
       </c>
-      <c r="H39" s="44" t="s">
+      <c r="H39" s="43" t="s">
         <v>356</v>
       </c>
-      <c r="I39" s="44" t="s">
+      <c r="I39" s="43" t="s">
         <v>257</v>
       </c>
-      <c r="J39" s="46"/>
+      <c r="J39" s="45"/>
       <c r="K39" s="15" t="s">
         <v>381</v>
       </c>
@@ -5362,92 +5374,92 @@
       <c r="N39" s="12"/>
     </row>
     <row r="40" spans="1:90" ht="33.75" x14ac:dyDescent="0.4">
-      <c r="A40" s="38" t="s">
+      <c r="A40" s="37" t="s">
         <v>168</v>
       </c>
-      <c r="B40" s="39" t="s">
+      <c r="B40" s="38" t="s">
         <v>64</v>
       </c>
-      <c r="C40" s="40" t="s">
+      <c r="C40" s="39" t="s">
         <v>65</v>
       </c>
-      <c r="D40" s="41"/>
-      <c r="E40" s="42" t="s">
+      <c r="D40" s="40"/>
+      <c r="E40" s="41" t="s">
         <v>299</v>
       </c>
-      <c r="F40" s="43" t="s">
+      <c r="F40" s="42" t="s">
         <v>66</v>
       </c>
-      <c r="G40" s="44" t="s">
+      <c r="G40" s="43" t="s">
         <v>66</v>
       </c>
-      <c r="H40" s="44" t="s">
+      <c r="H40" s="43" t="s">
         <v>66</v>
       </c>
-      <c r="I40" s="44" t="s">
+      <c r="I40" s="43" t="s">
         <v>66</v>
       </c>
-      <c r="J40" s="46"/>
+      <c r="J40" s="45"/>
       <c r="L40" s="14"/>
       <c r="N40" s="12"/>
     </row>
     <row r="41" spans="1:90" ht="33.75" x14ac:dyDescent="0.4">
-      <c r="A41" s="38" t="s">
+      <c r="A41" s="37" t="s">
         <v>169</v>
       </c>
-      <c r="B41" s="39" t="s">
+      <c r="B41" s="38" t="s">
         <v>233</v>
       </c>
-      <c r="C41" s="40" t="s">
+      <c r="C41" s="39" t="s">
         <v>67</v>
       </c>
-      <c r="D41" s="41"/>
-      <c r="E41" s="42" t="s">
+      <c r="D41" s="40"/>
+      <c r="E41" s="41" t="s">
         <v>300</v>
       </c>
-      <c r="F41" s="43" t="s">
+      <c r="F41" s="42" t="s">
         <v>254</v>
       </c>
-      <c r="G41" s="44" t="s">
+      <c r="G41" s="43" t="s">
         <v>68</v>
       </c>
-      <c r="H41" s="44" t="s">
+      <c r="H41" s="43" t="s">
         <v>68</v>
       </c>
-      <c r="I41" s="44" t="s">
+      <c r="I41" s="43" t="s">
         <v>68</v>
       </c>
-      <c r="J41" s="46"/>
+      <c r="J41" s="45"/>
       <c r="L41" s="14"/>
       <c r="N41" s="12"/>
     </row>
     <row r="42" spans="1:90" ht="67.5" x14ac:dyDescent="0.4">
-      <c r="A42" s="38" t="s">
+      <c r="A42" s="37" t="s">
         <v>170</v>
       </c>
-      <c r="B42" s="39" t="s">
+      <c r="B42" s="38" t="s">
         <v>69</v>
       </c>
-      <c r="C42" s="40" t="s">
+      <c r="C42" s="39" t="s">
         <v>361</v>
       </c>
-      <c r="D42" s="41"/>
-      <c r="E42" s="42" t="s">
+      <c r="D42" s="40"/>
+      <c r="E42" s="41" t="s">
         <v>301</v>
       </c>
-      <c r="F42" s="43" t="s">
+      <c r="F42" s="42" t="s">
         <v>70</v>
       </c>
-      <c r="G42" s="44" t="s">
+      <c r="G42" s="43" t="s">
         <v>91</v>
       </c>
-      <c r="H42" s="44" t="s">
+      <c r="H42" s="43" t="s">
         <v>395</v>
       </c>
-      <c r="I42" s="44" t="s">
+      <c r="I42" s="43" t="s">
         <v>403</v>
       </c>
-      <c r="J42" s="46"/>
+      <c r="J42" s="45"/>
       <c r="L42" s="14"/>
       <c r="N42" s="12"/>
     </row>
@@ -5458,21 +5470,21 @@
       <c r="B43" s="11" t="s">
         <v>71</v>
       </c>
-      <c r="C43" s="40" t="s">
+      <c r="C43" s="39" t="s">
         <v>362</v>
       </c>
       <c r="D43" s="3"/>
-      <c r="E43" s="42" t="s">
+      <c r="E43" s="41" t="s">
         <v>302</v>
       </c>
-      <c r="F43" s="36"/>
-      <c r="G43" s="44" t="s">
+      <c r="F43" s="35"/>
+      <c r="G43" s="43" t="s">
         <v>94</v>
       </c>
-      <c r="H43" s="44" t="s">
+      <c r="H43" s="43" t="s">
         <v>396</v>
       </c>
-      <c r="I43" s="44" t="s">
+      <c r="I43" s="43" t="s">
         <v>403</v>
       </c>
       <c r="J43" s="22"/>
@@ -5482,30 +5494,30 @@
       <c r="N43" s="12"/>
     </row>
     <row r="44" spans="1:90" ht="56.25" x14ac:dyDescent="0.4">
-      <c r="A44" s="38" t="s">
+      <c r="A44" s="37" t="s">
         <v>172</v>
       </c>
-      <c r="B44" s="39" t="s">
+      <c r="B44" s="38" t="s">
         <v>72</v>
       </c>
-      <c r="C44" s="40"/>
-      <c r="D44" s="41"/>
-      <c r="E44" s="42" t="s">
+      <c r="C44" s="39"/>
+      <c r="D44" s="40"/>
+      <c r="E44" s="41" t="s">
         <v>303</v>
       </c>
-      <c r="F44" s="43" t="s">
+      <c r="F44" s="42" t="s">
         <v>73</v>
       </c>
-      <c r="G44" s="44" t="s">
+      <c r="G44" s="43" t="s">
         <v>73</v>
       </c>
-      <c r="H44" s="44" t="s">
+      <c r="H44" s="43" t="s">
         <v>397</v>
       </c>
-      <c r="I44" s="44" t="s">
+      <c r="I44" s="43" t="s">
         <v>73</v>
       </c>
-      <c r="J44" s="46"/>
+      <c r="J44" s="45"/>
       <c r="K44" s="14" t="s">
         <v>369</v>
       </c>
@@ -5515,30 +5527,30 @@
       <c r="N44" s="12"/>
     </row>
     <row r="45" spans="1:90" ht="78.75" x14ac:dyDescent="0.4">
-      <c r="A45" s="38" t="s">
+      <c r="A45" s="37" t="s">
         <v>173</v>
       </c>
-      <c r="B45" s="39" t="s">
+      <c r="B45" s="38" t="s">
         <v>74</v>
       </c>
-      <c r="C45" s="40"/>
-      <c r="D45" s="41"/>
-      <c r="E45" s="42" t="s">
+      <c r="C45" s="39"/>
+      <c r="D45" s="40"/>
+      <c r="E45" s="41" t="s">
         <v>304</v>
       </c>
-      <c r="F45" s="43" t="s">
+      <c r="F45" s="42" t="s">
         <v>75</v>
       </c>
-      <c r="G45" s="44" t="s">
+      <c r="G45" s="43" t="s">
         <v>75</v>
       </c>
-      <c r="H45" s="44" t="s">
+      <c r="H45" s="43" t="s">
         <v>75</v>
       </c>
-      <c r="I45" s="44" t="s">
+      <c r="I45" s="43" t="s">
         <v>75</v>
       </c>
-      <c r="J45" s="46"/>
+      <c r="J45" s="45"/>
       <c r="K45" s="14" t="s">
         <v>370</v>
       </c>
@@ -5548,60 +5560,60 @@
       <c r="N45" s="12"/>
     </row>
     <row r="46" spans="1:90" s="10" customFormat="1" ht="67.5" x14ac:dyDescent="0.4">
-      <c r="A46" s="38" t="s">
+      <c r="A46" s="37" t="s">
         <v>174</v>
       </c>
-      <c r="B46" s="39" t="s">
+      <c r="B46" s="38" t="s">
         <v>76</v>
       </c>
-      <c r="C46" s="40"/>
-      <c r="D46" s="41" t="s">
+      <c r="C46" s="39"/>
+      <c r="D46" s="40" t="s">
         <v>228</v>
       </c>
-      <c r="E46" s="42" t="s">
+      <c r="E46" s="41" t="s">
         <v>305</v>
       </c>
-      <c r="F46" s="36"/>
-      <c r="G46" s="40" t="s">
+      <c r="F46" s="35"/>
+      <c r="G46" s="39" t="s">
         <v>350</v>
       </c>
-      <c r="H46" s="40" t="s">
+      <c r="H46" s="39" t="s">
         <v>350</v>
       </c>
-      <c r="I46" s="40" t="s">
-        <v>405</v>
-      </c>
-      <c r="J46" s="46"/>
+      <c r="I46" s="39" t="s">
+        <v>404</v>
+      </c>
+      <c r="J46" s="45"/>
       <c r="K46" s="14"/>
       <c r="L46" s="14"/>
       <c r="M46" s="12"/>
       <c r="N46" s="12"/>
     </row>
     <row r="47" spans="1:90" ht="67.5" x14ac:dyDescent="0.4">
-      <c r="A47" s="38" t="s">
+      <c r="A47" s="37" t="s">
         <v>175</v>
       </c>
-      <c r="B47" s="39" t="s">
+      <c r="B47" s="38" t="s">
         <v>77</v>
       </c>
-      <c r="C47" s="40"/>
-      <c r="D47" s="41"/>
-      <c r="E47" s="42" t="s">
+      <c r="C47" s="39"/>
+      <c r="D47" s="40"/>
+      <c r="E47" s="41" t="s">
         <v>306</v>
       </c>
-      <c r="F47" s="43" t="s">
+      <c r="F47" s="42" t="s">
         <v>255</v>
       </c>
-      <c r="G47" s="44" t="s">
+      <c r="G47" s="43" t="s">
         <v>78</v>
       </c>
-      <c r="H47" s="44" t="s">
+      <c r="H47" s="43" t="s">
         <v>78</v>
       </c>
-      <c r="I47" s="44" t="s">
+      <c r="I47" s="43" t="s">
         <v>78</v>
       </c>
-      <c r="J47" s="46"/>
+      <c r="J47" s="45"/>
       <c r="K47" s="14" t="s">
         <v>378</v>
       </c>
@@ -5611,186 +5623,186 @@
       <c r="N47" s="12"/>
     </row>
     <row r="48" spans="1:90" s="10" customFormat="1" ht="67.5" x14ac:dyDescent="0.4">
-      <c r="A48" s="38" t="s">
+      <c r="A48" s="37" t="s">
         <v>176</v>
       </c>
-      <c r="B48" s="39" t="s">
+      <c r="B48" s="38" t="s">
         <v>234</v>
       </c>
-      <c r="C48" s="40"/>
-      <c r="D48" s="41" t="s">
+      <c r="C48" s="39"/>
+      <c r="D48" s="40" t="s">
         <v>225</v>
       </c>
-      <c r="E48" s="42" t="s">
+      <c r="E48" s="41" t="s">
         <v>307</v>
       </c>
-      <c r="F48" s="36"/>
-      <c r="G48" s="40" t="s">
+      <c r="F48" s="35"/>
+      <c r="G48" s="39" t="s">
         <v>351</v>
       </c>
-      <c r="H48" s="40" t="s">
+      <c r="H48" s="39" t="s">
         <v>351</v>
       </c>
-      <c r="I48" s="40" t="s">
+      <c r="I48" s="39" t="s">
         <v>268</v>
       </c>
-      <c r="J48" s="46"/>
+      <c r="J48" s="45"/>
       <c r="K48" s="14"/>
       <c r="L48" s="14"/>
       <c r="M48" s="12"/>
       <c r="N48" s="12"/>
     </row>
     <row r="49" spans="1:14" x14ac:dyDescent="0.4">
-      <c r="A49" s="38" t="s">
+      <c r="A49" s="37" t="s">
         <v>177</v>
       </c>
-      <c r="B49" s="58" t="s">
+      <c r="B49" s="57" t="s">
         <v>79</v>
       </c>
-      <c r="C49" s="40"/>
-      <c r="D49" s="66"/>
-      <c r="E49" s="42" t="s">
+      <c r="C49" s="39"/>
+      <c r="D49" s="65"/>
+      <c r="E49" s="41" t="s">
         <v>308</v>
       </c>
-      <c r="F49" s="67"/>
-      <c r="G49" s="44"/>
-      <c r="H49" s="44"/>
-      <c r="I49" s="44"/>
-      <c r="J49" s="46" t="s">
+      <c r="F49" s="66"/>
+      <c r="G49" s="43"/>
+      <c r="H49" s="43"/>
+      <c r="I49" s="43"/>
+      <c r="J49" s="45" t="s">
         <v>80</v>
       </c>
       <c r="L49" s="14"/>
       <c r="N49" s="12"/>
     </row>
     <row r="50" spans="1:14" x14ac:dyDescent="0.4">
-      <c r="A50" s="38" t="s">
+      <c r="A50" s="37" t="s">
         <v>178</v>
       </c>
-      <c r="B50" s="58" t="s">
+      <c r="B50" s="57" t="s">
         <v>235</v>
       </c>
-      <c r="C50" s="40"/>
-      <c r="D50" s="68"/>
-      <c r="E50" s="42" t="s">
+      <c r="C50" s="39"/>
+      <c r="D50" s="67"/>
+      <c r="E50" s="41" t="s">
         <v>309</v>
       </c>
-      <c r="F50" s="43"/>
-      <c r="G50" s="44"/>
-      <c r="H50" s="44"/>
-      <c r="I50" s="44"/>
-      <c r="J50" s="46" t="s">
+      <c r="F50" s="42"/>
+      <c r="G50" s="43"/>
+      <c r="H50" s="43"/>
+      <c r="I50" s="43"/>
+      <c r="J50" s="45" t="s">
         <v>80</v>
       </c>
       <c r="L50" s="14"/>
       <c r="N50" s="12"/>
     </row>
     <row r="51" spans="1:14" x14ac:dyDescent="0.4">
-      <c r="A51" s="38" t="s">
+      <c r="A51" s="37" t="s">
         <v>179</v>
       </c>
-      <c r="B51" s="58" t="s">
+      <c r="B51" s="57" t="s">
         <v>81</v>
       </c>
-      <c r="C51" s="40"/>
-      <c r="D51" s="69"/>
-      <c r="E51" s="42" t="s">
+      <c r="C51" s="39"/>
+      <c r="D51" s="68"/>
+      <c r="E51" s="41" t="s">
         <v>310</v>
       </c>
-      <c r="F51" s="67"/>
-      <c r="G51" s="44"/>
-      <c r="H51" s="44"/>
-      <c r="I51" s="44"/>
-      <c r="J51" s="46" t="s">
+      <c r="F51" s="66"/>
+      <c r="G51" s="43"/>
+      <c r="H51" s="43"/>
+      <c r="I51" s="43"/>
+      <c r="J51" s="45" t="s">
         <v>80</v>
       </c>
       <c r="L51" s="14"/>
       <c r="N51" s="12"/>
     </row>
     <row r="52" spans="1:14" ht="22.5" x14ac:dyDescent="0.4">
-      <c r="A52" s="38" t="s">
+      <c r="A52" s="37" t="s">
         <v>180</v>
       </c>
-      <c r="B52" s="39" t="s">
+      <c r="B52" s="38" t="s">
         <v>82</v>
       </c>
-      <c r="C52" s="42" t="s">
+      <c r="C52" s="41" t="s">
         <v>311</v>
       </c>
-      <c r="D52" s="41"/>
-      <c r="E52" s="42" t="s">
+      <c r="D52" s="40"/>
+      <c r="E52" s="41" t="s">
         <v>311</v>
       </c>
-      <c r="F52" s="43" t="s">
+      <c r="F52" s="42" t="s">
         <v>256</v>
       </c>
-      <c r="G52" s="40" t="s">
+      <c r="G52" s="39" t="s">
         <v>311</v>
       </c>
-      <c r="H52" s="40" t="s">
+      <c r="H52" s="39" t="s">
         <v>311</v>
       </c>
-      <c r="I52" s="40" t="s">
+      <c r="I52" s="39" t="s">
         <v>311</v>
       </c>
-      <c r="J52" s="46"/>
+      <c r="J52" s="45"/>
       <c r="L52" s="14"/>
       <c r="N52" s="12"/>
     </row>
     <row r="53" spans="1:14" ht="22.5" x14ac:dyDescent="0.4">
-      <c r="A53" s="38" t="s">
+      <c r="A53" s="37" t="s">
         <v>181</v>
       </c>
-      <c r="B53" s="39" t="s">
+      <c r="B53" s="38" t="s">
         <v>84</v>
       </c>
-      <c r="C53" s="42" t="s">
+      <c r="C53" s="41" t="s">
         <v>312</v>
       </c>
-      <c r="D53" s="41"/>
-      <c r="E53" s="42" t="s">
+      <c r="D53" s="40"/>
+      <c r="E53" s="41" t="s">
         <v>312</v>
       </c>
-      <c r="F53" s="43" t="s">
+      <c r="F53" s="42" t="s">
         <v>85</v>
       </c>
-      <c r="G53" s="40" t="s">
+      <c r="G53" s="39" t="s">
         <v>312</v>
       </c>
-      <c r="H53" s="40" t="s">
+      <c r="H53" s="39" t="s">
         <v>312</v>
       </c>
-      <c r="I53" s="40" t="s">
+      <c r="I53" s="39" t="s">
         <v>312</v>
       </c>
-      <c r="J53" s="46"/>
+      <c r="J53" s="45"/>
       <c r="L53" s="14"/>
       <c r="N53" s="12"/>
     </row>
     <row r="54" spans="1:14" ht="45" x14ac:dyDescent="0.4">
-      <c r="A54" s="38" t="s">
+      <c r="A54" s="37" t="s">
         <v>182</v>
       </c>
-      <c r="B54" s="39" t="s">
+      <c r="B54" s="38" t="s">
         <v>86</v>
       </c>
-      <c r="C54" s="40"/>
-      <c r="D54" s="41"/>
-      <c r="E54" s="42" t="s">
+      <c r="C54" s="39"/>
+      <c r="D54" s="40"/>
+      <c r="E54" s="41" t="s">
         <v>313</v>
       </c>
-      <c r="F54" s="43" t="s">
+      <c r="F54" s="42" t="s">
         <v>87</v>
       </c>
-      <c r="G54" s="44" t="s">
+      <c r="G54" s="43" t="s">
         <v>87</v>
       </c>
-      <c r="H54" s="44" t="s">
+      <c r="H54" s="43" t="s">
         <v>87</v>
       </c>
-      <c r="I54" s="44" t="s">
+      <c r="I54" s="43" t="s">
         <v>87</v>
       </c>
-      <c r="J54" s="46"/>
+      <c r="J54" s="45"/>
       <c r="K54" s="14">
         <v>42418288</v>
       </c>
@@ -5800,118 +5812,118 @@
       <c r="N54" s="12"/>
     </row>
     <row r="55" spans="1:14" ht="22.5" x14ac:dyDescent="0.4">
-      <c r="A55" s="38" t="s">
+      <c r="A55" s="37" t="s">
         <v>183</v>
       </c>
-      <c r="B55" s="39" t="s">
+      <c r="B55" s="38" t="s">
         <v>88</v>
       </c>
-      <c r="C55" s="40"/>
-      <c r="D55" s="41"/>
-      <c r="E55" s="42" t="s">
+      <c r="C55" s="39"/>
+      <c r="D55" s="40"/>
+      <c r="E55" s="41" t="s">
         <v>314</v>
       </c>
-      <c r="F55" s="43" t="s">
+      <c r="F55" s="42" t="s">
         <v>257</v>
       </c>
-      <c r="G55" s="44" t="s">
+      <c r="G55" s="43" t="s">
         <v>357</v>
       </c>
-      <c r="H55" s="44" t="s">
+      <c r="H55" s="43" t="s">
         <v>357</v>
       </c>
-      <c r="I55" s="44" t="s">
+      <c r="I55" s="43" t="s">
         <v>357</v>
       </c>
-      <c r="J55" s="46"/>
+      <c r="J55" s="45"/>
       <c r="L55" s="14"/>
       <c r="N55" s="12"/>
     </row>
     <row r="56" spans="1:14" s="10" customFormat="1" ht="22.5" x14ac:dyDescent="0.4">
-      <c r="A56" s="38" t="s">
+      <c r="A56" s="37" t="s">
         <v>184</v>
       </c>
-      <c r="B56" s="39" t="s">
+      <c r="B56" s="38" t="s">
         <v>89</v>
       </c>
-      <c r="C56" s="40"/>
-      <c r="D56" s="41" t="s">
+      <c r="C56" s="39"/>
+      <c r="D56" s="40" t="s">
         <v>228</v>
       </c>
-      <c r="E56" s="42" t="s">
+      <c r="E56" s="41" t="s">
         <v>315</v>
       </c>
-      <c r="F56" s="43"/>
-      <c r="G56" s="44" t="s">
+      <c r="F56" s="42"/>
+      <c r="G56" s="43" t="s">
         <v>347</v>
       </c>
-      <c r="H56" s="44" t="s">
+      <c r="H56" s="43" t="s">
         <v>347</v>
       </c>
-      <c r="I56" s="44" t="s">
+      <c r="I56" s="43" t="s">
         <v>347</v>
       </c>
-      <c r="J56" s="46"/>
+      <c r="J56" s="45"/>
       <c r="K56" s="14"/>
       <c r="L56" s="14"/>
       <c r="M56" s="12"/>
       <c r="N56" s="12"/>
     </row>
     <row r="57" spans="1:14" ht="45" x14ac:dyDescent="0.4">
-      <c r="A57" s="38" t="s">
+      <c r="A57" s="37" t="s">
         <v>185</v>
       </c>
-      <c r="B57" s="39" t="s">
+      <c r="B57" s="38" t="s">
         <v>90</v>
       </c>
-      <c r="C57" s="40"/>
-      <c r="D57" s="41"/>
-      <c r="E57" s="42" t="s">
+      <c r="C57" s="39"/>
+      <c r="D57" s="40"/>
+      <c r="E57" s="41" t="s">
         <v>316</v>
       </c>
-      <c r="F57" s="43" t="s">
+      <c r="F57" s="42" t="s">
         <v>91</v>
       </c>
-      <c r="G57" s="44" t="s">
+      <c r="G57" s="43" t="s">
         <v>354</v>
       </c>
-      <c r="H57" s="44" t="s">
+      <c r="H57" s="43" t="s">
         <v>354</v>
       </c>
-      <c r="I57" s="44" t="s">
+      <c r="I57" s="43" t="s">
         <v>354</v>
       </c>
-      <c r="J57" s="46" t="s">
+      <c r="J57" s="45" t="s">
         <v>92</v>
       </c>
       <c r="L57" s="14"/>
       <c r="N57" s="12"/>
     </row>
     <row r="58" spans="1:14" ht="22.5" x14ac:dyDescent="0.4">
-      <c r="A58" s="38" t="s">
+      <c r="A58" s="37" t="s">
         <v>186</v>
       </c>
-      <c r="B58" s="39" t="s">
+      <c r="B58" s="38" t="s">
         <v>93</v>
       </c>
-      <c r="C58" s="40"/>
-      <c r="D58" s="41"/>
-      <c r="E58" s="42" t="s">
+      <c r="C58" s="39"/>
+      <c r="D58" s="40"/>
+      <c r="E58" s="41" t="s">
         <v>317</v>
       </c>
-      <c r="F58" s="43" t="s">
+      <c r="F58" s="42" t="s">
         <v>258</v>
       </c>
-      <c r="G58" s="40" t="s">
+      <c r="G58" s="39" t="s">
         <v>353</v>
       </c>
-      <c r="H58" s="40" t="s">
+      <c r="H58" s="39" t="s">
         <v>353</v>
       </c>
-      <c r="I58" s="40" t="s">
+      <c r="I58" s="39" t="s">
         <v>259</v>
       </c>
-      <c r="J58" s="46"/>
+      <c r="J58" s="45"/>
       <c r="K58" s="14">
         <v>42418298</v>
       </c>
@@ -5921,268 +5933,268 @@
       <c r="N58" s="12"/>
     </row>
     <row r="59" spans="1:14" ht="33.75" x14ac:dyDescent="0.4">
-      <c r="A59" s="38" t="s">
+      <c r="A59" s="37" t="s">
         <v>187</v>
       </c>
-      <c r="B59" s="39" t="s">
+      <c r="B59" s="38" t="s">
         <v>95</v>
       </c>
-      <c r="C59" s="40"/>
-      <c r="D59" s="41"/>
-      <c r="E59" s="42" t="s">
+      <c r="C59" s="39"/>
+      <c r="D59" s="40"/>
+      <c r="E59" s="41" t="s">
         <v>318</v>
       </c>
-      <c r="F59" s="43" t="s">
+      <c r="F59" s="42" t="s">
         <v>259</v>
       </c>
-      <c r="G59" s="44" t="s">
+      <c r="G59" s="43" t="s">
         <v>352</v>
       </c>
-      <c r="H59" s="44" t="s">
+      <c r="H59" s="43" t="s">
         <v>352</v>
       </c>
-      <c r="I59" s="44" t="s">
+      <c r="I59" s="43" t="s">
         <v>352</v>
       </c>
-      <c r="J59" s="46"/>
+      <c r="J59" s="45"/>
       <c r="L59" s="14"/>
       <c r="N59" s="12"/>
     </row>
     <row r="60" spans="1:14" ht="22.5" x14ac:dyDescent="0.4">
-      <c r="A60" s="38" t="s">
+      <c r="A60" s="37" t="s">
         <v>188</v>
       </c>
-      <c r="B60" s="39" t="s">
+      <c r="B60" s="38" t="s">
         <v>96</v>
       </c>
-      <c r="C60" s="42" t="s">
+      <c r="C60" s="41" t="s">
         <v>319</v>
       </c>
-      <c r="D60" s="41"/>
-      <c r="E60" s="42" t="s">
+      <c r="D60" s="40"/>
+      <c r="E60" s="41" t="s">
         <v>319</v>
       </c>
-      <c r="F60" s="43" t="s">
+      <c r="F60" s="42" t="s">
         <v>260</v>
       </c>
-      <c r="G60" s="40" t="s">
+      <c r="G60" s="39" t="s">
         <v>319</v>
       </c>
-      <c r="H60" s="40" t="s">
+      <c r="H60" s="39" t="s">
         <v>319</v>
       </c>
-      <c r="I60" s="40" t="s">
+      <c r="I60" s="39" t="s">
         <v>319</v>
       </c>
-      <c r="J60" s="46"/>
+      <c r="J60" s="45"/>
       <c r="L60" s="14"/>
       <c r="N60" s="12"/>
     </row>
     <row r="61" spans="1:14" ht="22.5" x14ac:dyDescent="0.4">
-      <c r="A61" s="38" t="s">
+      <c r="A61" s="37" t="s">
         <v>189</v>
       </c>
-      <c r="B61" s="39" t="s">
+      <c r="B61" s="38" t="s">
         <v>97</v>
       </c>
-      <c r="C61" s="42" t="s">
+      <c r="C61" s="41" t="s">
         <v>320</v>
       </c>
-      <c r="D61" s="41"/>
-      <c r="E61" s="42" t="s">
+      <c r="D61" s="40"/>
+      <c r="E61" s="41" t="s">
         <v>320</v>
       </c>
-      <c r="F61" s="43" t="s">
+      <c r="F61" s="42" t="s">
         <v>261</v>
       </c>
-      <c r="G61" s="40" t="s">
+      <c r="G61" s="39" t="s">
         <v>320</v>
       </c>
-      <c r="H61" s="40" t="s">
+      <c r="H61" s="39" t="s">
         <v>320</v>
       </c>
-      <c r="I61" s="40" t="s">
+      <c r="I61" s="39" t="s">
         <v>320</v>
       </c>
-      <c r="J61" s="46"/>
+      <c r="J61" s="45"/>
       <c r="L61" s="14"/>
       <c r="N61" s="12"/>
     </row>
     <row r="62" spans="1:14" ht="22.5" x14ac:dyDescent="0.4">
-      <c r="A62" s="38" t="s">
+      <c r="A62" s="37" t="s">
         <v>190</v>
       </c>
-      <c r="B62" s="39" t="s">
+      <c r="B62" s="38" t="s">
         <v>98</v>
       </c>
-      <c r="C62" s="42" t="s">
+      <c r="C62" s="41" t="s">
         <v>321</v>
       </c>
-      <c r="D62" s="41"/>
-      <c r="E62" s="42" t="s">
+      <c r="D62" s="40"/>
+      <c r="E62" s="41" t="s">
         <v>321</v>
       </c>
-      <c r="F62" s="43" t="s">
+      <c r="F62" s="42" t="s">
         <v>262</v>
       </c>
-      <c r="G62" s="40" t="s">
+      <c r="G62" s="39" t="s">
         <v>321</v>
       </c>
-      <c r="H62" s="40" t="s">
+      <c r="H62" s="39" t="s">
         <v>321</v>
       </c>
-      <c r="I62" s="40" t="s">
+      <c r="I62" s="39" t="s">
         <v>321</v>
       </c>
-      <c r="J62" s="46"/>
+      <c r="J62" s="45"/>
       <c r="L62" s="14"/>
       <c r="N62" s="12"/>
     </row>
     <row r="63" spans="1:14" ht="22.5" x14ac:dyDescent="0.4">
-      <c r="A63" s="38" t="s">
+      <c r="A63" s="37" t="s">
         <v>191</v>
       </c>
-      <c r="B63" s="39" t="s">
+      <c r="B63" s="38" t="s">
         <v>99</v>
       </c>
-      <c r="C63" s="40"/>
-      <c r="D63" s="41"/>
-      <c r="E63" s="42" t="s">
+      <c r="C63" s="39"/>
+      <c r="D63" s="40"/>
+      <c r="E63" s="41" t="s">
         <v>322</v>
       </c>
-      <c r="F63" s="43" t="s">
+      <c r="F63" s="42" t="s">
         <v>100</v>
       </c>
-      <c r="G63" s="40" t="s">
+      <c r="G63" s="39" t="s">
         <v>322</v>
       </c>
-      <c r="H63" s="40" t="s">
+      <c r="H63" s="39" t="s">
         <v>322</v>
       </c>
-      <c r="I63" s="40" t="s">
+      <c r="I63" s="39" t="s">
         <v>322</v>
       </c>
-      <c r="J63" s="46"/>
+      <c r="J63" s="45"/>
       <c r="L63" s="14"/>
       <c r="N63" s="12"/>
     </row>
     <row r="64" spans="1:14" ht="33.75" x14ac:dyDescent="0.4">
-      <c r="A64" s="38" t="s">
+      <c r="A64" s="37" t="s">
         <v>192</v>
       </c>
-      <c r="B64" s="39" t="s">
+      <c r="B64" s="38" t="s">
         <v>101</v>
       </c>
-      <c r="C64" s="40" t="s">
+      <c r="C64" s="39" t="s">
         <v>359</v>
       </c>
-      <c r="D64" s="41"/>
-      <c r="E64" s="42" t="s">
+      <c r="D64" s="40"/>
+      <c r="E64" s="41" t="s">
         <v>323</v>
       </c>
-      <c r="F64" s="43" t="s">
+      <c r="F64" s="42" t="s">
         <v>102</v>
       </c>
-      <c r="G64" s="44" t="s">
+      <c r="G64" s="43" t="s">
         <v>102</v>
       </c>
-      <c r="H64" s="44" t="s">
+      <c r="H64" s="43" t="s">
         <v>102</v>
       </c>
-      <c r="I64" s="44" t="s">
+      <c r="I64" s="43" t="s">
         <v>102</v>
       </c>
-      <c r="J64" s="46"/>
+      <c r="J64" s="45"/>
       <c r="L64" s="14"/>
       <c r="N64" s="12"/>
     </row>
     <row r="65" spans="1:168" ht="22.5" x14ac:dyDescent="0.4">
-      <c r="A65" s="38" t="s">
+      <c r="A65" s="37" t="s">
         <v>193</v>
       </c>
-      <c r="B65" s="39" t="s">
+      <c r="B65" s="38" t="s">
         <v>103</v>
       </c>
-      <c r="C65" s="40" t="s">
+      <c r="C65" s="39" t="s">
         <v>360</v>
       </c>
-      <c r="D65" s="41"/>
-      <c r="E65" s="42" t="s">
+      <c r="D65" s="40"/>
+      <c r="E65" s="41" t="s">
         <v>324</v>
       </c>
-      <c r="F65" s="43" t="s">
+      <c r="F65" s="42" t="s">
         <v>263</v>
       </c>
-      <c r="G65" s="44" t="s">
+      <c r="G65" s="43" t="s">
         <v>104</v>
       </c>
-      <c r="H65" s="44" t="s">
+      <c r="H65" s="43" t="s">
         <v>104</v>
       </c>
-      <c r="I65" s="44" t="s">
+      <c r="I65" s="43" t="s">
         <v>104</v>
       </c>
-      <c r="J65" s="46"/>
+      <c r="J65" s="45"/>
       <c r="L65" s="14"/>
       <c r="N65" s="12"/>
     </row>
     <row r="66" spans="1:168" ht="22.5" x14ac:dyDescent="0.4">
-      <c r="A66" s="38" t="s">
+      <c r="A66" s="37" t="s">
         <v>194</v>
       </c>
-      <c r="B66" s="39" t="s">
+      <c r="B66" s="38" t="s">
         <v>105</v>
       </c>
-      <c r="C66" s="42" t="s">
+      <c r="C66" s="41" t="s">
         <v>325</v>
       </c>
-      <c r="D66" s="41"/>
-      <c r="E66" s="42" t="s">
+      <c r="D66" s="40"/>
+      <c r="E66" s="41" t="s">
         <v>325</v>
       </c>
-      <c r="F66" s="43" t="s">
+      <c r="F66" s="42" t="s">
         <v>264</v>
       </c>
-      <c r="G66" s="44" t="s">
+      <c r="G66" s="43" t="s">
         <v>341</v>
       </c>
-      <c r="H66" s="44" t="s">
+      <c r="H66" s="43" t="s">
         <v>341</v>
       </c>
-      <c r="I66" s="44" t="s">
+      <c r="I66" s="43" t="s">
         <v>341</v>
       </c>
-      <c r="J66" s="46"/>
+      <c r="J66" s="45"/>
       <c r="L66" s="14"/>
       <c r="N66" s="12"/>
     </row>
     <row r="67" spans="1:168" ht="22.5" x14ac:dyDescent="0.4">
-      <c r="A67" s="38" t="s">
+      <c r="A67" s="37" t="s">
         <v>195</v>
       </c>
-      <c r="B67" s="39" t="s">
+      <c r="B67" s="38" t="s">
         <v>106</v>
       </c>
-      <c r="C67" s="42" t="s">
+      <c r="C67" s="41" t="s">
         <v>326</v>
       </c>
-      <c r="D67" s="41"/>
-      <c r="E67" s="42" t="s">
+      <c r="D67" s="40"/>
+      <c r="E67" s="41" t="s">
         <v>326</v>
       </c>
-      <c r="F67" s="43" t="s">
+      <c r="F67" s="42" t="s">
         <v>107</v>
       </c>
-      <c r="G67" s="44" t="s">
+      <c r="G67" s="43" t="s">
         <v>342</v>
       </c>
-      <c r="H67" s="44" t="s">
+      <c r="H67" s="43" t="s">
         <v>342</v>
       </c>
-      <c r="I67" s="44" t="s">
+      <c r="I67" s="43" t="s">
         <v>342</v>
       </c>
-      <c r="J67" s="46"/>
+      <c r="J67" s="45"/>
       <c r="L67" s="14"/>
       <c r="N67" s="12"/>
       <c r="O67" s="8"/>
@@ -6341,28 +6353,28 @@
       <c r="FL67" s="8"/>
     </row>
     <row r="68" spans="1:168" s="9" customFormat="1" ht="33.75" x14ac:dyDescent="0.4">
-      <c r="A68" s="38" t="s">
+      <c r="A68" s="37" t="s">
         <v>196</v>
       </c>
-      <c r="B68" s="39" t="s">
+      <c r="B68" s="38" t="s">
         <v>227</v>
       </c>
-      <c r="C68" s="40"/>
-      <c r="D68" s="41" t="s">
+      <c r="C68" s="39"/>
+      <c r="D68" s="40" t="s">
         <v>226</v>
       </c>
-      <c r="E68" s="35"/>
-      <c r="F68" s="36"/>
-      <c r="G68" s="44" t="s">
+      <c r="E68" s="34"/>
+      <c r="F68" s="35"/>
+      <c r="G68" s="43" t="s">
         <v>127</v>
       </c>
-      <c r="H68" s="44" t="s">
+      <c r="H68" s="43" t="s">
         <v>127</v>
       </c>
-      <c r="I68" s="44" t="s">
+      <c r="I68" s="43" t="s">
         <v>127</v>
       </c>
-      <c r="J68" s="46"/>
+      <c r="J68" s="45"/>
       <c r="K68" s="14"/>
       <c r="L68" s="14"/>
       <c r="M68" s="12"/>
@@ -6523,28 +6535,28 @@
       <c r="FL68" s="8"/>
     </row>
     <row r="69" spans="1:168" s="9" customFormat="1" ht="22.5" x14ac:dyDescent="0.4">
-      <c r="A69" s="38" t="s">
+      <c r="A69" s="37" t="s">
         <v>197</v>
       </c>
-      <c r="B69" s="39" t="s">
+      <c r="B69" s="38" t="s">
         <v>108</v>
       </c>
-      <c r="C69" s="40"/>
-      <c r="D69" s="41" t="s">
+      <c r="C69" s="39"/>
+      <c r="D69" s="40" t="s">
         <v>226</v>
       </c>
-      <c r="E69" s="35"/>
-      <c r="F69" s="36"/>
-      <c r="G69" s="44" t="s">
+      <c r="E69" s="34"/>
+      <c r="F69" s="35"/>
+      <c r="G69" s="43" t="s">
         <v>129</v>
       </c>
-      <c r="H69" s="44" t="s">
+      <c r="H69" s="43" t="s">
         <v>129</v>
       </c>
-      <c r="I69" s="44" t="s">
+      <c r="I69" s="43" t="s">
         <v>129</v>
       </c>
-      <c r="J69" s="46"/>
+      <c r="J69" s="45"/>
       <c r="K69" s="14"/>
       <c r="L69" s="14"/>
       <c r="M69" s="12"/>
@@ -6705,30 +6717,30 @@
       <c r="FL69" s="8"/>
     </row>
     <row r="70" spans="1:168" ht="33.75" x14ac:dyDescent="0.4">
-      <c r="A70" s="38" t="s">
+      <c r="A70" s="37" t="s">
         <v>198</v>
       </c>
-      <c r="B70" s="39" t="s">
+      <c r="B70" s="38" t="s">
         <v>236</v>
       </c>
-      <c r="C70" s="40"/>
-      <c r="D70" s="41"/>
-      <c r="E70" s="42" t="s">
+      <c r="C70" s="39"/>
+      <c r="D70" s="40"/>
+      <c r="E70" s="41" t="s">
         <v>327</v>
       </c>
-      <c r="F70" s="43" t="s">
+      <c r="F70" s="42" t="s">
         <v>109</v>
       </c>
-      <c r="G70" s="44" t="s">
+      <c r="G70" s="43" t="s">
         <v>83</v>
       </c>
-      <c r="H70" s="44" t="s">
+      <c r="H70" s="43" t="s">
         <v>83</v>
       </c>
-      <c r="I70" s="44" t="s">
+      <c r="I70" s="43" t="s">
         <v>83</v>
       </c>
-      <c r="J70" s="46"/>
+      <c r="J70" s="45"/>
       <c r="K70" s="14">
         <v>42420288</v>
       </c>
@@ -6892,30 +6904,30 @@
       <c r="FL70" s="8"/>
     </row>
     <row r="71" spans="1:168" s="9" customFormat="1" ht="22.5" x14ac:dyDescent="0.4">
-      <c r="A71" s="38" t="s">
+      <c r="A71" s="37" t="s">
         <v>199</v>
       </c>
-      <c r="B71" s="39" t="s">
+      <c r="B71" s="38" t="s">
         <v>110</v>
       </c>
-      <c r="C71" s="40"/>
-      <c r="D71" s="41" t="s">
+      <c r="C71" s="39"/>
+      <c r="D71" s="40" t="s">
         <v>226</v>
       </c>
-      <c r="E71" s="42" t="s">
+      <c r="E71" s="41" t="s">
         <v>328</v>
       </c>
-      <c r="F71" s="47"/>
-      <c r="G71" s="44" t="s">
+      <c r="F71" s="46"/>
+      <c r="G71" s="43" t="s">
         <v>85</v>
       </c>
-      <c r="H71" s="44" t="s">
+      <c r="H71" s="43" t="s">
         <v>85</v>
       </c>
-      <c r="I71" s="44" t="s">
+      <c r="I71" s="43" t="s">
         <v>85</v>
       </c>
-      <c r="J71" s="46"/>
+      <c r="J71" s="45"/>
       <c r="K71" s="14" t="s">
         <v>383</v>
       </c>
@@ -7080,396 +7092,396 @@
       <c r="FL71" s="8"/>
     </row>
     <row r="72" spans="1:168" ht="33.75" x14ac:dyDescent="0.4">
-      <c r="A72" s="38" t="s">
+      <c r="A72" s="37" t="s">
         <v>200</v>
       </c>
-      <c r="B72" s="39" t="s">
+      <c r="B72" s="38" t="s">
         <v>237</v>
       </c>
-      <c r="C72" s="40"/>
-      <c r="D72" s="41"/>
-      <c r="E72" s="42" t="s">
+      <c r="C72" s="39"/>
+      <c r="D72" s="40"/>
+      <c r="E72" s="41" t="s">
         <v>329</v>
       </c>
-      <c r="F72" s="43" t="s">
+      <c r="F72" s="42" t="s">
         <v>111</v>
       </c>
-      <c r="G72" s="44" t="s">
+      <c r="G72" s="43" t="s">
         <v>120</v>
       </c>
-      <c r="H72" s="44" t="s">
+      <c r="H72" s="43" t="s">
         <v>401</v>
       </c>
-      <c r="I72" s="44" t="s">
+      <c r="I72" s="43" t="s">
         <v>401</v>
       </c>
-      <c r="J72" s="46"/>
+      <c r="J72" s="45"/>
       <c r="L72" s="14"/>
       <c r="N72" s="12"/>
     </row>
     <row r="73" spans="1:168" ht="45" x14ac:dyDescent="0.4">
-      <c r="A73" s="38" t="s">
+      <c r="A73" s="37" t="s">
         <v>201</v>
       </c>
-      <c r="B73" s="39" t="s">
+      <c r="B73" s="38" t="s">
         <v>384</v>
       </c>
-      <c r="C73" s="40" t="s">
+      <c r="C73" s="39" t="s">
         <v>385</v>
       </c>
-      <c r="D73" s="41"/>
-      <c r="E73" s="42" t="s">
+      <c r="D73" s="40"/>
+      <c r="E73" s="41" t="s">
         <v>330</v>
       </c>
-      <c r="F73" s="43" t="s">
+      <c r="F73" s="42" t="s">
         <v>265</v>
       </c>
-      <c r="G73" s="44" t="s">
+      <c r="G73" s="43" t="s">
         <v>118</v>
       </c>
-      <c r="H73" s="44" t="s">
+      <c r="H73" s="43" t="s">
         <v>118</v>
       </c>
-      <c r="I73" s="44" t="s">
+      <c r="I73" s="43" t="s">
         <v>118</v>
       </c>
-      <c r="J73" s="46"/>
+      <c r="J73" s="45"/>
       <c r="L73" s="14"/>
       <c r="N73" s="12"/>
     </row>
     <row r="74" spans="1:168" ht="45" x14ac:dyDescent="0.4">
-      <c r="A74" s="38" t="s">
+      <c r="A74" s="37" t="s">
         <v>202</v>
       </c>
-      <c r="B74" s="39" t="s">
+      <c r="B74" s="38" t="s">
         <v>112</v>
       </c>
-      <c r="C74" s="40" t="s">
+      <c r="C74" s="39" t="s">
         <v>386</v>
       </c>
-      <c r="D74" s="41"/>
-      <c r="E74" s="42" t="s">
+      <c r="D74" s="40"/>
+      <c r="E74" s="41" t="s">
         <v>331</v>
       </c>
-      <c r="F74" s="43" t="s">
+      <c r="F74" s="42" t="s">
         <v>113</v>
       </c>
-      <c r="G74" s="44" t="s">
+      <c r="G74" s="43" t="s">
         <v>122</v>
       </c>
-      <c r="H74" s="44" t="s">
+      <c r="H74" s="43" t="s">
         <v>122</v>
       </c>
-      <c r="I74" s="44" t="s">
+      <c r="I74" s="43" t="s">
         <v>122</v>
       </c>
-      <c r="J74" s="46"/>
+      <c r="J74" s="45"/>
       <c r="L74" s="14"/>
       <c r="N74" s="12"/>
     </row>
     <row r="75" spans="1:168" ht="22.5" x14ac:dyDescent="0.4">
-      <c r="A75" s="38" t="s">
+      <c r="A75" s="37" t="s">
         <v>203</v>
       </c>
-      <c r="B75" s="39" t="s">
+      <c r="B75" s="38" t="s">
         <v>114</v>
       </c>
-      <c r="C75" s="42" t="s">
+      <c r="C75" s="41" t="s">
         <v>332</v>
       </c>
-      <c r="D75" s="41"/>
-      <c r="E75" s="42" t="s">
+      <c r="D75" s="40"/>
+      <c r="E75" s="41" t="s">
         <v>332</v>
       </c>
-      <c r="F75" s="43" t="s">
+      <c r="F75" s="42" t="s">
         <v>115</v>
       </c>
-      <c r="G75" s="40" t="s">
+      <c r="G75" s="39" t="s">
         <v>332</v>
       </c>
-      <c r="H75" s="40" t="s">
+      <c r="H75" s="39" t="s">
         <v>332</v>
       </c>
-      <c r="I75" s="40" t="s">
+      <c r="I75" s="39" t="s">
         <v>332</v>
       </c>
-      <c r="J75" s="46"/>
+      <c r="J75" s="45"/>
       <c r="L75" s="14"/>
       <c r="N75" s="12"/>
     </row>
     <row r="76" spans="1:168" ht="22.5" x14ac:dyDescent="0.4">
-      <c r="A76" s="38" t="s">
+      <c r="A76" s="37" t="s">
         <v>204</v>
       </c>
-      <c r="B76" s="39" t="s">
+      <c r="B76" s="38" t="s">
         <v>116</v>
       </c>
-      <c r="C76" s="42" t="s">
+      <c r="C76" s="41" t="s">
         <v>333</v>
       </c>
-      <c r="D76" s="41"/>
-      <c r="E76" s="42" t="s">
+      <c r="D76" s="40"/>
+      <c r="E76" s="41" t="s">
         <v>333</v>
       </c>
-      <c r="F76" s="43" t="s">
+      <c r="F76" s="42" t="s">
         <v>266</v>
       </c>
-      <c r="G76" s="40" t="s">
+      <c r="G76" s="39" t="s">
         <v>333</v>
       </c>
-      <c r="H76" s="40" t="s">
+      <c r="H76" s="39" t="s">
         <v>333</v>
       </c>
-      <c r="I76" s="40" t="s">
+      <c r="I76" s="39" t="s">
         <v>333</v>
       </c>
-      <c r="J76" s="46"/>
+      <c r="J76" s="45"/>
       <c r="L76" s="14"/>
       <c r="N76" s="12"/>
     </row>
     <row r="77" spans="1:168" ht="22.5" x14ac:dyDescent="0.4">
-      <c r="A77" s="38" t="s">
+      <c r="A77" s="37" t="s">
         <v>205</v>
       </c>
-      <c r="B77" s="39" t="s">
+      <c r="B77" s="38" t="s">
         <v>117</v>
       </c>
-      <c r="C77" s="42" t="s">
+      <c r="C77" s="41" t="s">
         <v>334</v>
       </c>
-      <c r="D77" s="41"/>
-      <c r="E77" s="42" t="s">
+      <c r="D77" s="40"/>
+      <c r="E77" s="41" t="s">
         <v>334</v>
       </c>
-      <c r="F77" s="43" t="s">
+      <c r="F77" s="42" t="s">
         <v>118</v>
       </c>
-      <c r="G77" s="40" t="s">
+      <c r="G77" s="39" t="s">
         <v>334</v>
       </c>
-      <c r="H77" s="40" t="s">
+      <c r="H77" s="39" t="s">
         <v>334</v>
       </c>
-      <c r="I77" s="40" t="s">
+      <c r="I77" s="39" t="s">
         <v>334</v>
       </c>
-      <c r="J77" s="46"/>
+      <c r="J77" s="45"/>
       <c r="L77" s="14"/>
       <c r="N77" s="12"/>
     </row>
     <row r="78" spans="1:168" ht="22.5" x14ac:dyDescent="0.4">
-      <c r="A78" s="38" t="s">
+      <c r="A78" s="37" t="s">
         <v>206</v>
       </c>
-      <c r="B78" s="39" t="s">
+      <c r="B78" s="38" t="s">
         <v>119</v>
       </c>
-      <c r="C78" s="42" t="s">
+      <c r="C78" s="41" t="s">
         <v>335</v>
       </c>
-      <c r="D78" s="41"/>
-      <c r="E78" s="42" t="s">
+      <c r="D78" s="40"/>
+      <c r="E78" s="41" t="s">
         <v>335</v>
       </c>
-      <c r="F78" s="43" t="s">
+      <c r="F78" s="42" t="s">
         <v>267</v>
       </c>
-      <c r="G78" s="40" t="s">
+      <c r="G78" s="39" t="s">
         <v>335</v>
       </c>
-      <c r="H78" s="40" t="s">
+      <c r="H78" s="39" t="s">
         <v>335</v>
       </c>
-      <c r="I78" s="40" t="s">
+      <c r="I78" s="39" t="s">
         <v>335</v>
       </c>
-      <c r="J78" s="46"/>
+      <c r="J78" s="45"/>
       <c r="L78" s="14"/>
       <c r="N78" s="12"/>
     </row>
     <row r="79" spans="1:168" ht="22.5" x14ac:dyDescent="0.4">
-      <c r="A79" s="38" t="s">
+      <c r="A79" s="37" t="s">
         <v>207</v>
       </c>
-      <c r="B79" s="39" t="s">
+      <c r="B79" s="38" t="s">
         <v>121</v>
       </c>
-      <c r="C79" s="42" t="s">
+      <c r="C79" s="41" t="s">
         <v>336</v>
       </c>
-      <c r="D79" s="41"/>
-      <c r="E79" s="42" t="s">
+      <c r="D79" s="40"/>
+      <c r="E79" s="41" t="s">
         <v>336</v>
       </c>
-      <c r="F79" s="43" t="s">
+      <c r="F79" s="42" t="s">
         <v>122</v>
       </c>
-      <c r="G79" s="40" t="s">
+      <c r="G79" s="39" t="s">
         <v>336</v>
       </c>
-      <c r="H79" s="40" t="s">
+      <c r="H79" s="39" t="s">
         <v>336</v>
       </c>
-      <c r="I79" s="40" t="s">
+      <c r="I79" s="39" t="s">
         <v>336</v>
       </c>
-      <c r="J79" s="46"/>
+      <c r="J79" s="45"/>
       <c r="L79" s="14"/>
       <c r="N79" s="12"/>
     </row>
     <row r="80" spans="1:168" ht="22.5" x14ac:dyDescent="0.4">
-      <c r="A80" s="38" t="s">
+      <c r="A80" s="37" t="s">
         <v>208</v>
       </c>
-      <c r="B80" s="39" t="s">
+      <c r="B80" s="38" t="s">
         <v>123</v>
       </c>
-      <c r="C80" s="42" t="s">
+      <c r="C80" s="41" t="s">
         <v>337</v>
       </c>
-      <c r="D80" s="41"/>
-      <c r="E80" s="42" t="s">
+      <c r="D80" s="40"/>
+      <c r="E80" s="41" t="s">
         <v>337</v>
       </c>
-      <c r="F80" s="43" t="s">
+      <c r="F80" s="42" t="s">
         <v>124</v>
       </c>
-      <c r="G80" s="40" t="s">
+      <c r="G80" s="39" t="s">
         <v>337</v>
       </c>
-      <c r="H80" s="40" t="s">
+      <c r="H80" s="39" t="s">
         <v>337</v>
       </c>
-      <c r="I80" s="40" t="s">
+      <c r="I80" s="39" t="s">
         <v>337</v>
       </c>
-      <c r="J80" s="46"/>
+      <c r="J80" s="45"/>
       <c r="L80" s="14"/>
       <c r="N80" s="12"/>
     </row>
     <row r="81" spans="1:14" ht="22.5" x14ac:dyDescent="0.4">
-      <c r="A81" s="38" t="s">
+      <c r="A81" s="37" t="s">
         <v>209</v>
       </c>
-      <c r="B81" s="39" t="s">
+      <c r="B81" s="38" t="s">
         <v>125</v>
       </c>
-      <c r="C81" s="42" t="s">
+      <c r="C81" s="41" t="s">
         <v>338</v>
       </c>
-      <c r="D81" s="41"/>
-      <c r="E81" s="42" t="s">
+      <c r="D81" s="40"/>
+      <c r="E81" s="41" t="s">
         <v>338</v>
       </c>
-      <c r="F81" s="43" t="s">
+      <c r="F81" s="42" t="s">
         <v>268</v>
       </c>
-      <c r="G81" s="40" t="s">
+      <c r="G81" s="39" t="s">
         <v>338</v>
       </c>
-      <c r="H81" s="40" t="s">
+      <c r="H81" s="39" t="s">
         <v>338</v>
       </c>
-      <c r="I81" s="40" t="s">
+      <c r="I81" s="39" t="s">
         <v>338</v>
       </c>
-      <c r="J81" s="46"/>
+      <c r="J81" s="45"/>
       <c r="L81" s="14"/>
       <c r="N81" s="12"/>
     </row>
     <row r="82" spans="1:14" ht="22.5" x14ac:dyDescent="0.4">
-      <c r="A82" s="38" t="s">
+      <c r="A82" s="37" t="s">
         <v>210</v>
       </c>
-      <c r="B82" s="39" t="s">
+      <c r="B82" s="38" t="s">
         <v>126</v>
       </c>
-      <c r="C82" s="42" t="s">
+      <c r="C82" s="41" t="s">
         <v>339</v>
       </c>
-      <c r="D82" s="41"/>
-      <c r="E82" s="42" t="s">
+      <c r="D82" s="40"/>
+      <c r="E82" s="41" t="s">
         <v>339</v>
       </c>
-      <c r="F82" s="43" t="s">
+      <c r="F82" s="42" t="s">
         <v>269</v>
       </c>
-      <c r="G82" s="40" t="s">
+      <c r="G82" s="39" t="s">
         <v>339</v>
       </c>
-      <c r="H82" s="40" t="s">
+      <c r="H82" s="39" t="s">
         <v>339</v>
       </c>
-      <c r="I82" s="40" t="s">
+      <c r="I82" s="39" t="s">
         <v>339</v>
       </c>
-      <c r="J82" s="46"/>
+      <c r="J82" s="45"/>
       <c r="L82" s="14"/>
       <c r="N82" s="12"/>
     </row>
     <row r="83" spans="1:14" ht="22.5" x14ac:dyDescent="0.4">
-      <c r="A83" s="38" t="s">
+      <c r="A83" s="37" t="s">
         <v>211</v>
       </c>
-      <c r="B83" s="39" t="s">
+      <c r="B83" s="38" t="s">
         <v>128</v>
       </c>
-      <c r="C83" s="42" t="s">
+      <c r="C83" s="41" t="s">
         <v>340</v>
       </c>
-      <c r="D83" s="68"/>
-      <c r="E83" s="42" t="s">
+      <c r="D83" s="67"/>
+      <c r="E83" s="41" t="s">
         <v>340</v>
       </c>
-      <c r="F83" s="67" t="s">
+      <c r="F83" s="66" t="s">
         <v>129</v>
       </c>
-      <c r="G83" s="40" t="s">
+      <c r="G83" s="39" t="s">
         <v>340</v>
       </c>
-      <c r="H83" s="40" t="s">
+      <c r="H83" s="39" t="s">
         <v>340</v>
       </c>
-      <c r="I83" s="40" t="s">
+      <c r="I83" s="39" t="s">
         <v>340</v>
       </c>
-      <c r="J83" s="46"/>
+      <c r="J83" s="45"/>
       <c r="L83" s="14"/>
       <c r="N83" s="12"/>
     </row>
     <row r="84" spans="1:14" x14ac:dyDescent="0.4">
-      <c r="A84" s="38" t="s">
+      <c r="A84" s="37" t="s">
         <v>212</v>
       </c>
-      <c r="B84" s="58" t="s">
+      <c r="B84" s="57" t="s">
         <v>130</v>
       </c>
-      <c r="C84" s="40"/>
-      <c r="D84" s="41"/>
-      <c r="E84" s="35"/>
-      <c r="F84" s="70"/>
-      <c r="G84" s="71"/>
-      <c r="H84" s="71"/>
-      <c r="I84" s="71"/>
-      <c r="J84" s="46"/>
+      <c r="C84" s="39"/>
+      <c r="D84" s="40"/>
+      <c r="E84" s="34"/>
+      <c r="F84" s="69"/>
+      <c r="G84" s="70"/>
+      <c r="H84" s="70"/>
+      <c r="I84" s="70"/>
+      <c r="J84" s="45"/>
       <c r="L84" s="14"/>
       <c r="N84" s="12"/>
     </row>
     <row r="85" spans="1:14" ht="21.75" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A85" s="72" t="s">
+      <c r="A85" s="71" t="s">
         <v>213</v>
       </c>
-      <c r="B85" s="73" t="s">
+      <c r="B85" s="72" t="s">
         <v>131</v>
       </c>
-      <c r="C85" s="74"/>
-      <c r="D85" s="75"/>
-      <c r="E85" s="76"/>
-      <c r="F85" s="77"/>
-      <c r="G85" s="71"/>
-      <c r="H85" s="71"/>
-      <c r="I85" s="78"/>
-      <c r="J85" s="79"/>
+      <c r="C85" s="73"/>
+      <c r="D85" s="74"/>
+      <c r="E85" s="75"/>
+      <c r="F85" s="76"/>
+      <c r="G85" s="70"/>
+      <c r="H85" s="70"/>
+      <c r="I85" s="77"/>
+      <c r="J85" s="78"/>
       <c r="L85" s="14"/>
       <c r="N85" s="12"/>
     </row>
@@ -7513,395 +7525,395 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A1" s="80" t="s">
+      <c r="A1" s="79" t="s">
+        <v>409</v>
+      </c>
+      <c r="B1" s="79"/>
+      <c r="C1" s="79"/>
+      <c r="D1" s="79"/>
+      <c r="E1" s="79"/>
+      <c r="F1" s="79"/>
+      <c r="G1" s="79"/>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A2" s="79"/>
+      <c r="B2" s="79"/>
+      <c r="C2" s="79"/>
+      <c r="D2" s="79"/>
+      <c r="E2" s="79"/>
+      <c r="F2" s="79"/>
+      <c r="G2" s="79"/>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A3" s="79" t="s">
         <v>410</v>
       </c>
-      <c r="B1" s="80"/>
-      <c r="C1" s="80"/>
-      <c r="D1" s="80"/>
-      <c r="E1" s="80"/>
-      <c r="F1" s="80"/>
-      <c r="G1" s="80"/>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A2" s="80"/>
-      <c r="B2" s="80"/>
-      <c r="C2" s="80"/>
-      <c r="D2" s="80"/>
-      <c r="E2" s="80"/>
-      <c r="F2" s="80"/>
-      <c r="G2" s="80"/>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A3" s="80" t="s">
+      <c r="B3" s="79" t="s">
         <v>411</v>
       </c>
-      <c r="B3" s="80" t="s">
+      <c r="C3" s="79"/>
+      <c r="D3" s="79" t="s">
         <v>412</v>
       </c>
-      <c r="C3" s="80"/>
-      <c r="D3" s="80" t="s">
-        <v>413</v>
-      </c>
-      <c r="E3" s="80"/>
-      <c r="F3" s="80"/>
-      <c r="G3" s="80"/>
+      <c r="E3" s="79"/>
+      <c r="F3" s="79"/>
+      <c r="G3" s="79"/>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A4" s="80">
+      <c r="A4" s="79">
         <f>HEX2DEC(40000000)</f>
         <v>1073741824</v>
       </c>
-      <c r="B4" s="80">
+      <c r="B4" s="79">
         <f>HEX2DEC(42000000)</f>
         <v>1107296256</v>
       </c>
-      <c r="C4" s="80"/>
-      <c r="D4" s="80">
+      <c r="C4" s="79"/>
+      <c r="D4" s="79">
         <v>11</v>
       </c>
-      <c r="E4" s="80"/>
-      <c r="F4" s="80"/>
-      <c r="G4" s="80"/>
+      <c r="E4" s="79"/>
+      <c r="F4" s="79"/>
+      <c r="G4" s="79"/>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A5" s="80"/>
-      <c r="B5" s="80"/>
-      <c r="C5" s="80"/>
-      <c r="D5" s="80"/>
-      <c r="E5" s="80"/>
-      <c r="F5" s="80"/>
-      <c r="G5" s="80"/>
+      <c r="A5" s="79"/>
+      <c r="B5" s="79"/>
+      <c r="C5" s="79"/>
+      <c r="D5" s="79"/>
+      <c r="E5" s="79"/>
+      <c r="F5" s="79"/>
+      <c r="G5" s="79"/>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A6" s="80"/>
-      <c r="B6" s="80"/>
-      <c r="C6" s="80"/>
-      <c r="D6" s="80"/>
-      <c r="E6" s="80"/>
-      <c r="F6" s="80"/>
-      <c r="G6" s="80"/>
+      <c r="A6" s="79"/>
+      <c r="B6" s="79"/>
+      <c r="C6" s="79"/>
+      <c r="D6" s="79"/>
+      <c r="E6" s="79"/>
+      <c r="F6" s="79"/>
+      <c r="G6" s="79"/>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A7" s="80" t="s">
+      <c r="A7" s="79" t="s">
+        <v>413</v>
+      </c>
+      <c r="B7" s="80">
+        <v>40020000</v>
+      </c>
+      <c r="C7" s="79" t="s">
         <v>414</v>
       </c>
-      <c r="B7" s="81">
-        <v>40020000</v>
-      </c>
-      <c r="C7" s="80" t="s">
-        <v>415</v>
-      </c>
-      <c r="D7" s="80">
+      <c r="D7" s="79">
         <v>14</v>
       </c>
-      <c r="E7" s="80">
+      <c r="E7" s="79">
         <f>HEX2DEC(B7)+HEX2DEC(D7)</f>
         <v>1073872916</v>
       </c>
-      <c r="F7" s="80">
+      <c r="F7" s="79">
         <f>E7-$A$4</f>
         <v>131092</v>
       </c>
-      <c r="G7" s="80" t="str">
+      <c r="G7" s="79" t="str">
         <f>DEC2HEX($B$4+F7*32+$D$4*4)</f>
         <v>424002AC</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A8" s="80" t="s">
-        <v>414</v>
-      </c>
-      <c r="B8" s="81">
+      <c r="A8" s="79" t="s">
+        <v>413</v>
+      </c>
+      <c r="B8" s="80">
         <v>40020000</v>
       </c>
-      <c r="C8" s="80" t="s">
-        <v>416</v>
-      </c>
-      <c r="D8" s="80">
+      <c r="C8" s="79" t="s">
+        <v>415</v>
+      </c>
+      <c r="D8" s="79">
         <v>10</v>
       </c>
-      <c r="E8" s="80">
+      <c r="E8" s="79">
         <f>HEX2DEC(B8)+HEX2DEC(D8)</f>
         <v>1073872912</v>
       </c>
-      <c r="F8" s="80">
+      <c r="F8" s="79">
         <f t="shared" ref="F8:F18" si="0">E8-$A$4</f>
         <v>131088</v>
       </c>
-      <c r="G8" s="80" t="str">
+      <c r="G8" s="79" t="str">
         <f t="shared" ref="G8:G18" si="1">DEC2HEX($B$4+F8*32+$D$4*4)</f>
         <v>4240022C</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A9" s="80" t="s">
-        <v>417</v>
-      </c>
-      <c r="B9" s="81">
+      <c r="A9" s="79" t="s">
+        <v>416</v>
+      </c>
+      <c r="B9" s="80">
         <v>40020400</v>
       </c>
-      <c r="C9" s="80" t="s">
-        <v>415</v>
-      </c>
-      <c r="D9" s="80">
+      <c r="C9" s="79" t="s">
+        <v>414</v>
+      </c>
+      <c r="D9" s="79">
         <v>14</v>
       </c>
-      <c r="E9" s="80">
+      <c r="E9" s="79">
         <f t="shared" ref="E9:E18" si="2">HEX2DEC(B9)+HEX2DEC(D9)</f>
         <v>1073873940</v>
       </c>
-      <c r="F9" s="80">
+      <c r="F9" s="79">
         <f t="shared" si="0"/>
         <v>132116</v>
       </c>
-      <c r="G9" s="80" t="str">
+      <c r="G9" s="79" t="str">
         <f t="shared" si="1"/>
         <v>424082AC</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A10" s="80" t="s">
-        <v>417</v>
-      </c>
-      <c r="B10" s="81">
+      <c r="A10" s="79" t="s">
+        <v>416</v>
+      </c>
+      <c r="B10" s="80">
         <v>40020400</v>
       </c>
-      <c r="C10" s="80" t="s">
-        <v>416</v>
-      </c>
-      <c r="D10" s="80">
+      <c r="C10" s="79" t="s">
+        <v>415</v>
+      </c>
+      <c r="D10" s="79">
         <v>10</v>
       </c>
-      <c r="E10" s="80">
+      <c r="E10" s="79">
         <f t="shared" si="2"/>
         <v>1073873936</v>
       </c>
-      <c r="F10" s="80">
+      <c r="F10" s="79">
         <f t="shared" si="0"/>
         <v>132112</v>
       </c>
-      <c r="G10" s="82" t="str">
+      <c r="G10" s="81" t="str">
         <f t="shared" si="1"/>
         <v>4240822C</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A11" s="80" t="s">
-        <v>418</v>
-      </c>
-      <c r="B11" s="81">
+      <c r="A11" s="79" t="s">
+        <v>417</v>
+      </c>
+      <c r="B11" s="80">
         <v>40020800</v>
       </c>
-      <c r="C11" s="80" t="s">
-        <v>415</v>
-      </c>
-      <c r="D11" s="80">
+      <c r="C11" s="79" t="s">
+        <v>414</v>
+      </c>
+      <c r="D11" s="79">
         <v>14</v>
       </c>
-      <c r="E11" s="80">
+      <c r="E11" s="79">
         <f t="shared" si="2"/>
         <v>1073874964</v>
       </c>
-      <c r="F11" s="80">
+      <c r="F11" s="79">
         <f t="shared" si="0"/>
         <v>133140</v>
       </c>
-      <c r="G11" s="82" t="str">
+      <c r="G11" s="81" t="str">
         <f>DEC2HEX($B$4+F11*32+$D$4*4)</f>
         <v>424102AC</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A12" s="80" t="s">
-        <v>418</v>
-      </c>
-      <c r="B12" s="81">
+      <c r="A12" s="79" t="s">
+        <v>417</v>
+      </c>
+      <c r="B12" s="80">
         <v>40020800</v>
       </c>
-      <c r="C12" s="80" t="s">
-        <v>416</v>
-      </c>
-      <c r="D12" s="80">
+      <c r="C12" s="79" t="s">
+        <v>415</v>
+      </c>
+      <c r="D12" s="79">
         <v>10</v>
       </c>
-      <c r="E12" s="80">
+      <c r="E12" s="79">
         <f t="shared" si="2"/>
         <v>1073874960</v>
       </c>
-      <c r="F12" s="80">
+      <c r="F12" s="79">
         <f t="shared" si="0"/>
         <v>133136</v>
       </c>
-      <c r="G12" s="82" t="str">
+      <c r="G12" s="81" t="str">
         <f t="shared" si="1"/>
         <v>4241022C</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A13" s="80" t="s">
+      <c r="A13" s="79" t="s">
+        <v>418</v>
+      </c>
+      <c r="B13" s="80" t="s">
         <v>419</v>
       </c>
-      <c r="B13" s="81" t="s">
-        <v>420</v>
-      </c>
-      <c r="C13" s="80" t="s">
-        <v>415</v>
-      </c>
-      <c r="D13" s="80">
+      <c r="C13" s="79" t="s">
+        <v>414</v>
+      </c>
+      <c r="D13" s="79">
         <v>14</v>
       </c>
-      <c r="E13" s="80">
+      <c r="E13" s="79">
         <f t="shared" si="2"/>
         <v>1073875988</v>
       </c>
-      <c r="F13" s="80">
+      <c r="F13" s="79">
         <f t="shared" si="0"/>
         <v>134164</v>
       </c>
-      <c r="G13" s="82" t="str">
+      <c r="G13" s="81" t="str">
         <f t="shared" si="1"/>
         <v>424182AC</v>
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A14" s="80" t="s">
+      <c r="A14" s="79" t="s">
+        <v>418</v>
+      </c>
+      <c r="B14" s="80" t="s">
         <v>419</v>
       </c>
-      <c r="B14" s="81" t="s">
-        <v>420</v>
-      </c>
-      <c r="C14" s="80" t="s">
-        <v>416</v>
-      </c>
-      <c r="D14" s="80">
+      <c r="C14" s="79" t="s">
+        <v>415</v>
+      </c>
+      <c r="D14" s="79">
         <v>10</v>
       </c>
-      <c r="E14" s="80">
+      <c r="E14" s="79">
         <f t="shared" si="2"/>
         <v>1073875984</v>
       </c>
-      <c r="F14" s="80">
+      <c r="F14" s="79">
         <f t="shared" si="0"/>
         <v>134160</v>
       </c>
-      <c r="G14" s="82" t="str">
+      <c r="G14" s="81" t="str">
         <f t="shared" si="1"/>
         <v>4241822C</v>
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A15" s="80" t="s">
-        <v>421</v>
-      </c>
-      <c r="B15" s="81">
+      <c r="A15" s="79" t="s">
+        <v>420</v>
+      </c>
+      <c r="B15" s="80">
         <v>40021000</v>
       </c>
-      <c r="C15" s="80" t="s">
-        <v>415</v>
-      </c>
-      <c r="D15" s="80">
+      <c r="C15" s="79" t="s">
+        <v>414</v>
+      </c>
+      <c r="D15" s="79">
         <v>14</v>
       </c>
-      <c r="E15" s="80">
+      <c r="E15" s="79">
         <f t="shared" si="2"/>
         <v>1073877012</v>
       </c>
-      <c r="F15" s="80">
+      <c r="F15" s="79">
         <f t="shared" si="0"/>
         <v>135188</v>
       </c>
-      <c r="G15" s="82" t="str">
+      <c r="G15" s="81" t="str">
         <f t="shared" si="1"/>
         <v>424202AC</v>
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A16" s="80" t="s">
-        <v>421</v>
-      </c>
-      <c r="B16" s="81">
+      <c r="A16" s="79" t="s">
+        <v>420</v>
+      </c>
+      <c r="B16" s="80">
         <v>40021000</v>
       </c>
-      <c r="C16" s="80" t="s">
-        <v>416</v>
-      </c>
-      <c r="D16" s="80">
+      <c r="C16" s="79" t="s">
+        <v>415</v>
+      </c>
+      <c r="D16" s="79">
         <v>10</v>
       </c>
-      <c r="E16" s="80">
+      <c r="E16" s="79">
         <f t="shared" si="2"/>
         <v>1073877008</v>
       </c>
-      <c r="F16" s="80">
+      <c r="F16" s="79">
         <f t="shared" si="0"/>
         <v>135184</v>
       </c>
-      <c r="G16" s="82" t="str">
+      <c r="G16" s="81" t="str">
         <f t="shared" si="1"/>
         <v>4242022C</v>
       </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A17" s="80" t="s">
-        <v>422</v>
-      </c>
-      <c r="B17" s="81">
+      <c r="A17" s="79" t="s">
+        <v>421</v>
+      </c>
+      <c r="B17" s="80">
         <v>40021400</v>
       </c>
-      <c r="C17" s="80" t="s">
-        <v>415</v>
-      </c>
-      <c r="D17" s="80">
+      <c r="C17" s="79" t="s">
+        <v>414</v>
+      </c>
+      <c r="D17" s="79">
         <v>14</v>
       </c>
-      <c r="E17" s="80">
+      <c r="E17" s="79">
         <f t="shared" si="2"/>
         <v>1073878036</v>
       </c>
-      <c r="F17" s="80">
+      <c r="F17" s="79">
         <f t="shared" si="0"/>
         <v>136212</v>
       </c>
-      <c r="G17" s="80" t="str">
+      <c r="G17" s="79" t="str">
         <f t="shared" si="1"/>
         <v>424282AC</v>
       </c>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A18" s="80" t="s">
-        <v>422</v>
-      </c>
-      <c r="B18" s="81">
+      <c r="A18" s="79" t="s">
+        <v>421</v>
+      </c>
+      <c r="B18" s="80">
         <v>40021400</v>
       </c>
-      <c r="C18" s="80" t="s">
-        <v>416</v>
-      </c>
-      <c r="D18" s="80">
+      <c r="C18" s="79" t="s">
+        <v>415</v>
+      </c>
+      <c r="D18" s="79">
         <v>10</v>
       </c>
-      <c r="E18" s="80">
+      <c r="E18" s="79">
         <f t="shared" si="2"/>
         <v>1073878032</v>
       </c>
-      <c r="F18" s="80">
+      <c r="F18" s="79">
         <f t="shared" si="0"/>
         <v>136208</v>
       </c>
-      <c r="G18" s="80" t="str">
+      <c r="G18" s="79" t="str">
         <f t="shared" si="1"/>
         <v>4242822C</v>
       </c>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A19" s="80"/>
-      <c r="B19" s="80"/>
-      <c r="C19" s="80"/>
-      <c r="D19" s="80"/>
-      <c r="E19" s="80"/>
-      <c r="F19" s="80"/>
-      <c r="G19" s="80"/>
+      <c r="A19" s="79"/>
+      <c r="B19" s="79"/>
+      <c r="C19" s="79"/>
+      <c r="D19" s="79"/>
+      <c r="E19" s="79"/>
+      <c r="F19" s="79"/>
+      <c r="G19" s="79"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>

--- a/pinasign.xlsx
+++ b/pinasign.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="651" uniqueCount="432">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="653" uniqueCount="434">
   <si>
     <t>VPP</t>
     <phoneticPr fontId="2"/>
@@ -1946,10 +1946,6 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>MicroSD</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>bit band</t>
     <phoneticPr fontId="2"/>
   </si>
@@ -2018,10 +2014,6 @@
     <t>424002B0</t>
   </si>
   <si>
-    <t>b,</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>RS-232(PC)_TX</t>
     <phoneticPr fontId="2"/>
   </si>
@@ -2035,6 +2027,22 @@
   </si>
   <si>
     <t>LED</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>SD</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>SD_CS</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>LED1</t>
     <phoneticPr fontId="2"/>
   </si>
 </sst>
@@ -3442,8 +3450,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:FL86"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A73" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="I19" sqref="I19"/>
+    <sheetView tabSelected="1" topLeftCell="A46" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="I49" sqref="I49"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="21" x14ac:dyDescent="0.4"/>
@@ -3881,7 +3889,7 @@
         <v>219</v>
       </c>
       <c r="K12" s="14" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="L12" s="82">
         <v>42400220</v>
@@ -3908,7 +3916,7 @@
         <v>222</v>
       </c>
       <c r="I13" s="54" t="s">
-        <v>428</v>
+        <v>426</v>
       </c>
       <c r="J13" s="55"/>
       <c r="L13" s="14"/>
@@ -3934,7 +3942,7 @@
         <v>222</v>
       </c>
       <c r="I14" s="54" t="s">
-        <v>429</v>
+        <v>427</v>
       </c>
       <c r="J14" s="55"/>
       <c r="L14" s="14"/>
@@ -3964,10 +3972,10 @@
       </c>
       <c r="J15" s="55"/>
       <c r="K15" s="14" t="s">
+        <v>423</v>
+      </c>
+      <c r="L15" s="14" t="s">
         <v>424</v>
-      </c>
-      <c r="L15" s="14" t="s">
-        <v>425</v>
       </c>
       <c r="N15" s="12"/>
     </row>
@@ -3991,11 +3999,11 @@
         <v>222</v>
       </c>
       <c r="I16" s="20" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="J16" s="55"/>
       <c r="K16" s="14" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="L16" s="82">
         <v>42400230</v>
@@ -4064,7 +4072,7 @@
       <c r="C19" s="39"/>
       <c r="D19" s="40"/>
       <c r="E19" s="41" t="s">
-        <v>427</v>
+        <v>433</v>
       </c>
       <c r="F19" s="42" t="s">
         <v>25</v>
@@ -4076,7 +4084,7 @@
         <v>25</v>
       </c>
       <c r="I19" s="1" t="s">
-        <v>431</v>
+        <v>429</v>
       </c>
       <c r="J19" s="45" t="s">
         <v>26</v>
@@ -4484,7 +4492,7 @@
         <v>348</v>
       </c>
       <c r="I30" s="43" t="s">
-        <v>430</v>
+        <v>428</v>
       </c>
       <c r="J30" s="22"/>
       <c r="K30" s="14"/>
@@ -4808,7 +4816,7 @@
         <v>53</v>
       </c>
       <c r="I33" s="1" t="s">
-        <v>408</v>
+        <v>430</v>
       </c>
       <c r="J33" s="45"/>
       <c r="L33" s="14"/>
@@ -4914,7 +4922,7 @@
         <v>54</v>
       </c>
       <c r="I34" s="1" t="s">
-        <v>408</v>
+        <v>430</v>
       </c>
       <c r="J34" s="45"/>
       <c r="L34" s="14"/>
@@ -5018,7 +5026,7 @@
         <v>56</v>
       </c>
       <c r="I35" s="1" t="s">
-        <v>408</v>
+        <v>430</v>
       </c>
       <c r="J35" s="45"/>
       <c r="L35" s="14"/>
@@ -5667,7 +5675,9 @@
       <c r="F49" s="66"/>
       <c r="G49" s="43"/>
       <c r="H49" s="43"/>
-      <c r="I49" s="43"/>
+      <c r="I49" s="43" t="s">
+        <v>432</v>
+      </c>
       <c r="J49" s="45" t="s">
         <v>80</v>
       </c>
@@ -5682,7 +5692,9 @@
         <v>235</v>
       </c>
       <c r="C50" s="39"/>
-      <c r="D50" s="67"/>
+      <c r="D50" s="67" t="s">
+        <v>431</v>
+      </c>
       <c r="E50" s="41" t="s">
         <v>309</v>
       </c>
@@ -7526,7 +7538,7 @@
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A1" s="79" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="B1" s="79"/>
       <c r="C1" s="79"/>
@@ -7546,14 +7558,14 @@
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A3" s="79" t="s">
+        <v>409</v>
+      </c>
+      <c r="B3" s="79" t="s">
         <v>410</v>
-      </c>
-      <c r="B3" s="79" t="s">
-        <v>411</v>
       </c>
       <c r="C3" s="79"/>
       <c r="D3" s="79" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="E3" s="79"/>
       <c r="F3" s="79"/>
@@ -7596,13 +7608,13 @@
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A7" s="79" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="B7" s="80">
         <v>40020000</v>
       </c>
       <c r="C7" s="79" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="D7" s="79">
         <v>14</v>
@@ -7622,13 +7634,13 @@
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A8" s="79" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="B8" s="80">
         <v>40020000</v>
       </c>
       <c r="C8" s="79" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="D8" s="79">
         <v>10</v>
@@ -7648,13 +7660,13 @@
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A9" s="79" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="B9" s="80">
         <v>40020400</v>
       </c>
       <c r="C9" s="79" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="D9" s="79">
         <v>14</v>
@@ -7674,13 +7686,13 @@
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A10" s="79" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="B10" s="80">
         <v>40020400</v>
       </c>
       <c r="C10" s="79" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="D10" s="79">
         <v>10</v>
@@ -7700,13 +7712,13 @@
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A11" s="79" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="B11" s="80">
         <v>40020800</v>
       </c>
       <c r="C11" s="79" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="D11" s="79">
         <v>14</v>
@@ -7726,13 +7738,13 @@
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A12" s="79" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="B12" s="80">
         <v>40020800</v>
       </c>
       <c r="C12" s="79" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="D12" s="79">
         <v>10</v>
@@ -7752,13 +7764,13 @@
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A13" s="79" t="s">
+        <v>417</v>
+      </c>
+      <c r="B13" s="80" t="s">
         <v>418</v>
       </c>
-      <c r="B13" s="80" t="s">
-        <v>419</v>
-      </c>
       <c r="C13" s="79" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="D13" s="79">
         <v>14</v>
@@ -7778,13 +7790,13 @@
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A14" s="79" t="s">
+        <v>417</v>
+      </c>
+      <c r="B14" s="80" t="s">
         <v>418</v>
       </c>
-      <c r="B14" s="80" t="s">
-        <v>419</v>
-      </c>
       <c r="C14" s="79" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="D14" s="79">
         <v>10</v>
@@ -7804,13 +7816,13 @@
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A15" s="79" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="B15" s="80">
         <v>40021000</v>
       </c>
       <c r="C15" s="79" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="D15" s="79">
         <v>14</v>
@@ -7830,13 +7842,13 @@
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A16" s="79" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="B16" s="80">
         <v>40021000</v>
       </c>
       <c r="C16" s="79" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="D16" s="79">
         <v>10</v>
@@ -7856,13 +7868,13 @@
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A17" s="79" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="B17" s="80">
         <v>40021400</v>
       </c>
       <c r="C17" s="79" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="D17" s="79">
         <v>14</v>
@@ -7882,13 +7894,13 @@
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A18" s="79" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="B18" s="80">
         <v>40021400</v>
       </c>
       <c r="C18" s="79" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="D18" s="79">
         <v>10</v>
